--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X119"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="n">
         <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>2.684984953952649</v>
+        <v>2.667165559974642</v>
       </c>
       <c r="E2" t="n">
-        <v>2.074120969079477</v>
+        <v>2.059343006877218</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6108639848731718</v>
+        <v>-0.6078225530974245</v>
       </c>
       <c r="G2" t="n">
         <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>33.4622074518437</v>
+        <v>32.54692504044436</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
-        <v>128.5427889205755</v>
+        <v>125.9424641585138</v>
       </c>
       <c r="L2" t="n">
-        <v>7.091248415278333</v>
+        <v>7.038366525196832</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.773175281358938</v>
+        <v>0.7646073360550346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5207393732473746</v>
+        <v>0.6007707163326935</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8230655979948339</v>
+        <v>0.8270079675839851</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>117</v>
@@ -652,31 +652,31 @@
         <v>205</v>
       </c>
       <c r="D3" t="n">
-        <v>2.869808567219139</v>
+        <v>2.834318158524176</v>
       </c>
       <c r="E3" t="n">
-        <v>2.258944582345967</v>
+        <v>2.226495605426752</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6108639848731718</v>
+        <v>-0.6078225530974245</v>
       </c>
       <c r="G3" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>88.44486493190783</v>
+        <v>88.92994745465677</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
         <v>88</v>
       </c>
       <c r="K3" t="n">
-        <v>194.8338864329835</v>
+        <v>196.6215337762932</v>
       </c>
       <c r="L3" t="n">
-        <v>7.579381562077756</v>
+        <v>7.479464472728028</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9090515515793574</v>
+        <v>0.9176607160140784</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2613636363636364</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3353114572389261</v>
+        <v>0.3339425652001733</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9224507284992346</v>
+        <v>0.932732717211802</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1373</v>
+        <v>1088</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -738,19 +738,19 @@
         <v>821</v>
       </c>
       <c r="D4" t="n">
-        <v>3.363453436294361</v>
+        <v>3.326035743616695</v>
       </c>
       <c r="E4" t="n">
-        <v>2.623202732407621</v>
+        <v>2.585654260321547</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7402507038867401</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G4" t="n">
         <v>168</v>
       </c>
       <c r="H4" t="n">
-        <v>64.3118473605781</v>
+        <v>64.78899007731241</v>
       </c>
       <c r="I4" t="n">
         <v>56</v>
@@ -759,10 +759,10 @@
         <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>294.5839885624991</v>
+        <v>294.5453232519714</v>
       </c>
       <c r="L4" t="n">
-        <v>16.99472297950645</v>
+        <v>16.82327995625527</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8794739598151307</v>
+        <v>0.8799938083452206</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2512764015110462</v>
+        <v>0.2473335910918333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9088134605767484</v>
+        <v>0.9096166677566013</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1374</v>
+        <v>1089</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B5" t="n">
         <v>928</v>
@@ -824,31 +824,31 @@
         <v>1071</v>
       </c>
       <c r="D5" t="n">
-        <v>4.206620379446807</v>
+        <v>4.178543119137087</v>
       </c>
       <c r="E5" t="n">
-        <v>3.466369675560068</v>
+        <v>3.438161635841939</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7402507038867401</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G5" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H5" t="n">
-        <v>131.9542120142843</v>
+        <v>168.7999163658112</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>143</v>
       </c>
       <c r="K5" t="n">
-        <v>419.9487331252352</v>
+        <v>422.5776984588505</v>
       </c>
       <c r="L5" t="n">
-        <v>21.25504318186973</v>
+        <v>21.13531125979042</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8729092985547799</v>
+        <v>0.8681679568237318</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1958041958041958</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2990627500658937</v>
+        <v>0.2928339966902921</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9026172456035498</v>
+        <v>0.9057274565403768</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1375</v>
+        <v>1090</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -904,37 +904,37 @@
         <v>1071</v>
       </c>
       <c r="B6" t="n">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="C6" t="n">
         <v>1230</v>
       </c>
       <c r="D6" t="n">
-        <v>1.287937158340986</v>
+        <v>1.291734444233581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5476864544542461</v>
+        <v>0.5513529609384329</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7402507038867401</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G6" t="n">
         <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>48.75653999852921</v>
+        <v>48.22162283580519</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>160.0984849694474</v>
+        <v>160.041836254926</v>
       </c>
       <c r="L6" t="n">
-        <v>6.50763735416321</v>
+        <v>6.533667061812472</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7129615757147881</v>
+        <v>0.7507141713820922</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1197183098591549</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1394382410119394</v>
+        <v>0.1645369913639801</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5435621464829965</v>
+        <v>0.5053307872103369</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1376</v>
+        <v>1091</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B7" t="n">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C7" t="n">
         <v>1827</v>
       </c>
       <c r="D7" t="n">
-        <v>1.640904371953682</v>
+        <v>1.625330315072818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9006536680669421</v>
+        <v>0.8849488317776698</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7402507038867401</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H7" t="n">
-        <v>93.62187800342917</v>
+        <v>94.39458868112729</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K7" t="n">
-        <v>168.1345768775162</v>
+        <v>169.34065335543</v>
       </c>
       <c r="L7" t="n">
-        <v>8.291095971864456</v>
+        <v>8.221014150054115</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.84019182400614</v>
+        <v>0.8444045660288645</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="R7" t="n">
-        <v>0.458345015854678</v>
+        <v>0.4626072602664664</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7549693013375405</v>
+        <v>0.7547843900797918</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1377</v>
+        <v>1092</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1079,34 +1079,34 @@
         <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3137308530130547</v>
+        <v>0.3078933215613858</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.453880545540333</v>
+        <v>-0.4596654740008528</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7676113985533877</v>
+        <v>-0.7675587955622386</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" t="n">
-        <v>23.88930205756492</v>
+        <v>24.27495747670247</v>
       </c>
       <c r="I8" t="n">
         <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>9.963281761069821</v>
+        <v>9.844332927457813</v>
       </c>
       <c r="L8" t="n">
-        <v>3.541090659987022</v>
+        <v>3.460431214502479</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7778244715976214</v>
+        <v>0.730331081491233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>0.207566739709013</v>
+        <v>0.1625683296928384</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9222637656343965</v>
+        <v>0.9355761005838341</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1378</v>
+        <v>1093</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1168,19 +1168,19 @@
         <v>721</v>
       </c>
       <c r="D9" t="n">
-        <v>2.288503519016504</v>
+        <v>2.271135273760719</v>
       </c>
       <c r="E9" t="n">
-        <v>1.520892120463116</v>
+        <v>1.50357647819848</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7676113985533877</v>
+        <v>-0.7675587955622386</v>
       </c>
       <c r="G9" t="n">
         <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>22.74095649894275</v>
+        <v>23.14409894942742</v>
       </c>
       <c r="I9" t="n">
         <v>25</v>
@@ -1189,10 +1189,10 @@
         <v>38</v>
       </c>
       <c r="K9" t="n">
-        <v>115.6518744242251</v>
+        <v>115.6418219717171</v>
       </c>
       <c r="L9" t="n">
-        <v>25.8304159718699</v>
+        <v>25.5254233960782</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7806879633310869</v>
+        <v>0.7843036479598298</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6578947368421053</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1548593994394721</v>
+        <v>0.1560544947773062</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9955490875551252</v>
+        <v>0.9937929345351491</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1379</v>
+        <v>1094</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>770</v>
+        <v>197</v>
       </c>
       <c r="B10" t="n">
-        <v>819</v>
+        <v>226</v>
       </c>
       <c r="C10" t="n">
-        <v>885</v>
+        <v>319</v>
       </c>
       <c r="D10" t="n">
-        <v>2.297099965215184</v>
+        <v>1.782743662810265</v>
       </c>
       <c r="E10" t="n">
-        <v>1.529488566661797</v>
+        <v>1.041770047845244</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7676113985533877</v>
+        <v>-0.7409736149650213</v>
       </c>
       <c r="G10" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H10" t="n">
-        <v>89.8885418175297</v>
+        <v>37.82054826708438</v>
       </c>
       <c r="I10" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2872880524009</v>
+        <v>121.566944838515</v>
       </c>
       <c r="L10" t="n">
-        <v>25.9274443484254</v>
+        <v>3.715297964332227</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.6084635484148981</v>
+        <v>0.9311676186593814</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7424242424242424</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09171373020892128</v>
+        <v>0.3641606983517019</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8039661821140778</v>
+        <v>0.9243723653905541</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1380</v>
+        <v>1095</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1762</v>
+        <v>1489</v>
       </c>
       <c r="B11" t="n">
-        <v>1790</v>
+        <v>1519</v>
       </c>
       <c r="C11" t="n">
-        <v>1827</v>
+        <v>1679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3816878511512637</v>
+        <v>3.078410062651888</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.385923547402124</v>
+        <v>2.462377193151601</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7676113985533877</v>
+        <v>-0.6160328695002869</v>
       </c>
       <c r="G11" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>28.91339488951758</v>
+        <v>73.41157834990281</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>15.64527610219692</v>
+        <v>278.884298096009</v>
       </c>
       <c r="L11" t="n">
-        <v>4.308123577141505</v>
+        <v>20.05214611670062</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7129053996355221</v>
+        <v>0.94909670176786</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.1875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1439821856702802</v>
+        <v>0.4087200189716333</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8867246035609712</v>
+        <v>0.9870710467379433</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1381</v>
+        <v>1096</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>196</v>
+        <v>1679</v>
       </c>
       <c r="B12" t="n">
-        <v>228</v>
+        <v>1742</v>
       </c>
       <c r="C12" t="n">
-        <v>320</v>
+        <v>1827</v>
       </c>
       <c r="D12" t="n">
-        <v>1.771069418382669</v>
+        <v>3.134665996324915</v>
       </c>
       <c r="E12" t="n">
-        <v>1.031222921724458</v>
+        <v>2.518633126824628</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7398464966582101</v>
+        <v>-0.6160328695002869</v>
       </c>
       <c r="G12" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H12" t="n">
-        <v>38.37584879235038</v>
+        <v>74.21434853301844</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J12" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K12" t="n">
-        <v>122.4945947521132</v>
+        <v>301.6534310223357</v>
       </c>
       <c r="L12" t="n">
-        <v>3.686833809720748</v>
+        <v>20.41858599280056</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9140964751089853</v>
+        <v>0.6557011258870626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="R12" t="n">
-        <v>0.388216496728169</v>
+        <v>0.2327635649642447</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9309082549974879</v>
+        <v>0.8958162895163088</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1382</v>
+        <v>1097</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>1791</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>1827</v>
       </c>
       <c r="D13" t="n">
-        <v>3.984790179873941</v>
+        <v>3.574628331507498</v>
       </c>
       <c r="E13" t="n">
-        <v>3.365035511774307</v>
+        <v>3.074396255731792</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.619754668099634</v>
+        <v>-0.5002320757757055</v>
       </c>
       <c r="G13" t="n">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H13" t="n">
-        <v>27.05044712837216</v>
+        <v>27.20539819644432</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>302.6309701290401</v>
+        <v>145.5583379651528</v>
       </c>
       <c r="L13" t="n">
-        <v>25.91947664546449</v>
+        <v>18.48866760654267</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8884721825678408</v>
+        <v>0.8110208805266919</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3396937733542809</v>
+        <v>0.2656949065209021</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9004360111867289</v>
+        <v>0.9948649475567211</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1383</v>
+        <v>1098</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C14" t="n">
         <v>1489</v>
       </c>
-      <c r="B14" t="n">
-        <v>1518</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1679</v>
-      </c>
       <c r="D14" t="n">
-        <v>3.089723208909393</v>
+        <v>0.9198877781613389</v>
       </c>
       <c r="E14" t="n">
-        <v>2.469968540809759</v>
+        <v>0.3302773214858781</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.619754668099634</v>
+        <v>-0.5896104566754609</v>
       </c>
       <c r="G14" t="n">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>73.02106743175386</v>
+        <v>25.25453933138988</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>279.6902337161039</v>
+        <v>24.18530628888641</v>
       </c>
       <c r="L14" t="n">
-        <v>20.09742168075963</v>
+        <v>3.372197348014725</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9459984864377398</v>
+        <v>0.8361962771621052</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1801242236024845</v>
+        <v>0.6</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3961284608208773</v>
+        <v>0.2919089680965709</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9855732790963434</v>
+        <v>0.9599460631056583</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1384</v>
+        <v>1099</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1679</v>
+        <v>1746</v>
       </c>
       <c r="B15" t="n">
-        <v>1741</v>
+        <v>1780</v>
       </c>
       <c r="C15" t="n">
         <v>1827</v>
       </c>
       <c r="D15" t="n">
-        <v>3.164553021114749</v>
+        <v>3.390820431534987</v>
       </c>
       <c r="E15" t="n">
-        <v>2.544798353015115</v>
+        <v>2.801209974859526</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.619754668099634</v>
+        <v>-0.5896104566754609</v>
       </c>
       <c r="G15" t="n">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
-        <v>73.85018099848435</v>
+        <v>37.65253207375736</v>
       </c>
       <c r="I15" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0961740653839</v>
+        <v>184.8367073222912</v>
       </c>
       <c r="L15" t="n">
-        <v>20.58415987330923</v>
+        <v>12.43033763278343</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6485903376397949</v>
+        <v>0.7650701356909311</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2263794891993744</v>
+        <v>0.1753161707161736</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8989907048695827</v>
+        <v>0.9839483538029122</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1385</v>
+        <v>1100</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1764</v>
+        <v>192</v>
       </c>
       <c r="B16" t="n">
-        <v>1791</v>
+        <v>215</v>
       </c>
       <c r="C16" t="n">
-        <v>1827</v>
+        <v>321</v>
       </c>
       <c r="D16" t="n">
-        <v>3.578817951519893</v>
+        <v>3.109087587873615</v>
       </c>
       <c r="E16" t="n">
-        <v>3.080163345064099</v>
+        <v>2.48754075587062</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4986546064557933</v>
+        <v>-0.6215468320029959</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H16" t="n">
-        <v>27.54135063678541</v>
+        <v>221.0160236440937</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="K16" t="n">
-        <v>145.5137427721759</v>
+        <v>349.7458657792914</v>
       </c>
       <c r="L16" t="n">
-        <v>18.53640044219546</v>
+        <v>13.10815475004878</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8096079699994486</v>
+        <v>0.6273746903790283</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2754091235516267</v>
+        <v>0.07876880018439036</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9956317199598576</v>
+        <v>0.4158566450293903</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1386</v>
+        <v>1101</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1434</v>
+        <v>321</v>
       </c>
       <c r="B17" t="n">
-        <v>1454</v>
+        <v>349</v>
       </c>
       <c r="C17" t="n">
-        <v>1488</v>
+        <v>414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9517339875494666</v>
+        <v>2.406351228824182</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3609949466956205</v>
+        <v>1.784804396821186</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5907390408538461</v>
+        <v>-0.6215468320029959</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H17" t="n">
-        <v>24.24448583700655</v>
+        <v>25.50216315568986</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K17" t="n">
-        <v>24.14499202335325</v>
+        <v>150.3174848252365</v>
       </c>
       <c r="L17" t="n">
-        <v>3.488669281427891</v>
+        <v>10.14536367950006</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8430442450988203</v>
+        <v>0.8692656179580409</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3041645553141943</v>
+        <v>0.3695251429110825</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9726767269680864</v>
+        <v>0.9778550323260606</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1387</v>
+        <v>1102</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1747</v>
+        <v>1039</v>
       </c>
       <c r="B18" t="n">
-        <v>1779</v>
+        <v>1096</v>
       </c>
       <c r="C18" t="n">
-        <v>1827</v>
+        <v>1235</v>
       </c>
       <c r="D18" t="n">
-        <v>3.411955226050579</v>
+        <v>1.031666776773439</v>
       </c>
       <c r="E18" t="n">
-        <v>2.821216185196733</v>
+        <v>0.4331171124851557</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5907390408538461</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="H18" t="n">
-        <v>37.41500022787795</v>
+        <v>41.9934696274081</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J18" t="n">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="K18" t="n">
-        <v>183.9884968289003</v>
+        <v>96.33050118611585</v>
       </c>
       <c r="L18" t="n">
-        <v>12.50683861504036</v>
+        <v>10.54633262676092</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7736445985866163</v>
+        <v>0.7344541857180233</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="R18" t="n">
-        <v>0.170470984484025</v>
+        <v>0.3017219161663949</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9830151485819943</v>
+        <v>0.899044190120234</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1388</v>
+        <v>1103</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>193</v>
+        <v>1235</v>
       </c>
       <c r="B19" t="n">
-        <v>215</v>
+        <v>1313</v>
       </c>
       <c r="C19" t="n">
-        <v>321</v>
+        <v>1447</v>
       </c>
       <c r="D19" t="n">
-        <v>3.144684563494021</v>
+        <v>4.102593444738618</v>
       </c>
       <c r="E19" t="n">
-        <v>2.524089768450803</v>
+        <v>3.504043780450335</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6205947950432182</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G19" t="n">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="H19" t="n">
-        <v>220.6165272791367</v>
+        <v>93.8892060492567</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J19" t="n">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="K19" t="n">
-        <v>347.2139839388024</v>
+        <v>450.6952276739422</v>
       </c>
       <c r="L19" t="n">
-        <v>13.16082905655632</v>
+        <v>41.93923471675794</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.623392057810892</v>
+        <v>0.727065507576352</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08381555392543109</v>
+        <v>0.4539224672376228</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3982453995373421</v>
+        <v>0.9842029302414128</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1389</v>
+        <v>1104</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>321</v>
+        <v>1447</v>
       </c>
       <c r="B20" t="n">
-        <v>349</v>
+        <v>1467</v>
       </c>
       <c r="C20" t="n">
-        <v>415</v>
+        <v>1493</v>
       </c>
       <c r="D20" t="n">
-        <v>2.412059829445411</v>
+        <v>0.6255291895579971</v>
       </c>
       <c r="E20" t="n">
-        <v>1.791465034402193</v>
+        <v>0.02697952526971393</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6205947950432182</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G20" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="H20" t="n">
-        <v>25.82442984582678</v>
+        <v>23.55984118777292</v>
       </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K20" t="n">
-        <v>150.9345037682131</v>
+        <v>21.21313465065673</v>
       </c>
       <c r="L20" t="n">
-        <v>10.0947190246154</v>
+        <v>6.394544294097762</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8714729007059908</v>
+        <v>0.6487053175057598</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3740941508534201</v>
+        <v>0.07604022107989684</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9743289142733862</v>
+        <v>0.9558367115800412</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1390</v>
+        <v>1105</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1235</v>
+        <v>1749</v>
       </c>
       <c r="B21" t="n">
-        <v>1313</v>
+        <v>1776</v>
       </c>
       <c r="C21" t="n">
-        <v>1447</v>
+        <v>1827</v>
       </c>
       <c r="D21" t="n">
-        <v>4.114341087757967</v>
+        <v>3.197092425546336</v>
       </c>
       <c r="E21" t="n">
-        <v>3.518547470327764</v>
+        <v>2.598542761258053</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5957936174302028</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G21" t="n">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="H21" t="n">
-        <v>93.44365269085301</v>
+        <v>26.50033829739027</v>
       </c>
       <c r="I21" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="K21" t="n">
-        <v>449.9342729228482</v>
+        <v>192.589320035022</v>
       </c>
       <c r="L21" t="n">
-        <v>41.96174401480532</v>
+        <v>32.68264609989875</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7274627303561445</v>
+        <v>0.7015119640270275</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.582089552238806</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4544102132360424</v>
+        <v>0.1262680818431661</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9833202877356536</v>
+        <v>0.623644999182661</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1391</v>
+        <v>1106</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1447</v>
+        <v>1725</v>
       </c>
       <c r="B22" t="n">
-        <v>1467</v>
+        <v>1751</v>
       </c>
       <c r="C22" t="n">
-        <v>1492</v>
+        <v>1827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6314194269846616</v>
+        <v>3.781917489602646</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03562580955445879</v>
+        <v>3.222923222016164</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5957936174302028</v>
+        <v>-0.5589942675864822</v>
       </c>
       <c r="G22" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H22" t="n">
-        <v>22.65624064984263</v>
+        <v>30.50571763232756</v>
       </c>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>20.82041509009724</v>
+        <v>184.9381950809472</v>
       </c>
       <c r="L22" t="n">
-        <v>6.439782165834878</v>
+        <v>8.899171946987037</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6291036710564497</v>
+        <v>0.8679483875490062</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06018126788415198</v>
+        <v>0.3668035114698781</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9535527523413384</v>
+        <v>0.7319168789384579</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1392</v>
+        <v>1107</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1681</v>
+        <v>1603</v>
       </c>
       <c r="B23" t="n">
-        <v>1710</v>
+        <v>1630</v>
       </c>
       <c r="C23" t="n">
-        <v>1749</v>
+        <v>1683</v>
       </c>
       <c r="D23" t="n">
-        <v>2.544974858587564</v>
+        <v>3.674835504495427</v>
       </c>
       <c r="E23" t="n">
-        <v>1.949181241157361</v>
+        <v>3.105295357545351</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5957936174302028</v>
+        <v>-0.5695401469500757</v>
       </c>
       <c r="G23" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
-        <v>17.82991457552544</v>
+        <v>57.67616082596874</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K23" t="n">
-        <v>148.6460442940088</v>
+        <v>243.1873583803521</v>
       </c>
       <c r="L23" t="n">
-        <v>25.95593832944968</v>
+        <v>27.58718299184369</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6435483971202123</v>
+        <v>0.6892185612499295</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2102262097139383</v>
+        <v>0.06350635402275666</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4581463768612063</v>
+        <v>0.971093897499097</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1393</v>
+        <v>1108</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1749</v>
+        <v>1683</v>
       </c>
       <c r="B24" t="n">
-        <v>1776</v>
+        <v>1714</v>
       </c>
       <c r="C24" t="n">
-        <v>1827</v>
+        <v>1765</v>
       </c>
       <c r="D24" t="n">
-        <v>3.219778771354191</v>
+        <v>3.665666244673155</v>
       </c>
       <c r="E24" t="n">
-        <v>2.623985153923988</v>
+        <v>3.096126097723079</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5957936174302028</v>
+        <v>-0.5695401469500757</v>
       </c>
       <c r="G24" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
-        <v>26.10589955593628</v>
+        <v>38.11463359392837</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
         <v>51</v>
       </c>
       <c r="K24" t="n">
-        <v>192.3107462834771</v>
+        <v>237.7717134682097</v>
       </c>
       <c r="L24" t="n">
-        <v>32.83819442920647</v>
+        <v>27.51834887714459</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.6985925898356776</v>
+        <v>0.6796015967273418</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1282001826697143</v>
+        <v>0.05008300142800589</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6133357273276292</v>
+        <v>0.9765798071518459</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1394</v>
+        <v>1109</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>831</v>
+        <v>1641</v>
       </c>
       <c r="B25" t="n">
-        <v>906</v>
+        <v>1717</v>
       </c>
       <c r="C25" t="n">
-        <v>1026</v>
+        <v>1827</v>
       </c>
       <c r="D25" t="n">
-        <v>1.998293694170284</v>
+        <v>3.15956605951018</v>
       </c>
       <c r="E25" t="n">
-        <v>1.43699187118663</v>
+        <v>2.559453118702401</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5613018229836546</v>
+        <v>-0.6001129408077793</v>
       </c>
       <c r="G25" t="n">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H25" t="n">
-        <v>28.8074160973548</v>
+        <v>43.88528269992162</v>
       </c>
       <c r="I25" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>148.9363054388443</v>
+        <v>369.1271110795862</v>
       </c>
       <c r="L25" t="n">
-        <v>4.706523592582734</v>
+        <v>8.283648634870591</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.4645660624031173</v>
+        <v>0.5599550128337103</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.625</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3724434608126362</v>
+        <v>0.2163675069833252</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4598067508368963</v>
+        <v>0.6684855084374612</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1395</v>
+        <v>1110</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1725</v>
+        <v>1554</v>
       </c>
       <c r="B26" t="n">
-        <v>1751</v>
+        <v>1615</v>
       </c>
       <c r="C26" t="n">
         <v>1827</v>
       </c>
       <c r="D26" t="n">
-        <v>3.794185676298821</v>
+        <v>3.213377952867274</v>
       </c>
       <c r="E26" t="n">
-        <v>3.232883853315167</v>
+        <v>2.549748822011809</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5613018229836546</v>
+        <v>-0.663629130855465</v>
       </c>
       <c r="G26" t="n">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="H26" t="n">
-        <v>30.4682869718406</v>
+        <v>61.39453644591094</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J26" t="n">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="K26" t="n">
-        <v>185.1883309799939</v>
+        <v>426.5429983570693</v>
       </c>
       <c r="L26" t="n">
-        <v>8.936336261399502</v>
+        <v>6.286482543341098</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8667112476662709</v>
+        <v>0.7250277616278101</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.2877358490566038</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3745017762657515</v>
+        <v>0.3552101970941998</v>
       </c>
       <c r="S26" t="n">
-        <v>0.727129435899227</v>
+        <v>0.4298919764561068</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1396</v>
+        <v>1111</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1603</v>
+        <v>718</v>
       </c>
       <c r="B27" t="n">
-        <v>1629</v>
+        <v>856</v>
       </c>
       <c r="C27" t="n">
-        <v>1684</v>
+        <v>1058</v>
       </c>
       <c r="D27" t="n">
-        <v>3.702820761986892</v>
+        <v>2.246718345953649</v>
       </c>
       <c r="E27" t="n">
-        <v>3.132830129603918</v>
+        <v>1.399121964191875</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5699906323829742</v>
+        <v>-0.8475963817617745</v>
       </c>
       <c r="G27" t="n">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="H27" t="n">
-        <v>56.05546188200879</v>
+        <v>197.7090230599538</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="J27" t="n">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="K27" t="n">
-        <v>245.4924412267591</v>
+        <v>411.0718722498099</v>
       </c>
       <c r="L27" t="n">
-        <v>27.72418260927889</v>
+        <v>5.827257766553226</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6989541818824609</v>
+        <v>0.6009181685384017</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05698306922712395</v>
+        <v>0.3997468026937629</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9715586686006633</v>
+        <v>0.8735846824663622</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1397</v>
+        <v>1112</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1684</v>
+        <v>515</v>
       </c>
       <c r="B28" t="n">
-        <v>1713</v>
+        <v>576</v>
       </c>
       <c r="C28" t="n">
-        <v>1766</v>
+        <v>663</v>
       </c>
       <c r="D28" t="n">
-        <v>3.680991744315722</v>
+        <v>2.782828818248966</v>
       </c>
       <c r="E28" t="n">
-        <v>3.111001111932747</v>
+        <v>2.26513844575304</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5699906323829742</v>
+        <v>-0.5176903724959263</v>
       </c>
       <c r="G28" t="n">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="H28" t="n">
-        <v>38.10581615231854</v>
+        <v>117.0397862746429</v>
       </c>
       <c r="I28" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J28" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="K28" t="n">
-        <v>237.4195605128803</v>
+        <v>284.6165505545271</v>
       </c>
       <c r="L28" t="n">
-        <v>27.56074189448395</v>
+        <v>6.53350443296594</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6984008172860638</v>
+        <v>0.6475269213871871</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0506095003913454</v>
+        <v>0.3273167198205142</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9745024976539711</v>
+        <v>0.714263259763279</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1398</v>
+        <v>1113</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1555</v>
+        <v>663</v>
       </c>
       <c r="B29" t="n">
-        <v>1615</v>
+        <v>719</v>
       </c>
       <c r="C29" t="n">
-        <v>1827</v>
+        <v>807</v>
       </c>
       <c r="D29" t="n">
-        <v>3.245214235637986</v>
+        <v>2.296743488524281</v>
       </c>
       <c r="E29" t="n">
-        <v>2.583991360088448</v>
+        <v>1.779053116028354</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.661222875549538</v>
+        <v>-0.5176903724959263</v>
       </c>
       <c r="G29" t="n">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="H29" t="n">
-        <v>60.79570002881132</v>
+        <v>51.50190099394763</v>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J29" t="n">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6304657326734</v>
+        <v>196.0099846261374</v>
       </c>
       <c r="L29" t="n">
-        <v>6.366314636395195</v>
+        <v>5.39227697559245</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6914197224021839</v>
+        <v>0.7659711375735327</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3600376023617525</v>
+        <v>0.428212143652645</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4280500856804865</v>
+        <v>0.8608797403581941</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1399</v>
+        <v>1114</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1023</v>
+        <v>1257</v>
       </c>
       <c r="B30" t="n">
-        <v>1047</v>
+        <v>1308</v>
       </c>
       <c r="C30" t="n">
-        <v>1080</v>
+        <v>1379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9188617464760007</v>
+        <v>2.80953359199907</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4434657882616285</v>
+        <v>2.058328941680009</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4753959582143722</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G30" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H30" t="n">
-        <v>22.73841417404446</v>
+        <v>62.58507257098609</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J30" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K30" t="n">
-        <v>30.789916255916</v>
+        <v>212.0185019822438</v>
       </c>
       <c r="L30" t="n">
-        <v>3.873115358257018</v>
+        <v>7.205751637677428</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.6883816661667568</v>
+        <v>0.7464934774170779</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07433156547331611</v>
+        <v>0.1701116825044701</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9648462689148098</v>
+        <v>0.9609825218762933</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1400</v>
+        <v>1115</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>314</v>
+        <v>1379</v>
       </c>
       <c r="B31" t="n">
-        <v>376</v>
+        <v>1412</v>
       </c>
       <c r="C31" t="n">
-        <v>495</v>
+        <v>1554</v>
       </c>
       <c r="D31" t="n">
-        <v>2.35641986852287</v>
+        <v>2.676813063113266</v>
       </c>
       <c r="E31" t="n">
-        <v>1.509300469344693</v>
+        <v>1.925608412794205</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8471193991781767</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G31" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H31" t="n">
-        <v>105.6364654481391</v>
+        <v>43.9640387833258</v>
       </c>
       <c r="I31" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="J31" t="n">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K31" t="n">
-        <v>358.8632944464033</v>
+        <v>238.2752444340392</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1216339786303</v>
+        <v>6.865356644324875</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.4664507385449541</v>
+        <v>0.8832962173856553</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5210084033613446</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06862389659417349</v>
+        <v>0.3245070830211509</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5966073445034233</v>
+        <v>0.8797174636835869</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1401</v>
+        <v>1116</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>720</v>
+        <v>1554</v>
       </c>
       <c r="B32" t="n">
-        <v>855</v>
+        <v>1586</v>
       </c>
       <c r="C32" t="n">
-        <v>1059</v>
+        <v>1667</v>
       </c>
       <c r="D32" t="n">
-        <v>2.254900561104408</v>
+        <v>2.030986722421707</v>
       </c>
       <c r="E32" t="n">
-        <v>1.407781161926232</v>
+        <v>1.279782072102645</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.8471193991781767</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G32" t="n">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="H32" t="n">
-        <v>197.9021156529999</v>
+        <v>33.88017911955558</v>
       </c>
       <c r="I32" t="n">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="J32" t="n">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="K32" t="n">
-        <v>410.9514536669083</v>
+        <v>130.3143655811594</v>
       </c>
       <c r="L32" t="n">
-        <v>5.857901674348959</v>
+        <v>5.208973454835336</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6031405758374667</v>
+        <v>0.874546378552992</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6617647058823529</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4022700562205706</v>
+        <v>0.2027472939715345</v>
       </c>
       <c r="S32" t="n">
-        <v>0.860111130872782</v>
+        <v>0.9444601614606908</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1402</v>
+        <v>1117</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>516</v>
+        <v>807</v>
       </c>
       <c r="B33" t="n">
-        <v>576</v>
+        <v>837</v>
       </c>
       <c r="C33" t="n">
-        <v>663</v>
+        <v>942</v>
       </c>
       <c r="D33" t="n">
-        <v>2.775498853425026</v>
+        <v>1.925341754490507</v>
       </c>
       <c r="E33" t="n">
-        <v>2.256079130961115</v>
+        <v>1.272726981876002</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5194197224639114</v>
+        <v>-0.652614772614505</v>
       </c>
       <c r="G33" t="n">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H33" t="n">
-        <v>118.5944135691674</v>
+        <v>40.69287555173935</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>284.8367481618302</v>
+        <v>127.7856832691659</v>
       </c>
       <c r="L33" t="n">
-        <v>6.522422039741384</v>
+        <v>4.052140654862172</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.64670406652734</v>
+        <v>0.8878954253529308</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3118093434854406</v>
+        <v>0.331138625028771</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7066080070682185</v>
+        <v>0.6830335873100619</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1403</v>
+        <v>1118</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>663</v>
+        <v>1373</v>
       </c>
       <c r="B34" t="n">
-        <v>719</v>
+        <v>1400</v>
       </c>
       <c r="C34" t="n">
-        <v>807</v>
+        <v>1437</v>
       </c>
       <c r="D34" t="n">
-        <v>2.30279047946594</v>
+        <v>1.289530981140873</v>
       </c>
       <c r="E34" t="n">
-        <v>1.783370757002028</v>
+        <v>0.6334916395648519</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5194197224639114</v>
+        <v>-0.6560393415760213</v>
       </c>
       <c r="G34" t="n">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40117513439748</v>
+        <v>35.92188087951081</v>
       </c>
       <c r="I34" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K34" t="n">
-        <v>196.3960520211763</v>
+        <v>54.87022466467911</v>
       </c>
       <c r="L34" t="n">
-        <v>5.411557406208455</v>
+        <v>4.215773653361032</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7687774547983365</v>
+        <v>0.7676453123882017</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4269966930335575</v>
+        <v>0.2479061771032895</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8463242831990151</v>
+        <v>0.8972671866934235</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1404</v>
+        <v>1119</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>871</v>
+        <v>749</v>
       </c>
       <c r="B35" t="n">
-        <v>903</v>
+        <v>776</v>
       </c>
       <c r="C35" t="n">
-        <v>947</v>
+        <v>853</v>
       </c>
       <c r="D35" t="n">
-        <v>3.177506720895275</v>
+        <v>2.761429486024379</v>
       </c>
       <c r="E35" t="n">
-        <v>2.427645412342094</v>
+        <v>1.989686526327256</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7498613085531812</v>
+        <v>-0.7717429596971226</v>
       </c>
       <c r="G35" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H35" t="n">
-        <v>188.2870064982252</v>
+        <v>68.30310620456692</v>
       </c>
       <c r="I35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K35" t="n">
-        <v>186.7569619475407</v>
+        <v>167.3221721736817</v>
       </c>
       <c r="L35" t="n">
-        <v>8.143749050673058</v>
+        <v>13.83637122836506</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6865529467457643</v>
+        <v>0.8977659257149465</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1583383975892435</v>
+        <v>0.2313064250148049</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9763397920997452</v>
+        <v>0.9491126584436398</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1405</v>
+        <v>1120</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1257</v>
+        <v>1227</v>
       </c>
       <c r="B36" t="n">
-        <v>1307</v>
+        <v>1244</v>
       </c>
       <c r="C36" t="n">
-        <v>1380</v>
+        <v>1357</v>
       </c>
       <c r="D36" t="n">
-        <v>2.819454752822887</v>
+        <v>2.226674936615248</v>
       </c>
       <c r="E36" t="n">
-        <v>2.069593444269705</v>
+        <v>1.454931976918125</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7498613085531812</v>
+        <v>-0.7717429596971226</v>
       </c>
       <c r="G36" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H36" t="n">
-        <v>61.98089738893236</v>
+        <v>17.12079737076988</v>
       </c>
       <c r="I36" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J36" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K36" t="n">
-        <v>213.1960680591639</v>
+        <v>110.3471246556218</v>
       </c>
       <c r="L36" t="n">
-        <v>7.226084469224252</v>
+        <v>11.1569392533215</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7516152744225404</v>
+        <v>0.7905153898932499</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.684931506849315</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="R36" t="n">
-        <v>0.165651106612741</v>
+        <v>0.668935644526924</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9585636292637953</v>
+        <v>0.8805540851463259</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1406</v>
+        <v>1121</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1380</v>
+        <v>781</v>
       </c>
       <c r="B37" t="n">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C37" t="n">
-        <v>1555</v>
+        <v>907</v>
       </c>
       <c r="D37" t="n">
-        <v>2.693791963505298</v>
+        <v>2.934945163419832</v>
       </c>
       <c r="E37" t="n">
-        <v>1.943930654952117</v>
+        <v>2.436025258013949</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7498613085531812</v>
+        <v>-0.4989199054058829</v>
       </c>
       <c r="G37" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="H37" t="n">
-        <v>43.46747115555968</v>
+        <v>147.3291920793833</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J37" t="n">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="K37" t="n">
-        <v>237.3478520845055</v>
+        <v>219.6214940541433</v>
       </c>
       <c r="L37" t="n">
-        <v>6.904018676418721</v>
+        <v>5.945704785040516</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8777049649260407</v>
+        <v>0.8332052575190064</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2237762237762238</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3341672606145116</v>
+        <v>0.2278380484807745</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8807375653771332</v>
+        <v>0.694636613056818</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1407</v>
+        <v>1122</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1555</v>
+        <v>548</v>
       </c>
       <c r="B38" t="n">
-        <v>1586</v>
+        <v>574</v>
       </c>
       <c r="C38" t="n">
-        <v>1667</v>
+        <v>643</v>
       </c>
       <c r="D38" t="n">
-        <v>2.047930377764374</v>
+        <v>1.586092168150499</v>
       </c>
       <c r="E38" t="n">
-        <v>1.298069069211192</v>
+        <v>0.8990257860374684</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.7498613085531812</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G38" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H38" t="n">
-        <v>33.53239886979804</v>
+        <v>29.53472699855251</v>
       </c>
       <c r="I38" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K38" t="n">
-        <v>129.6657331805467</v>
+        <v>75.02256097687915</v>
       </c>
       <c r="L38" t="n">
-        <v>5.248716221460608</v>
+        <v>6.030894832321025</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8904681507417341</v>
+        <v>0.8317201183002778</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.382716049382716</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="R38" t="n">
-        <v>0.215084991468581</v>
+        <v>0.4129953739725323</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9415480154470625</v>
+        <v>0.6158926571408556</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1408</v>
+        <v>1123</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>82</v>
+        <v>643</v>
       </c>
       <c r="B39" t="n">
-        <v>108</v>
+        <v>675</v>
       </c>
       <c r="C39" t="n">
-        <v>148</v>
+        <v>762</v>
       </c>
       <c r="D39" t="n">
-        <v>1.634782568565047</v>
+        <v>3.10455977888026</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9797146172499489</v>
+        <v>2.417493396767229</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.655067951315098</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G39" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="H39" t="n">
-        <v>35.48309281754626</v>
+        <v>54.63417923347686</v>
       </c>
       <c r="I39" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="K39" t="n">
-        <v>76.36585841178029</v>
+        <v>172.6921453214498</v>
       </c>
       <c r="L39" t="n">
-        <v>3.440501125126154</v>
+        <v>11.80465669212237</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.785362989489839</v>
+        <v>0.8964309916309912</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.65</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="R39" t="n">
-        <v>0.203006762492371</v>
+        <v>0.1964345018468767</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9428281658776674</v>
+        <v>0.9439891511303734</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1409</v>
+        <v>1124</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>807</v>
+        <v>762</v>
       </c>
       <c r="B40" t="n">
-        <v>837</v>
+        <v>793</v>
       </c>
       <c r="C40" t="n">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="D40" t="n">
-        <v>1.934689412720443</v>
+        <v>1.631196284465358</v>
       </c>
       <c r="E40" t="n">
-        <v>1.279621461405345</v>
+        <v>0.9441299023523275</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.655067951315098</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G40" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H40" t="n">
-        <v>40.69838224267403</v>
+        <v>45.14249867283786</v>
       </c>
       <c r="I40" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J40" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K40" t="n">
-        <v>128.146573212186</v>
+        <v>101.1669367097247</v>
       </c>
       <c r="L40" t="n">
-        <v>4.071673645919166</v>
+        <v>6.202396960294384</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.887591047123205</v>
+        <v>0.8602131338118235</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3544865361941478</v>
+        <v>0.3960945613192403</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6815573972577874</v>
+        <v>0.5619863669412091</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1410</v>
+        <v>1125</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1373</v>
+        <v>1568</v>
       </c>
       <c r="B41" t="n">
-        <v>1399</v>
+        <v>1593</v>
       </c>
       <c r="C41" t="n">
-        <v>1437</v>
+        <v>1698</v>
       </c>
       <c r="D41" t="n">
-        <v>1.276999159307028</v>
+        <v>3.601035858203034</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6228162669862211</v>
+        <v>2.913969476090004</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6541828923208068</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G41" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H41" t="n">
-        <v>36.41121524677806</v>
+        <v>127.6539719588668</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>54.99163985467213</v>
+        <v>275.9493642862474</v>
       </c>
       <c r="L41" t="n">
-        <v>4.166588183206004</v>
+        <v>13.69243792027771</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7758945124533203</v>
+        <v>0.8705106577411035</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2807649911235332</v>
+        <v>0.2892153078120117</v>
       </c>
       <c r="S41" t="n">
-        <v>0.89008864443832</v>
+        <v>0.8366766833214666</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1411</v>
+        <v>1126</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>749</v>
+        <v>417</v>
       </c>
       <c r="B42" t="n">
-        <v>775</v>
+        <v>445</v>
       </c>
       <c r="C42" t="n">
-        <v>853</v>
+        <v>535</v>
       </c>
       <c r="D42" t="n">
-        <v>2.784797497105372</v>
+        <v>3.148031145131127</v>
       </c>
       <c r="E42" t="n">
-        <v>2.013325321820154</v>
+        <v>2.477777885557387</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.7714721752852184</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G42" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H42" t="n">
-        <v>67.5263924899167</v>
+        <v>119.9404296551186</v>
       </c>
       <c r="I42" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J42" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="n">
-        <v>167.1644046755999</v>
+        <v>210.3521576469143</v>
       </c>
       <c r="L42" t="n">
-        <v>13.94789278077034</v>
+        <v>9.51223126105474</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8992408296771044</v>
+        <v>0.8967348169167052</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="R42" t="n">
-        <v>0.211556715643967</v>
+        <v>0.458549574781396</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9487342316702977</v>
+        <v>0.9349269155435062</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1412</v>
+        <v>1127</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1227</v>
+        <v>596</v>
       </c>
       <c r="B43" t="n">
-        <v>1244</v>
+        <v>623</v>
       </c>
       <c r="C43" t="n">
-        <v>1359</v>
+        <v>675</v>
       </c>
       <c r="D43" t="n">
-        <v>2.246266615846565</v>
+        <v>1.647328339091442</v>
       </c>
       <c r="E43" t="n">
-        <v>1.474794440561347</v>
+        <v>0.9770750795177027</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7714721752852184</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G43" t="n">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="H43" t="n">
-        <v>18.18292945263534</v>
+        <v>23.56533421344636</v>
       </c>
       <c r="I43" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="K43" t="n">
-        <v>110.5591928822831</v>
+        <v>81.22263910196288</v>
       </c>
       <c r="L43" t="n">
-        <v>11.25061551061364</v>
+        <v>4.977640754464105</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7899238202999593</v>
+        <v>0.8452998221986923</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6723593296392106</v>
+        <v>0.3752846826759067</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8741579846489584</v>
+        <v>0.9660566075921777</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1413</v>
+        <v>1128</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>824</v>
+        <v>1056</v>
       </c>
       <c r="B44" t="n">
-        <v>846</v>
+        <v>1112</v>
       </c>
       <c r="C44" t="n">
-        <v>907</v>
+        <v>1226</v>
       </c>
       <c r="D44" t="n">
-        <v>2.400686539711514</v>
+        <v>2.51355419535169</v>
       </c>
       <c r="E44" t="n">
-        <v>1.902531778568162</v>
+        <v>1.84330093577795</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4981547611433527</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G44" t="n">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="H44" t="n">
-        <v>20.96064503428806</v>
+        <v>116.9080969194772</v>
       </c>
       <c r="I44" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J44" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="K44" t="n">
-        <v>123.2980099342349</v>
+        <v>279.1876856819023</v>
       </c>
       <c r="L44" t="n">
-        <v>4.864681259078116</v>
+        <v>7.595067421857962</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8649878385718336</v>
+        <v>0.6317602145792586</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.360655737704918</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3977442776645696</v>
+        <v>0.193134939508047</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8674252498025592</v>
+        <v>0.7405892887947783</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1414</v>
+        <v>1129</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>549</v>
+        <v>656</v>
       </c>
       <c r="B45" t="n">
-        <v>573</v>
+        <v>699</v>
       </c>
       <c r="C45" t="n">
-        <v>643</v>
+        <v>753</v>
       </c>
       <c r="D45" t="n">
-        <v>1.606358254437889</v>
+        <v>2.260339848224285</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9178595496704898</v>
+        <v>1.723273126645031</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6884987047673993</v>
+        <v>-0.5370667215792535</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H45" t="n">
-        <v>29.7173573115715</v>
+        <v>210.159956914275</v>
       </c>
       <c r="I45" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J45" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K45" t="n">
-        <v>75.44591391041943</v>
+        <v>164.7026177961727</v>
       </c>
       <c r="L45" t="n">
-        <v>6.121853340492687</v>
+        <v>10.30854006436411</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8475367397796951</v>
+        <v>0.686112147687328</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3983402276032814</v>
+        <v>0.3084910331194924</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6023455669420368</v>
+        <v>0.9245962752378127</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1415</v>
+        <v>1130</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>643</v>
+        <v>753</v>
       </c>
       <c r="B46" t="n">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="C46" t="n">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="D46" t="n">
-        <v>3.115200180993507</v>
+        <v>1.442324773394798</v>
       </c>
       <c r="E46" t="n">
-        <v>2.426701476226108</v>
+        <v>0.9052580518155442</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6884987047673993</v>
+        <v>-0.5370667215792535</v>
       </c>
       <c r="G46" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H46" t="n">
-        <v>54.43146515301203</v>
+        <v>30.83371461333252</v>
       </c>
       <c r="I46" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K46" t="n">
-        <v>172.6498603452663</v>
+        <v>74.72848703935074</v>
       </c>
       <c r="L46" t="n">
-        <v>11.87207061789087</v>
+        <v>6.577888154316977</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.9073331564463645</v>
+        <v>0.9164905072040186</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.367816091954023</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2081100629382223</v>
+        <v>0.3355629838300266</v>
       </c>
       <c r="S46" t="n">
-        <v>0.943353508042203</v>
+        <v>0.9182698607419445</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1416</v>
+        <v>1131</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="B47" t="n">
-        <v>792</v>
+        <v>932</v>
       </c>
       <c r="C47" t="n">
-        <v>909</v>
+        <v>1169</v>
       </c>
       <c r="D47" t="n">
-        <v>1.652098576693474</v>
+        <v>2.445110850993525</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9635998719260747</v>
+        <v>1.865225791371653</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6884987047673993</v>
+        <v>-0.5798850596218712</v>
       </c>
       <c r="G47" t="n">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="H47" t="n">
-        <v>43.31913737240109</v>
+        <v>81.37450713085389</v>
       </c>
       <c r="I47" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J47" t="n">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="K47" t="n">
-        <v>101.339048440878</v>
+        <v>272.2392274811065</v>
       </c>
       <c r="L47" t="n">
-        <v>6.296170335983552</v>
+        <v>5.829148682149516</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8484760170006165</v>
+        <v>0.738493245903743</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3848353485010758</v>
+        <v>0.3884437288193361</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5634122226797252</v>
+        <v>0.8722259281944968</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1417</v>
+        <v>1132</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1457</v>
+        <v>167</v>
       </c>
       <c r="B48" t="n">
-        <v>1486</v>
+        <v>187</v>
       </c>
       <c r="C48" t="n">
-        <v>1523</v>
+        <v>245</v>
       </c>
       <c r="D48" t="n">
-        <v>2.67021113735142</v>
+        <v>2.523463126600409</v>
       </c>
       <c r="E48" t="n">
-        <v>1.981712432584021</v>
+        <v>1.831716356672806</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6884987047673993</v>
+        <v>-0.6917467699276031</v>
       </c>
       <c r="G48" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H48" t="n">
-        <v>27.83085270050219</v>
+        <v>15.54567561233642</v>
       </c>
       <c r="I48" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J48" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="K48" t="n">
-        <v>120.0360297938078</v>
+        <v>140.9131277543582</v>
       </c>
       <c r="L48" t="n">
-        <v>10.17621126909559</v>
+        <v>10.36850894257416</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.6539663502937463</v>
+        <v>0.8690093357157138</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="R48" t="n">
-        <v>0.05108371051088598</v>
+        <v>0.2710545037112675</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9969736442351337</v>
+        <v>0.9738325071915486</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1418</v>
+        <v>1133</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1569</v>
+        <v>365</v>
       </c>
       <c r="B49" t="n">
-        <v>1593</v>
+        <v>387</v>
       </c>
       <c r="C49" t="n">
-        <v>1700</v>
+        <v>430</v>
       </c>
       <c r="D49" t="n">
-        <v>3.650061427070901</v>
+        <v>0.9081924984020048</v>
       </c>
       <c r="E49" t="n">
-        <v>2.961562722303502</v>
+        <v>0.2164457284744017</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.6884987047673993</v>
+        <v>-0.6917467699276031</v>
       </c>
       <c r="G49" t="n">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="H49" t="n">
-        <v>126.4762302104291</v>
+        <v>40.98448269699117</v>
       </c>
       <c r="I49" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J49" t="n">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="K49" t="n">
-        <v>275.2890707450406</v>
+        <v>35.46658853788417</v>
       </c>
       <c r="L49" t="n">
-        <v>13.91043416285535</v>
+        <v>3.731618640271528</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.864340569710107</v>
+        <v>0.6383468600100851</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2242990654205607</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3049901529613628</v>
+        <v>0.07669387559941117</v>
       </c>
       <c r="S49" t="n">
-        <v>0.838143601641413</v>
+        <v>0.6551938695331079</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1419</v>
+        <v>1134</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>417</v>
+        <v>1707</v>
       </c>
       <c r="B50" t="n">
-        <v>444</v>
+        <v>1753</v>
       </c>
       <c r="C50" t="n">
-        <v>535</v>
+        <v>1827</v>
       </c>
       <c r="D50" t="n">
-        <v>3.160688469942003</v>
+        <v>1.957282276091412</v>
       </c>
       <c r="E50" t="n">
-        <v>2.486195608158696</v>
+        <v>1.265535506163809</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.674492861783307</v>
+        <v>-0.6917467699276031</v>
       </c>
       <c r="G50" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H50" t="n">
-        <v>119.9794078515652</v>
+        <v>31.51491699724738</v>
       </c>
       <c r="I50" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J50" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K50" t="n">
-        <v>211.0128173950995</v>
+        <v>135.5058725285816</v>
       </c>
       <c r="L50" t="n">
-        <v>9.556621604399792</v>
+        <v>8.042161808853443</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.9059031606027301</v>
+        <v>0.6650088513989125</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4481429464803653</v>
+        <v>0.3453451332190577</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9416799487036404</v>
+        <v>0.6439782685014229</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1420</v>
+        <v>1135</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>597</v>
+        <v>110</v>
       </c>
       <c r="B51" t="n">
-        <v>622</v>
+        <v>136</v>
       </c>
       <c r="C51" t="n">
-        <v>676</v>
+        <v>187</v>
       </c>
       <c r="D51" t="n">
-        <v>1.657420219256655</v>
+        <v>2.399648409590084</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9829273574733481</v>
+        <v>1.681989081094357</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.674492861783307</v>
+        <v>-0.717659328495727</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H51" t="n">
-        <v>24.36000602588376</v>
+        <v>20.81969845175874</v>
       </c>
       <c r="I51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K51" t="n">
-        <v>80.91518848971332</v>
+        <v>98.87842178638122</v>
       </c>
       <c r="L51" t="n">
-        <v>5.011356869096256</v>
+        <v>9.083688000175982</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8683053829651411</v>
+        <v>0.823704693082514</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.462962962962963</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3706802879957736</v>
+        <v>0.4368021328853365</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9538786393276194</v>
+        <v>0.9173327699276718</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1421</v>
+        <v>1136</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1126</v>
+        <v>351</v>
       </c>
       <c r="B52" t="n">
-        <v>1151</v>
+        <v>376</v>
       </c>
       <c r="C52" t="n">
-        <v>1227</v>
+        <v>485</v>
       </c>
       <c r="D52" t="n">
-        <v>2.374114815276013</v>
+        <v>2.583430731338139</v>
       </c>
       <c r="E52" t="n">
-        <v>1.699621953492706</v>
+        <v>1.865771402842412</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.674492861783307</v>
+        <v>-0.717659328495727</v>
       </c>
       <c r="G52" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="H52" t="n">
-        <v>23.6544164797856</v>
+        <v>52.12826901815578</v>
       </c>
       <c r="I52" t="n">
         <v>25</v>
       </c>
       <c r="J52" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="K52" t="n">
-        <v>147.2264541557735</v>
+        <v>159.3017452324908</v>
       </c>
       <c r="L52" t="n">
-        <v>7.178346474434</v>
+        <v>9.779382112711605</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.876004335310701</v>
+        <v>0.8827661178394601</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="R52" t="n">
-        <v>0.438293573443943</v>
+        <v>0.3715995669198263</v>
       </c>
       <c r="S52" t="n">
-        <v>0.889577452291462</v>
+        <v>0.5983409305145182</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1422</v>
+        <v>1137</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="B53" t="n">
-        <v>699</v>
+        <v>590</v>
       </c>
       <c r="C53" t="n">
-        <v>753</v>
+        <v>661</v>
       </c>
       <c r="D53" t="n">
-        <v>2.278622643530268</v>
+        <v>1.817981612727207</v>
       </c>
       <c r="E53" t="n">
-        <v>1.741932508291234</v>
+        <v>1.10032228423148</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5366901352390337</v>
+        <v>-0.717659328495727</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H53" t="n">
-        <v>209.3904750288932</v>
+        <v>18.94363188186071</v>
       </c>
       <c r="I53" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K53" t="n">
-        <v>162.9329740062239</v>
+        <v>91.00241481968457</v>
       </c>
       <c r="L53" t="n">
-        <v>10.34283146800243</v>
+        <v>6.88183222761858</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.718359186444691</v>
+        <v>0.8577901865862406</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3108969436790839</v>
+        <v>0.4899315224612196</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9106228670058754</v>
+        <v>0.7928113411716287</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1423</v>
+        <v>1138</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>753</v>
+        <v>860</v>
       </c>
       <c r="B54" t="n">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="C54" t="n">
-        <v>852</v>
+        <v>949</v>
       </c>
       <c r="D54" t="n">
-        <v>1.448400679705528</v>
+        <v>0.5775690280875749</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9117105444664938</v>
+        <v>0.1539351474230672</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5366901352390337</v>
+        <v>-0.4236338806645078</v>
       </c>
       <c r="G54" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H54" t="n">
-        <v>31.54258253502053</v>
+        <v>29.50615790885968</v>
       </c>
       <c r="I54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J54" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K54" t="n">
-        <v>75.00150484043981</v>
+        <v>28.72859335922037</v>
       </c>
       <c r="L54" t="n">
-        <v>6.574394479432131</v>
+        <v>3.949018863110998</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.9185781022124857</v>
+        <v>0.8710101704006883</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3415404200309926</v>
+        <v>0.2737247700578903</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9084365672101543</v>
+        <v>0.6876411853333017</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1424</v>
+        <v>1139</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>864</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
-        <v>931</v>
+        <v>103</v>
       </c>
       <c r="C55" t="n">
-        <v>1170</v>
+        <v>290</v>
       </c>
       <c r="D55" t="n">
-        <v>2.465177216054356</v>
+        <v>3.473268500971542</v>
       </c>
       <c r="E55" t="n">
-        <v>1.888888509000701</v>
+        <v>2.897653082735661</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5762887070536553</v>
+        <v>-0.5756154182358814</v>
       </c>
       <c r="G55" t="n">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="H55" t="n">
-        <v>80.61276011857524</v>
+        <v>19.2294648611086</v>
       </c>
       <c r="I55" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J55" t="n">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="K55" t="n">
-        <v>271.5013752767741</v>
+        <v>384.7483962371271</v>
       </c>
       <c r="L55" t="n">
-        <v>5.868183670819915</v>
+        <v>14.07409407332108</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.7411476838023446</v>
+        <v>0.7844038322032163</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2803347280334728</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4024980850453087</v>
+        <v>0.5370345560936581</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8629274781541252</v>
+        <v>0.8633719517792118</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1425</v>
+        <v>1140</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>172</v>
+        <v>867</v>
       </c>
       <c r="B56" t="n">
-        <v>186</v>
+        <v>884</v>
       </c>
       <c r="C56" t="n">
-        <v>244</v>
+        <v>906</v>
       </c>
       <c r="D56" t="n">
-        <v>2.548027164876672</v>
+        <v>0.8581912684757287</v>
       </c>
       <c r="E56" t="n">
-        <v>1.852056148186073</v>
+        <v>0.1798537442384386</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6959710166905986</v>
+        <v>-0.6783375242372901</v>
       </c>
       <c r="G56" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H56" t="n">
-        <v>15.61116094471774</v>
+        <v>19.21526868437127</v>
       </c>
       <c r="I56" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J56" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K56" t="n">
-        <v>129.7719737920401</v>
+        <v>18.60407263140627</v>
       </c>
       <c r="L56" t="n">
-        <v>10.40935243773457</v>
+        <v>4.433711799758686</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8909382723631892</v>
+        <v>0.7709811410345616</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2737393456849272</v>
+        <v>0.2023109467634563</v>
       </c>
       <c r="S56" t="n">
-        <v>0.973706641563174</v>
+        <v>0.9763753341386558</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1426</v>
+        <v>1141</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1708</v>
+        <v>1493</v>
       </c>
       <c r="B57" t="n">
-        <v>1752</v>
+        <v>1517</v>
       </c>
       <c r="C57" t="n">
-        <v>1827</v>
+        <v>1588</v>
       </c>
       <c r="D57" t="n">
-        <v>1.984970184584504</v>
+        <v>1.442636942231095</v>
       </c>
       <c r="E57" t="n">
-        <v>1.288999167893905</v>
+        <v>0.7642994179938044</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6959710166905986</v>
+        <v>-0.6783375242372901</v>
       </c>
       <c r="G57" t="n">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H57" t="n">
-        <v>30.75929277902947</v>
+        <v>41.57404220571902</v>
       </c>
       <c r="I57" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J57" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K57" t="n">
-        <v>135.6071344738634</v>
+        <v>76.22111497075102</v>
       </c>
       <c r="L57" t="n">
-        <v>8.109118503348151</v>
+        <v>7.453159532720988</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7038159082505085</v>
+        <v>0.8722459868748887</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5866666666666667</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3320122874656931</v>
+        <v>0.2551452146179253</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6552651782059329</v>
+        <v>0.6448479968428097</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1427</v>
+        <v>1142</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112</v>
+        <v>1588</v>
       </c>
       <c r="B58" t="n">
-        <v>135</v>
+        <v>1655</v>
       </c>
       <c r="C58" t="n">
-        <v>187</v>
+        <v>1827</v>
       </c>
       <c r="D58" t="n">
-        <v>2.430621582967703</v>
+        <v>1.605352301181379</v>
       </c>
       <c r="E58" t="n">
-        <v>1.708553065627684</v>
+        <v>0.927014776944089</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7220685173400196</v>
+        <v>-0.6783375242372901</v>
       </c>
       <c r="G58" t="n">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H58" t="n">
-        <v>20.78785314729791</v>
+        <v>71.0383160527233</v>
       </c>
       <c r="I58" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J58" t="n">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="K58" t="n">
-        <v>96.44709037176644</v>
+        <v>333.461670772017</v>
       </c>
       <c r="L58" t="n">
-        <v>9.210442867642849</v>
+        <v>8.293803143860513</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8536979448297497</v>
+        <v>0.7103804193690904</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4242729182247278</v>
+        <v>0.8944209818567586</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9216971720304101</v>
+        <v>0.4445607936049305</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1428</v>
+        <v>1143</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="C59" t="n">
-        <v>485</v>
+        <v>150</v>
       </c>
       <c r="D59" t="n">
-        <v>2.613283909760553</v>
+        <v>3.161776362380907</v>
       </c>
       <c r="E59" t="n">
-        <v>1.891215392420533</v>
+        <v>2.462238574496461</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7220685173400196</v>
+        <v>-0.6995377878844458</v>
       </c>
       <c r="G59" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H59" t="n">
-        <v>50.29315390839713</v>
+        <v>103.8345018916654</v>
       </c>
       <c r="I59" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J59" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K59" t="n">
-        <v>160.0751857760418</v>
+        <v>203.7270981873546</v>
       </c>
       <c r="L59" t="n">
-        <v>9.902611873622833</v>
+        <v>19.71687496115405</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8633979581561393</v>
+        <v>0.8423306699442317</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3477574965274303</v>
+        <v>0.2282471555451339</v>
       </c>
       <c r="S59" t="n">
-        <v>0.560364002137499</v>
+        <v>0.9253259893849767</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1429</v>
+        <v>1144</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>569</v>
+        <v>208</v>
       </c>
       <c r="B60" t="n">
-        <v>590</v>
+        <v>232</v>
       </c>
       <c r="C60" t="n">
-        <v>660</v>
+        <v>290</v>
       </c>
       <c r="D60" t="n">
-        <v>1.844173499558167</v>
+        <v>2.628172825611173</v>
       </c>
       <c r="E60" t="n">
-        <v>1.122104982218148</v>
+        <v>1.928635037726728</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7220685173400196</v>
+        <v>-0.6995377878844458</v>
       </c>
       <c r="G60" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H60" t="n">
-        <v>18.61667328450596</v>
+        <v>22.36970613121736</v>
       </c>
       <c r="I60" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J60" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K60" t="n">
-        <v>91.10152490181105</v>
+        <v>155.5998071915535</v>
       </c>
       <c r="L60" t="n">
-        <v>6.988193791549645</v>
+        <v>16.38931696606682</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8496667775868287</v>
+        <v>0.8762046146144311</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.3</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4854667179465325</v>
+        <v>0.2654696148181999</v>
       </c>
       <c r="S60" t="n">
-        <v>0.7692596694715477</v>
+        <v>0.9801810815161313</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1430</v>
+        <v>1145</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>860</v>
+        <v>290</v>
       </c>
       <c r="B61" t="n">
-        <v>883</v>
+        <v>322</v>
       </c>
       <c r="C61" t="n">
-        <v>949</v>
+        <v>421</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5868821075545384</v>
+        <v>2.622215028169637</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1624871153367093</v>
+        <v>1.922677240285191</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4243949922178291</v>
+        <v>-0.6995377878844458</v>
       </c>
       <c r="G61" t="n">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H61" t="n">
-        <v>28.67871435248287</v>
+        <v>36.94381732706307</v>
       </c>
       <c r="I61" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J61" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K61" t="n">
-        <v>28.76329203989199</v>
+        <v>178.8765670464038</v>
       </c>
       <c r="L61" t="n">
-        <v>3.988275081967212</v>
+        <v>16.35216407043627</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.8624799380857644</v>
+        <v>0.9166560960648591</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2999343034237211</v>
+        <v>0.3127390498849945</v>
       </c>
       <c r="S61" t="n">
-        <v>0.6693002765693319</v>
+        <v>0.9492686839937862</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1431</v>
+        <v>1146</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="B62" t="n">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="C62" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="D62" t="n">
-        <v>3.502714166890307</v>
+        <v>3.015978511032693</v>
       </c>
       <c r="E62" t="n">
-        <v>2.919154646462822</v>
+        <v>2.316440723148248</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5835595204274848</v>
+        <v>-0.6995377878844458</v>
       </c>
       <c r="G62" t="n">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="H62" t="n">
-        <v>18.67237448327201</v>
+        <v>86.92745793862451</v>
       </c>
       <c r="I62" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J62" t="n">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="K62" t="n">
-        <v>379.9412941233791</v>
+        <v>286.4617386837059</v>
       </c>
       <c r="L62" t="n">
-        <v>14.05780582208217</v>
+        <v>18.80767782790932</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7752151709029788</v>
+        <v>0.8417247895058177</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="R62" t="n">
-        <v>0.5309103189268753</v>
+        <v>0.1302911661280071</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8542217171891647</v>
+        <v>0.9149809318744577</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1432</v>
+        <v>1147</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="B63" t="n">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="C63" t="n">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="D63" t="n">
-        <v>2.939633408691199</v>
+        <v>2.511785423080926</v>
       </c>
       <c r="E63" t="n">
-        <v>2.189136562572005</v>
+        <v>1.766092636451216</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7504968461191948</v>
+        <v>-0.7456927866297106</v>
       </c>
       <c r="G63" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H63" t="n">
-        <v>76.85979931499597</v>
+        <v>23.00980449606345</v>
       </c>
       <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
         <v>25</v>
       </c>
-      <c r="J63" t="n">
-        <v>44</v>
-      </c>
       <c r="K63" t="n">
-        <v>172.6378782088915</v>
+        <v>83.28673923133547</v>
       </c>
       <c r="L63" t="n">
-        <v>20.25699908075852</v>
+        <v>7.251003920694739</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7437246274707393</v>
+        <v>0.6556934381612405</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.68</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1672015425584251</v>
+        <v>0.06055965974988279</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9494519046035762</v>
+        <v>0.9844352365603009</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1433</v>
+        <v>1148</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="B64" t="n">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="C64" t="n">
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="D64" t="n">
-        <v>2.342694738582181</v>
+        <v>2.254109134212815</v>
       </c>
       <c r="E64" t="n">
-        <v>1.592197892462986</v>
+        <v>1.508416347583104</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7504968461191948</v>
+        <v>-0.7456927866297106</v>
       </c>
       <c r="G64" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H64" t="n">
-        <v>30.90965709414684</v>
+        <v>33.19897107136171</v>
       </c>
       <c r="I64" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J64" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K64" t="n">
-        <v>146.7570678154156</v>
+        <v>120.442446418139</v>
       </c>
       <c r="L64" t="n">
-        <v>16.14349769792747</v>
+        <v>6.507145881037445</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8500684147843125</v>
+        <v>0.810790660686362</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2695869770068439</v>
+        <v>0.1061512635159044</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8801429652110846</v>
+        <v>0.9429821298490684</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1434</v>
+        <v>1149</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>883</v>
+        <v>46</v>
       </c>
       <c r="C65" t="n">
-        <v>905</v>
+        <v>142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8901838012447689</v>
+        <v>3.854882541802313</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2113947410646358</v>
+        <v>3.315656919799286</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.6787890601801331</v>
+        <v>-0.5392256220030265</v>
       </c>
       <c r="G65" t="n">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="H65" t="n">
-        <v>18.69154150542374</v>
+        <v>73.13838499052561</v>
       </c>
       <c r="I65" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J65" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K65" t="n">
-        <v>18.61683932315694</v>
+        <v>283.3532114983804</v>
       </c>
       <c r="L65" t="n">
-        <v>4.583064404192936</v>
+        <v>15.29601295503003</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7464840351053744</v>
+        <v>0.7207748193253717</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1576897077135291</v>
+        <v>0.1387705407434528</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9656809285252878</v>
+        <v>0.8519706575703025</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1435</v>
+        <v>1150</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="B66" t="n">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="C66" t="n">
-        <v>1227</v>
+        <v>1165</v>
       </c>
       <c r="D66" t="n">
-        <v>3.247224601080452</v>
+        <v>3.220074966706611</v>
       </c>
       <c r="E66" t="n">
-        <v>2.568435540900319</v>
+        <v>2.680849344703585</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6787890601801331</v>
+        <v>-0.5392256220030265</v>
       </c>
       <c r="G66" t="n">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="H66" t="n">
-        <v>63.65983496241938</v>
+        <v>49.79787928635642</v>
       </c>
       <c r="I66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J66" t="n">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="K66" t="n">
-        <v>245.7492162506149</v>
+        <v>170.4728132427513</v>
       </c>
       <c r="L66" t="n">
-        <v>16.71816478891345</v>
+        <v>12.77712300512374</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.9074413656064905</v>
+        <v>0.9041838670085013</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4292747770153431</v>
+        <v>0.3232235633777437</v>
       </c>
       <c r="S66" t="n">
-        <v>0.900136226078516</v>
+        <v>0.8309437848342629</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1436</v>
+        <v>1151</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1493</v>
+        <v>231</v>
       </c>
       <c r="B67" t="n">
-        <v>1517</v>
+        <v>266</v>
       </c>
       <c r="C67" t="n">
-        <v>1588</v>
+        <v>349</v>
       </c>
       <c r="D67" t="n">
-        <v>1.464277743943381</v>
+        <v>3.005341113220715</v>
       </c>
       <c r="E67" t="n">
-        <v>0.785488683763248</v>
+        <v>2.271368256336781</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6787890601801331</v>
+        <v>-0.7339728568839338</v>
       </c>
       <c r="G67" t="n">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H67" t="n">
-        <v>41.67745042217007</v>
+        <v>167.4728621201172</v>
       </c>
       <c r="I67" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J67" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K67" t="n">
-        <v>76.362578737261</v>
+        <v>256.3838973482287</v>
       </c>
       <c r="L67" t="n">
-        <v>7.538756823854624</v>
+        <v>11.19385831968806</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8656328461931393</v>
+        <v>0.7883496594168661</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2754031945150182</v>
+        <v>0.3551848461792081</v>
       </c>
       <c r="S67" t="n">
-        <v>0.6162173132037601</v>
+        <v>0.7138682347628872</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1437</v>
+        <v>1152</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1712</v>
+        <v>1293</v>
       </c>
       <c r="B68" t="n">
-        <v>1744</v>
+        <v>1321</v>
       </c>
       <c r="C68" t="n">
-        <v>1827</v>
+        <v>1442</v>
       </c>
       <c r="D68" t="n">
-        <v>1.840273147216902</v>
+        <v>3.025716410363299</v>
       </c>
       <c r="E68" t="n">
-        <v>1.161484087036769</v>
+        <v>2.291743553479365</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6787890601801331</v>
+        <v>-0.7339728568839338</v>
       </c>
       <c r="G68" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H68" t="n">
-        <v>14.11881022303783</v>
+        <v>141.3439870973641</v>
       </c>
       <c r="I68" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J68" t="n">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="K68" t="n">
-        <v>204.7691637758348</v>
+        <v>260.3145779538008</v>
       </c>
       <c r="L68" t="n">
-        <v>9.474549349480711</v>
+        <v>11.26974926878276</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7852688437207171</v>
+        <v>0.8583526383650825</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="R68" t="n">
-        <v>0.7164990318665034</v>
+        <v>0.4591886471691982</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8201189310128125</v>
+        <v>0.7921312951099071</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1438</v>
+        <v>1153</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>58</v>
+        <v>1599</v>
       </c>
       <c r="B69" t="n">
-        <v>85</v>
+        <v>1625</v>
       </c>
       <c r="C69" t="n">
-        <v>151</v>
+        <v>1673</v>
       </c>
       <c r="D69" t="n">
-        <v>3.196924534061491</v>
+        <v>2.730905149093552</v>
       </c>
       <c r="E69" t="n">
-        <v>2.497541263432292</v>
+        <v>2.143579682790868</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6993832706291994</v>
+        <v>-0.5873254663026838</v>
       </c>
       <c r="G69" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H69" t="n">
-        <v>97.07650440274284</v>
+        <v>31.33043163295497</v>
       </c>
       <c r="I69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K69" t="n">
-        <v>205.1439870961487</v>
+        <v>87.89041066828361</v>
       </c>
       <c r="L69" t="n">
-        <v>19.7881445580439</v>
+        <v>8.451019555201453</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8461924382687158</v>
+        <v>0.8612108409284541</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2306751202656177</v>
+        <v>0.2288927914785877</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9213909337376373</v>
+        <v>0.9540391017744523</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1439</v>
+        <v>1154</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>209</v>
+        <v>581</v>
       </c>
       <c r="B70" t="n">
-        <v>231</v>
+        <v>608</v>
       </c>
       <c r="C70" t="n">
-        <v>290</v>
+        <v>676</v>
       </c>
       <c r="D70" t="n">
-        <v>2.658321449748443</v>
+        <v>3.424496143445197</v>
       </c>
       <c r="E70" t="n">
-        <v>1.958938179119243</v>
+        <v>2.839924156987161</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6993832706291994</v>
+        <v>-0.5845719864580358</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H70" t="n">
-        <v>21.76723314536753</v>
+        <v>29.22440959977041</v>
       </c>
       <c r="I70" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J70" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K70" t="n">
-        <v>153.619116807687</v>
+        <v>241.5069898052384</v>
       </c>
       <c r="L70" t="n">
-        <v>16.45432933086535</v>
+        <v>21.87559279086325</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.8922285936434454</v>
+        <v>0.7717167757093254</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2586611609898085</v>
+        <v>0.101484147049315</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9794717753141065</v>
+        <v>0.8818539636054292</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1440</v>
+        <v>1155</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>290</v>
+        <v>749</v>
       </c>
       <c r="B71" t="n">
-        <v>321</v>
+        <v>767</v>
       </c>
       <c r="C71" t="n">
-        <v>421</v>
+        <v>840</v>
       </c>
       <c r="D71" t="n">
-        <v>2.633991098350839</v>
+        <v>2.684365275445911</v>
       </c>
       <c r="E71" t="n">
-        <v>1.93460782772164</v>
+        <v>2.023849486887661</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6993832706291994</v>
+        <v>-0.6605157885582494</v>
       </c>
       <c r="G71" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H71" t="n">
-        <v>36.71487590202196</v>
+        <v>23.83918930248024</v>
       </c>
       <c r="I71" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K71" t="n">
-        <v>178.8839024954745</v>
+        <v>168.5362566393098</v>
       </c>
       <c r="L71" t="n">
-        <v>16.30373068348592</v>
+        <v>11.80042900361807</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.9225012221782996</v>
+        <v>0.9129137579594584</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.31</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2947206081496615</v>
+        <v>0.2706149450348637</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9485812719426124</v>
+        <v>0.9558482802514489</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1441</v>
+        <v>1156</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>489</v>
+        <v>1671</v>
       </c>
       <c r="B72" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="C72" t="n">
-        <v>579</v>
+        <v>1827</v>
       </c>
       <c r="D72" t="n">
-        <v>2.553350886853235</v>
+        <v>1.249234278585897</v>
       </c>
       <c r="E72" t="n">
-        <v>1.853967616224036</v>
+        <v>0.5887184900276473</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6993832706291994</v>
+        <v>-0.6605157885582494</v>
       </c>
       <c r="G72" t="n">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="H72" t="n">
-        <v>14.42325049927047</v>
+        <v>59.36624226678805</v>
       </c>
       <c r="I72" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="K72" t="n">
-        <v>138.8187274941204</v>
+        <v>120.0611328847621</v>
       </c>
       <c r="L72" t="n">
-        <v>15.80458841556426</v>
+        <v>5.491614925949352</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8195446339700309</v>
+        <v>0.9054677766214143</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.1392405063291139</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4232903998692775</v>
+        <v>0.2350175893313328</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9871920504439315</v>
+        <v>0.8755965979765703</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1442</v>
+        <v>1157</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>323</v>
+        <v>1499</v>
       </c>
       <c r="B73" t="n">
-        <v>341</v>
+        <v>1531</v>
       </c>
       <c r="C73" t="n">
-        <v>365</v>
+        <v>1827</v>
       </c>
       <c r="D73" t="n">
-        <v>2.560964761621356</v>
+        <v>2.06635527718623</v>
       </c>
       <c r="E73" t="n">
-        <v>1.80935372468439</v>
+        <v>1.466099924820668</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7516110369369667</v>
+        <v>-0.6002553523655616</v>
       </c>
       <c r="G73" t="n">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="H73" t="n">
-        <v>22.0986668354671</v>
+        <v>35.57082068835643</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J73" t="n">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="K73" t="n">
-        <v>83.29791530150106</v>
+        <v>240.7278540681673</v>
       </c>
       <c r="L73" t="n">
-        <v>7.376823503425954</v>
+        <v>20.07304067692385</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6549014160851053</v>
+        <v>0.7616348893052157</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.75</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="R73" t="n">
-        <v>0.07383009136502121</v>
+        <v>0.6079428689994498</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9853269287301779</v>
+        <v>0.8561237898877694</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1443</v>
+        <v>1158</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>365</v>
+        <v>1028</v>
       </c>
       <c r="B74" t="n">
-        <v>391</v>
+        <v>1058</v>
       </c>
       <c r="C74" t="n">
-        <v>436</v>
+        <v>1200</v>
       </c>
       <c r="D74" t="n">
-        <v>2.243723464092295</v>
+        <v>2.121726250576497</v>
       </c>
       <c r="E74" t="n">
-        <v>1.492112427155329</v>
+        <v>1.377803208985343</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7516110369369667</v>
+        <v>-0.7439230415911534</v>
       </c>
       <c r="G74" t="n">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="H74" t="n">
-        <v>34.81242142780525</v>
+        <v>28.2900028610361</v>
       </c>
       <c r="I74" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J74" t="n">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="K74" t="n">
-        <v>119.1051596551677</v>
+        <v>172.7265233752783</v>
       </c>
       <c r="L74" t="n">
-        <v>6.463014342542337</v>
+        <v>10.91454070114419</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.7177248484340188</v>
+        <v>0.7658954017549572</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1799301814388443</v>
+        <v>0.402727599025658</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9547015032932213</v>
+        <v>0.7925980668799767</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1444</v>
+        <v>1159</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="B75" t="n">
-        <v>46</v>
+        <v>1233</v>
       </c>
       <c r="C75" t="n">
-        <v>142</v>
+        <v>1297</v>
       </c>
       <c r="D75" t="n">
-        <v>3.908346241323852</v>
+        <v>3.617019016161787</v>
       </c>
       <c r="E75" t="n">
-        <v>3.359695517226609</v>
+        <v>2.873095974570633</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5486507240972428</v>
+        <v>-0.7439230415911534</v>
       </c>
       <c r="G75" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="H75" t="n">
-        <v>73.00701643767184</v>
+        <v>41.96648574422738</v>
       </c>
       <c r="I75" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J75" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="K75" t="n">
-        <v>285.1079633216553</v>
+        <v>182.9697784756571</v>
       </c>
       <c r="L75" t="n">
-        <v>15.46547841227893</v>
+        <v>18.6065951052751</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7693394542315942</v>
+        <v>0.8535775443007226</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.515625</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1438985165823801</v>
+        <v>0.196656924694562</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8492047052708367</v>
+        <v>0.9885756738022055</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1445</v>
+        <v>1160</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1056</v>
+        <v>1423</v>
       </c>
       <c r="B76" t="n">
-        <v>1084</v>
+        <v>1451</v>
       </c>
       <c r="C76" t="n">
-        <v>1131</v>
+        <v>1577</v>
       </c>
       <c r="D76" t="n">
-        <v>3.26474970292713</v>
+        <v>2.509759970263492</v>
       </c>
       <c r="E76" t="n">
-        <v>2.716098978829887</v>
+        <v>1.765836928672338</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5486507240972428</v>
+        <v>-0.7439230415911534</v>
       </c>
       <c r="G76" t="n">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H76" t="n">
-        <v>49.78625791505897</v>
+        <v>23.90377544846137</v>
       </c>
       <c r="I76" t="n">
         <v>28</v>
       </c>
       <c r="J76" t="n">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="K76" t="n">
-        <v>135.7863881270516</v>
+        <v>224.9414773778506</v>
       </c>
       <c r="L76" t="n">
-        <v>12.91874182442216</v>
+        <v>12.91065581061664</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8131521760632853</v>
+        <v>0.8166642122715431</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2258913846668968</v>
+        <v>0.4056573103451422</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9954683664970514</v>
+        <v>0.8099326586347383</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1446</v>
+        <v>1161</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1131</v>
+        <v>1732</v>
       </c>
       <c r="B77" t="n">
-        <v>1144</v>
+        <v>1764</v>
       </c>
       <c r="C77" t="n">
-        <v>1164</v>
+        <v>1827</v>
       </c>
       <c r="D77" t="n">
-        <v>1.266631259451798</v>
+        <v>2.137171750584672</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7179805353545551</v>
+        <v>1.393248708993518</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5486507240972428</v>
+        <v>-0.7439230415911534</v>
       </c>
       <c r="G77" t="n">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="H77" t="n">
-        <v>11.77423000986551</v>
+        <v>43.45436264746627</v>
       </c>
       <c r="I77" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J77" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K77" t="n">
-        <v>34.65394717673711</v>
+        <v>130.9507272087682</v>
       </c>
       <c r="L77" t="n">
-        <v>5.01210926305602</v>
+        <v>10.99399512578683</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.6696122029316927</v>
+        <v>0.7696588822246245</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.65</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="R77" t="n">
-        <v>0.03229770676878312</v>
+        <v>0.1224850975447976</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9963200271690252</v>
+        <v>0.9323416809589606</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1447</v>
+        <v>1162</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>231</v>
+        <v>435</v>
       </c>
       <c r="B78" t="n">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="C78" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D78" t="n">
-        <v>3.023312388555969</v>
+        <v>1.450029442484205</v>
       </c>
       <c r="E78" t="n">
-        <v>2.288765055916893</v>
+        <v>0.8230439978764744</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.7345473326390759</v>
+        <v>-0.6269854446077301</v>
       </c>
       <c r="G78" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="H78" t="n">
-        <v>167.6238762401485</v>
+        <v>24.43565477799723</v>
       </c>
       <c r="I78" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J78" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="K78" t="n">
-        <v>258.3729540506383</v>
+        <v>58.31922189734295</v>
       </c>
       <c r="L78" t="n">
-        <v>11.26420717015669</v>
+        <v>8.10536103486662</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7813017609554902</v>
+        <v>0.9214441265574829</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.4337349397590362</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3439953845603193</v>
+        <v>0.3236456855426219</v>
       </c>
       <c r="S78" t="n">
-        <v>0.7040452938657408</v>
+        <v>0.8358589326400343</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1448</v>
+        <v>1163</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1293</v>
+        <v>1073</v>
       </c>
       <c r="B79" t="n">
-        <v>1322</v>
+        <v>1086</v>
       </c>
       <c r="C79" t="n">
-        <v>1442</v>
+        <v>1103</v>
       </c>
       <c r="D79" t="n">
-        <v>3.06136217720627</v>
+        <v>1.259811399263143</v>
       </c>
       <c r="E79" t="n">
-        <v>2.326814844567195</v>
+        <v>0.6328259546554126</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.7345473326390759</v>
+        <v>-0.6269854446077301</v>
       </c>
       <c r="G79" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="H79" t="n">
-        <v>140.9342000597219</v>
+        <v>9.016034024404007</v>
       </c>
       <c r="I79" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J79" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="K79" t="n">
-        <v>260.6315910773544</v>
+        <v>30.93009914552202</v>
       </c>
       <c r="L79" t="n">
-        <v>11.40597244183687</v>
+        <v>7.042081993434766</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8689247702812479</v>
+        <v>0.652084261828784</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4648125603530404</v>
+        <v>0.1156517567964979</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8158216384885769</v>
+        <v>0.8198994418302878</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1449</v>
+        <v>1164</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1599</v>
+        <v>1103</v>
       </c>
       <c r="B80" t="n">
-        <v>1625</v>
+        <v>1121</v>
       </c>
       <c r="C80" t="n">
-        <v>1671</v>
+        <v>1148</v>
       </c>
       <c r="D80" t="n">
-        <v>2.772911018755318</v>
+        <v>1.653384937890002</v>
       </c>
       <c r="E80" t="n">
-        <v>2.183150800406378</v>
+        <v>1.026399493282272</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.58976021834894</v>
+        <v>-0.6269854446077301</v>
       </c>
       <c r="G80" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H80" t="n">
-        <v>30.86148360153061</v>
+        <v>22.87149988488613</v>
       </c>
       <c r="I80" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J80" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K80" t="n">
-        <v>87.64185402355071</v>
+        <v>55.64470949342169</v>
       </c>
       <c r="L80" t="n">
-        <v>8.538075064766371</v>
+        <v>9.242075683821827</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.8426989537887858</v>
+        <v>0.6732845653176218</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2090990068234279</v>
+        <v>0.06736917131573017</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9571672400339459</v>
+        <v>0.9912405587694173</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1450</v>
+        <v>1165</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>582</v>
+        <v>841</v>
       </c>
       <c r="B81" t="n">
-        <v>608</v>
+        <v>864</v>
       </c>
       <c r="C81" t="n">
-        <v>676</v>
+        <v>975</v>
       </c>
       <c r="D81" t="n">
-        <v>3.457220645046591</v>
+        <v>2.307849122897719</v>
       </c>
       <c r="E81" t="n">
-        <v>2.874998006258891</v>
+        <v>1.720625973928382</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5822226387876994</v>
+        <v>-0.5872231489693367</v>
       </c>
       <c r="G81" t="n">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="H81" t="n">
-        <v>28.38733565812163</v>
+        <v>26.48664855452307</v>
       </c>
       <c r="I81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J81" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="K81" t="n">
-        <v>239.3451421873129</v>
+        <v>153.6720549776526</v>
       </c>
       <c r="L81" t="n">
-        <v>22.08367490312612</v>
+        <v>8.308259655091137</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7836093969178912</v>
+        <v>0.8211150323871278</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="R81" t="n">
-        <v>0.110922855933945</v>
+        <v>0.3512977065194965</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8795927337374735</v>
+        <v>0.7774383874011402</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n49</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1451</v>
+        <v>1166</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1361</v>
+        <v>1412</v>
       </c>
       <c r="B82" t="n">
-        <v>1386</v>
+        <v>1443</v>
       </c>
       <c r="C82" t="n">
-        <v>1579</v>
+        <v>1483</v>
       </c>
       <c r="D82" t="n">
-        <v>2.127176670188675</v>
+        <v>3.06901331338173</v>
       </c>
       <c r="E82" t="n">
-        <v>1.544954031400976</v>
+        <v>2.481790164412393</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5822226387876994</v>
+        <v>-0.5872231489693367</v>
       </c>
       <c r="G82" t="n">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="H82" t="n">
-        <v>135.8692696050834</v>
+        <v>40.86238333830102</v>
       </c>
       <c r="I82" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J82" t="n">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="K82" t="n">
-        <v>209.2601112240039</v>
+        <v>122.2523027153654</v>
       </c>
       <c r="L82" t="n">
-        <v>13.58775816442805</v>
+        <v>11.04845166849195</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.8409100294944505</v>
+        <v>0.6851564458997709</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.1295336787564767</v>
+        <v>0.775</v>
       </c>
       <c r="R82" t="n">
-        <v>0.5276514090732638</v>
+        <v>0.1222586701805437</v>
       </c>
       <c r="S82" t="n">
-        <v>0.8393106878263012</v>
+        <v>0.9795841970117054</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n49</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1452</v>
+        <v>1167</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1579</v>
+        <v>1483</v>
       </c>
       <c r="B83" t="n">
-        <v>1627</v>
+        <v>1517</v>
       </c>
       <c r="C83" t="n">
-        <v>1707</v>
+        <v>1674</v>
       </c>
       <c r="D83" t="n">
-        <v>0.69412180077164</v>
+        <v>2.810498069891074</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1118991619839406</v>
+        <v>2.223274920921737</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5822226387876994</v>
+        <v>-0.5872231489693367</v>
       </c>
       <c r="G83" t="n">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="H83" t="n">
-        <v>32.81809008345181</v>
+        <v>48.62340669188734</v>
       </c>
       <c r="I83" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J83" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="K83" t="n">
-        <v>43.74293450898956</v>
+        <v>216.2823436969513</v>
       </c>
       <c r="L83" t="n">
-        <v>4.433839134154193</v>
+        <v>10.1177964768637</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7362208325405181</v>
+        <v>0.7833939294780884</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="R83" t="n">
-        <v>0.3245992552564189</v>
+        <v>0.4399683432007258</v>
       </c>
       <c r="S83" t="n">
-        <v>0.6851035081281049</v>
+        <v>0.4538236485907178</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n49</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1453</v>
+        <v>1168</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="B84" t="n">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c r="C84" t="n">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="D84" t="n">
-        <v>2.697347967712347</v>
+        <v>1.037126753584357</v>
       </c>
       <c r="E84" t="n">
-        <v>2.039425666217754</v>
+        <v>0.4087674323400273</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6579223014945925</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G84" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H84" t="n">
-        <v>24.76840157343008</v>
+        <v>29.64314501804802</v>
       </c>
       <c r="I84" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J84" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K84" t="n">
-        <v>166.2670962317436</v>
+        <v>73.12141677682121</v>
       </c>
       <c r="L84" t="n">
-        <v>11.85412557885604</v>
+        <v>5.156405126162258</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.9121511624234745</v>
+        <v>0.7891933312873699</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.2328767123287671</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2773042608239313</v>
+        <v>0.1664003203683915</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9536447474423603</v>
+        <v>0.5920675418073962</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1454</v>
+        <v>1169</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1672</v>
+        <v>943</v>
       </c>
       <c r="B85" t="n">
-        <v>1691</v>
+        <v>962</v>
       </c>
       <c r="C85" t="n">
-        <v>1738</v>
+        <v>1010</v>
       </c>
       <c r="D85" t="n">
-        <v>1.285116163758965</v>
+        <v>0.6875327355256663</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6271938622643723</v>
+        <v>0.05917341428133653</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6579223014945925</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G85" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H85" t="n">
-        <v>56.5936941156599</v>
+        <v>24.88721825472442</v>
       </c>
       <c r="I85" t="n">
         <v>19</v>
       </c>
       <c r="J85" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85" t="n">
-        <v>65.77779114974332</v>
+        <v>31.46652147220926</v>
       </c>
       <c r="L85" t="n">
-        <v>5.647743105809435</v>
+        <v>3.418287407606199</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.6824518443430474</v>
+        <v>0.816623133668045</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="R85" t="n">
-        <v>0.07930222755725022</v>
+        <v>0.126642801119814</v>
       </c>
       <c r="S85" t="n">
-        <v>0.7204325924127774</v>
+        <v>0.842036021322765</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1455</v>
+        <v>1170</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1738</v>
+        <v>1010</v>
       </c>
       <c r="B86" t="n">
-        <v>1757</v>
+        <v>1057</v>
       </c>
       <c r="C86" t="n">
-        <v>1827</v>
+        <v>1172</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9555379885888871</v>
+        <v>1.648962277250011</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2976156870942946</v>
+        <v>1.020602956005682</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6579223014945925</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G86" t="n">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="H86" t="n">
-        <v>17.89191964938345</v>
+        <v>52.65700577353186</v>
       </c>
       <c r="I86" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J86" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K86" t="n">
-        <v>53.14101278761647</v>
+        <v>135.2415992527926</v>
       </c>
       <c r="L86" t="n">
-        <v>4.199334845814054</v>
+        <v>8.198339797786886</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.8580993830013789</v>
+        <v>0.8191955193251136</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.2714285714285714</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="R86" t="n">
-        <v>0.3420476993303399</v>
+        <v>0.3826295438661891</v>
       </c>
       <c r="S86" t="n">
-        <v>0.7872594706188314</v>
+        <v>0.7237876043245668</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1456</v>
+        <v>1171</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1427</v>
+        <v>1333</v>
       </c>
       <c r="B87" t="n">
-        <v>1459</v>
+        <v>1365</v>
       </c>
       <c r="C87" t="n">
-        <v>1500</v>
+        <v>1408</v>
       </c>
       <c r="D87" t="n">
-        <v>2.463502692905068</v>
+        <v>4.19702158808366</v>
       </c>
       <c r="E87" t="n">
-        <v>1.862221888840851</v>
+        <v>3.568662266839331</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6012808040642161</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G87" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H87" t="n">
-        <v>44.52126507622961</v>
+        <v>142.529852987175</v>
       </c>
       <c r="I87" t="n">
         <v>32</v>
       </c>
       <c r="J87" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87" t="n">
-        <v>111.3763922728928</v>
+        <v>251.4933617688558</v>
       </c>
       <c r="L87" t="n">
-        <v>23.82089882235848</v>
+        <v>20.86682611996469</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,24 +7916,24 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.7699108959825783</v>
+        <v>0.6774111464767247</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3459077535998296</v>
+        <v>0.1474395480239108</v>
       </c>
       <c r="S87" t="n">
-        <v>0.9844395147795367</v>
+        <v>0.9846739336921347</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>1457</v>
+        <v>1172</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1500</v>
+        <v>1632</v>
       </c>
       <c r="B88" t="n">
-        <v>1531</v>
+        <v>1660</v>
       </c>
       <c r="C88" t="n">
-        <v>1827</v>
+        <v>1780</v>
       </c>
       <c r="D88" t="n">
-        <v>2.061408669210433</v>
+        <v>1.801897168969806</v>
       </c>
       <c r="E88" t="n">
-        <v>1.460127865146217</v>
+        <v>1.173537847725477</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6012808040642161</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G88" t="n">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="H88" t="n">
-        <v>35.89113755848234</v>
+        <v>33.82271041040576</v>
       </c>
       <c r="I88" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J88" t="n">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="K88" t="n">
-        <v>239.8037262062592</v>
+        <v>125.9483577960727</v>
       </c>
       <c r="L88" t="n">
-        <v>19.93284094318896</v>
+        <v>8.958704195781252</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,24 +8002,24 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.7598684478596575</v>
+        <v>0.8694245633081469</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.1047297297297297</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R88" t="n">
-        <v>0.6106354558404515</v>
+        <v>0.3622073691950705</v>
       </c>
       <c r="S88" t="n">
-        <v>0.8529505442010871</v>
+        <v>0.8676219048988352</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>1458</v>
+        <v>1173</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1028</v>
+        <v>495</v>
       </c>
       <c r="B89" t="n">
-        <v>1058</v>
+        <v>533</v>
       </c>
       <c r="C89" t="n">
-        <v>1152</v>
+        <v>587</v>
       </c>
       <c r="D89" t="n">
-        <v>2.125918725741523</v>
+        <v>1.858836758827956</v>
       </c>
       <c r="E89" t="n">
-        <v>1.381698675590046</v>
+        <v>1.274297059389591</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7442200501514763</v>
+        <v>-0.584539699438365</v>
       </c>
       <c r="G89" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H89" t="n">
-        <v>28.30180738235526</v>
+        <v>39.20807719493212</v>
       </c>
       <c r="I89" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J89" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K89" t="n">
-        <v>145.3273319243721</v>
+        <v>121.3953343539769</v>
       </c>
       <c r="L89" t="n">
-        <v>10.89696199021709</v>
+        <v>4.538039887519113</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.855450764798199</v>
+        <v>0.818170292150362</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2926612874420167</v>
+        <v>0.4395182710029182</v>
       </c>
       <c r="S89" t="n">
-        <v>0.8902508403642271</v>
+        <v>0.9711908753611825</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n52</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1459</v>
+        <v>1174</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1152</v>
+        <v>1703</v>
       </c>
       <c r="B90" t="n">
-        <v>1168</v>
+        <v>1753</v>
       </c>
       <c r="C90" t="n">
-        <v>1200</v>
+        <v>1827</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8154717245699176</v>
+        <v>2.130340250928385</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0712516744184413</v>
+        <v>1.54580055149002</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7442200501514763</v>
+        <v>-0.584539699438365</v>
       </c>
       <c r="G90" t="n">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H90" t="n">
-        <v>16.35248889160084</v>
+        <v>43.54821211096828</v>
       </c>
       <c r="I90" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J90" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="K90" t="n">
-        <v>27.57207187048283</v>
+        <v>130.3895960488938</v>
       </c>
       <c r="L90" t="n">
-        <v>4.179917265480442</v>
+        <v>5.200870375942068</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,24 +8174,24 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.8688071800163698</v>
+        <v>0.8168595612905656</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.5</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2586339665234855</v>
+        <v>0.276461273323562</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9479287556814094</v>
+        <v>0.9321903364131334</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n52</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>1460</v>
+        <v>1175</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1200</v>
+        <v>1556</v>
       </c>
       <c r="B91" t="n">
-        <v>1233</v>
+        <v>1588</v>
       </c>
       <c r="C91" t="n">
-        <v>1297</v>
+        <v>1656</v>
       </c>
       <c r="D91" t="n">
-        <v>3.653613560606395</v>
+        <v>2.501253692462081</v>
       </c>
       <c r="E91" t="n">
-        <v>2.909393510454919</v>
+        <v>1.849608391067334</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7442200501514763</v>
+        <v>-0.6516453013947461</v>
       </c>
       <c r="G91" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H91" t="n">
-        <v>40.82157281171976</v>
+        <v>43.69663455581826</v>
       </c>
       <c r="I91" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J91" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K91" t="n">
-        <v>182.8455085882906</v>
+        <v>176.5320653657151</v>
       </c>
       <c r="L91" t="n">
-        <v>18.72756828132397</v>
+        <v>5.6692225740726</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.8669594889705404</v>
+        <v>0.8872271836317447</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.515625</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2083404475923341</v>
+        <v>0.251415879071597</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9842727251857276</v>
+        <v>0.9760013823826847</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n53</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>1461</v>
+        <v>1176</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1423</v>
+        <v>1653</v>
       </c>
       <c r="B92" t="n">
-        <v>1450</v>
+        <v>1683</v>
       </c>
       <c r="C92" t="n">
-        <v>1577</v>
+        <v>1726</v>
       </c>
       <c r="D92" t="n">
-        <v>2.505951971962732</v>
+        <v>2.230873046526296</v>
       </c>
       <c r="E92" t="n">
-        <v>1.761731921811256</v>
+        <v>1.681339409605052</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7442200501514763</v>
+        <v>-0.5495336369212447</v>
       </c>
       <c r="G92" t="n">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="H92" t="n">
-        <v>23.64836467431428</v>
+        <v>35.62223865585815</v>
       </c>
       <c r="I92" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" t="n">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="K92" t="n">
-        <v>225.0066514491578</v>
+        <v>127.0621732857495</v>
       </c>
       <c r="L92" t="n">
-        <v>12.844923494553</v>
+        <v>4.867020836737036</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.8113323945862226</v>
+        <v>0.6932694748028601</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.2125984251968504</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3986740077969479</v>
+        <v>0.0957183488885205</v>
       </c>
       <c r="S92" t="n">
-        <v>0.8102704910530758</v>
+        <v>0.9822790653512907</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n54</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1462</v>
+        <v>1177</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="B93" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="C93" t="n">
         <v>1827</v>
       </c>
       <c r="D93" t="n">
-        <v>2.159889604962155</v>
+        <v>2.688988341583759</v>
       </c>
       <c r="E93" t="n">
-        <v>1.415669554810679</v>
+        <v>2.139454704662514</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7442200501514763</v>
+        <v>-0.5495336369212447</v>
       </c>
       <c r="G93" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H93" t="n">
-        <v>43.3878292181455</v>
+        <v>30.78131626928689</v>
       </c>
       <c r="I93" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J93" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K93" t="n">
-        <v>130.3576864043358</v>
+        <v>165.6189858224087</v>
       </c>
       <c r="L93" t="n">
-        <v>11.0710887689877</v>
+        <v>5.86647559734944</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,24 +8432,24 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.777463545830347</v>
+        <v>0.8568210872846465</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.492063492063492</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1262962518573436</v>
+        <v>0.2004546349974344</v>
       </c>
       <c r="S93" t="n">
-        <v>0.9307544029461612</v>
+        <v>0.8776360374156078</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n54</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>1463</v>
+        <v>1178</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>434</v>
+        <v>1452</v>
       </c>
       <c r="B94" t="n">
-        <v>454</v>
+        <v>1485</v>
       </c>
       <c r="C94" t="n">
-        <v>501</v>
+        <v>1606</v>
       </c>
       <c r="D94" t="n">
-        <v>1.429988412262951</v>
+        <v>1.643813330139032</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8029182184671376</v>
+        <v>1.140025917429547</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6270701937958134</v>
+        <v>-0.5037874127094844</v>
       </c>
       <c r="G94" t="n">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="H94" t="n">
-        <v>25.87060722200499</v>
+        <v>33.88316694575224</v>
       </c>
       <c r="I94" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J94" t="n">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K94" t="n">
-        <v>59.54052902661824</v>
+        <v>155.7830334338561</v>
       </c>
       <c r="L94" t="n">
-        <v>7.966236328203643</v>
+        <v>5.10666663881506</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,24 +8518,24 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.8877220266731876</v>
+        <v>0.8038421485351487</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.425531914893617</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R94" t="n">
-        <v>0.3640968106381426</v>
+        <v>0.3828540423252952</v>
       </c>
       <c r="S94" t="n">
-        <v>0.8140525228051374</v>
+        <v>0.4942199188143552</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n55</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1464</v>
+        <v>1179</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,40 +8555,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>841</v>
+        <v>1606</v>
       </c>
       <c r="B95" t="n">
-        <v>863</v>
+        <v>1684</v>
       </c>
       <c r="C95" t="n">
-        <v>975</v>
+        <v>1827</v>
       </c>
       <c r="D95" t="n">
-        <v>2.357653378063314</v>
+        <v>4.557014363033384</v>
       </c>
       <c r="E95" t="n">
-        <v>1.773775444838689</v>
+        <v>4.0532269503239</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5838779332246253</v>
+        <v>-0.5037874127094844</v>
       </c>
       <c r="G95" t="n">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="H95" t="n">
-        <v>25.38915312249367</v>
+        <v>90.97495052038926</v>
       </c>
       <c r="I95" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J95" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="K95" t="n">
-        <v>153.2345780393503</v>
+        <v>477.6831583161558</v>
       </c>
       <c r="L95" t="n">
-        <v>8.428611422744986</v>
+        <v>14.15681013995391</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -8604,24 +8604,24 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.8102980693933466</v>
+        <v>0.7811045408607518</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="R95" t="n">
-        <v>0.3712900413726662</v>
+        <v>0.4038150759754409</v>
       </c>
       <c r="S95" t="n">
-        <v>0.7696335413517517</v>
+        <v>0.894669360455508</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n55</t>
         </is>
       </c>
       <c r="U95" t="n">
-        <v>1465</v>
+        <v>1180</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -8641,73 +8641,73 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1412</v>
+        <v>461</v>
       </c>
       <c r="B96" t="n">
-        <v>1443</v>
+        <v>483</v>
       </c>
       <c r="C96" t="n">
-        <v>1484</v>
+        <v>574</v>
       </c>
       <c r="D96" t="n">
-        <v>3.098279483659427</v>
+        <v>1.643605246300013</v>
       </c>
       <c r="E96" t="n">
-        <v>2.514401550434802</v>
+        <v>0.993883844988686</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5838779332246253</v>
+        <v>-0.6497214013113266</v>
       </c>
       <c r="G96" t="n">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H96" t="n">
-        <v>40.7899473086236</v>
+        <v>26.03953242664272</v>
       </c>
       <c r="I96" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J96" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K96" t="n">
-        <v>122.8246481380729</v>
+        <v>80.7099539061485</v>
       </c>
       <c r="L96" t="n">
-        <v>11.0763499375297</v>
+        <v>5.341450658193995</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(553), 'value': np.float64(0.19348622774314203), 'amplitude': np.float64(0.8432076290544687), 'start_idx': np.int64(530), 'end_idx': np.int64(573), 'duration': np.float64(43.0), 'fwhm': np.float64(22.589371874442804), 'rise_time': np.float64(23.0), 'decay_time': np.float64(20.0), 'auc': np.float64(25.144324612405942)}]</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.7023762546556467</v>
+        <v>0.741421020972297</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1346867609418322</v>
+        <v>0.5320411417033133</v>
       </c>
       <c r="S96" t="n">
-        <v>0.9829444518838309</v>
+        <v>0.2616460280610549</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n56</t>
         </is>
       </c>
       <c r="U96" t="n">
-        <v>1466</v>
+        <v>1181</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -8727,40 +8727,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1484</v>
+        <v>617</v>
       </c>
       <c r="B97" t="n">
-        <v>1516</v>
+        <v>645</v>
       </c>
       <c r="C97" t="n">
-        <v>1674</v>
+        <v>680</v>
       </c>
       <c r="D97" t="n">
-        <v>2.822024988645116</v>
+        <v>3.373962676041188</v>
       </c>
       <c r="E97" t="n">
-        <v>2.238147055420491</v>
+        <v>2.724241274729861</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.5838779332246253</v>
+        <v>-0.6497214013113266</v>
       </c>
       <c r="G97" t="n">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="H97" t="n">
-        <v>47.66007803565253</v>
+        <v>28.1860794023961</v>
       </c>
       <c r="I97" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J97" t="n">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="K97" t="n">
-        <v>214.8031438303643</v>
+        <v>151.0595472731739</v>
       </c>
       <c r="L97" t="n">
-        <v>10.08874004799838</v>
+        <v>10.9648318519498</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -8776,24 +8776,24 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.7740484405326975</v>
+        <v>0.6700358871430036</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.8</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4391306502113165</v>
+        <v>0.08127232116514255</v>
       </c>
       <c r="S97" t="n">
-        <v>0.4511173146974913</v>
+        <v>0.994830645447513</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n56</t>
         </is>
       </c>
       <c r="U97" t="n">
-        <v>1467</v>
+        <v>1182</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -8813,40 +8813,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>847</v>
+        <v>680</v>
       </c>
       <c r="B98" t="n">
-        <v>871</v>
+        <v>711</v>
       </c>
       <c r="C98" t="n">
-        <v>943</v>
+        <v>807</v>
       </c>
       <c r="D98" t="n">
-        <v>1.049510314461672</v>
+        <v>3.734302186135384</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4217668790393756</v>
+        <v>3.084580784824057</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.6277434354222969</v>
+        <v>-0.6497214013113266</v>
       </c>
       <c r="G98" t="n">
+        <v>127</v>
+      </c>
+      <c r="H98" t="n">
+        <v>134.1468379645174</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
         <v>96</v>
       </c>
-      <c r="H98" t="n">
-        <v>28.67482159046199</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24</v>
-      </c>
-      <c r="J98" t="n">
-        <v>72</v>
-      </c>
       <c r="K98" t="n">
-        <v>72.5538793080938</v>
+        <v>258.9777308813708</v>
       </c>
       <c r="L98" t="n">
-        <v>5.221521109410454</v>
+        <v>12.13587685664226</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -8862,24 +8862,24 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.7965491207125046</v>
+        <v>0.9001064040169624</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1749454773020369</v>
+        <v>0.3263811841265123</v>
       </c>
       <c r="S98" t="n">
-        <v>0.5745207439192306</v>
+        <v>0.9829995162414118</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n56</t>
         </is>
       </c>
       <c r="U98" t="n">
-        <v>1468</v>
+        <v>1183</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -8899,40 +8899,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>943</v>
+        <v>863</v>
       </c>
       <c r="B99" t="n">
-        <v>961</v>
+        <v>911</v>
       </c>
       <c r="C99" t="n">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6885849838541362</v>
+        <v>1.862593135365342</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0608415484318393</v>
+        <v>1.348582644404407</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.6277434354222969</v>
+        <v>-0.514010490960935</v>
       </c>
       <c r="G99" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="H99" t="n">
-        <v>24.89072463016703</v>
+        <v>69.21428127348383</v>
       </c>
       <c r="I99" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J99" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K99" t="n">
-        <v>31.86526559024867</v>
+        <v>108.1001224705752</v>
       </c>
       <c r="L99" t="n">
-        <v>3.425846301150129</v>
+        <v>11.89818817748905</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8948,24 +8948,24 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.8325441491962678</v>
+        <v>0.7178178403587309</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.36</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1342565536352009</v>
+        <v>0.5543209250887001</v>
       </c>
       <c r="S99" t="n">
-        <v>0.8190540685684192</v>
+        <v>0.9676981536966265</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n58</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>1469</v>
+        <v>1184</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -8985,40 +8985,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1011</v>
+        <v>1617</v>
       </c>
       <c r="B100" t="n">
-        <v>1058</v>
+        <v>1634</v>
       </c>
       <c r="C100" t="n">
-        <v>1171</v>
+        <v>1827</v>
       </c>
       <c r="D100" t="n">
-        <v>1.652116803790953</v>
+        <v>3.490767449572385</v>
       </c>
       <c r="E100" t="n">
-        <v>1.024373368368656</v>
+        <v>2.97675695861145</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.6277434354222969</v>
+        <v>-0.514010490960935</v>
       </c>
       <c r="G100" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H100" t="n">
-        <v>52.11877487220977</v>
+        <v>17.40065396256045</v>
       </c>
       <c r="I100" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J100" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="K100" t="n">
-        <v>134.3728495075606</v>
+        <v>314.704717265983</v>
       </c>
       <c r="L100" t="n">
-        <v>8.219607418180576</v>
+        <v>22.29891607042729</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9034,24 +9034,24 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.7837994884504031</v>
+        <v>0.7672542790355055</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.415929203539823</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="R100" t="n">
-        <v>0.3960390882102783</v>
+        <v>0.5745209246574293</v>
       </c>
       <c r="S100" t="n">
-        <v>0.7070165675282732</v>
+        <v>0.9334694873853362</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n58</t>
         </is>
       </c>
       <c r="U100" t="n">
-        <v>1470</v>
+        <v>1185</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -9071,40 +9071,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1334</v>
+        <v>1654</v>
       </c>
       <c r="B101" t="n">
-        <v>1364</v>
+        <v>1676</v>
       </c>
       <c r="C101" t="n">
-        <v>1408</v>
+        <v>1711</v>
       </c>
       <c r="D101" t="n">
-        <v>4.235506367088861</v>
+        <v>0.9883016907578799</v>
       </c>
       <c r="E101" t="n">
-        <v>3.607762931666564</v>
+        <v>0.5361137285622077</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6277434354222969</v>
+        <v>-0.4521879621956722</v>
       </c>
       <c r="G101" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H101" t="n">
-        <v>140.8436797719721</v>
+        <v>21.86528984629695</v>
       </c>
       <c r="I101" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J101" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K101" t="n">
-        <v>249.3531206939196</v>
+        <v>45.94159263142621</v>
       </c>
       <c r="L101" t="n">
-        <v>21.07248075607601</v>
+        <v>6.313277551985387</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9120,24 +9120,24 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.6905031339061275</v>
+        <v>0.7413084610431429</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1467144921204121</v>
+        <v>0.1071792658088379</v>
       </c>
       <c r="S101" t="n">
-        <v>0.9804428287201913</v>
+        <v>0.9312587354165881</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n59</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>1471</v>
+        <v>1186</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -9157,40 +9157,40 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1632</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>1659</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>1780</v>
+        <v>76</v>
       </c>
       <c r="D102" t="n">
-        <v>1.814514240978927</v>
+        <v>0.5737423745572952</v>
       </c>
       <c r="E102" t="n">
-        <v>1.186770805556631</v>
+        <v>-0.08063468793543394</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6277434354222969</v>
+        <v>-0.6543770624927291</v>
       </c>
       <c r="G102" t="n">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="H102" t="n">
-        <v>33.15597920638288</v>
+        <v>28.09648960374211</v>
       </c>
       <c r="I102" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J102" t="n">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="K102" t="n">
-        <v>125.8416479384408</v>
+        <v>31.87745857501064</v>
       </c>
       <c r="L102" t="n">
-        <v>9.027566744265059</v>
+        <v>4.935482886799099</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9206,24 +9206,24 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.8617366386828595</v>
+        <v>0.9213555224426726</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.2231404958677686</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R102" t="n">
-        <v>0.3632324700597676</v>
+        <v>0.1998490890763765</v>
       </c>
       <c r="S102" t="n">
-        <v>0.8665377214043085</v>
+        <v>0.7894966184266504</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n60</t>
         </is>
       </c>
       <c r="U102" t="n">
-        <v>1472</v>
+        <v>1187</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -9243,40 +9243,40 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="B103" t="n">
-        <v>532</v>
+        <v>348</v>
       </c>
       <c r="C103" t="n">
-        <v>586</v>
+        <v>460</v>
       </c>
       <c r="D103" t="n">
-        <v>1.868495830639244</v>
+        <v>3.385657600723093</v>
       </c>
       <c r="E103" t="n">
-        <v>1.280400974248769</v>
+        <v>2.731280538230364</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.5880948563904757</v>
+        <v>-0.6543770624927291</v>
       </c>
       <c r="G103" t="n">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="H103" t="n">
-        <v>40.10303149568847</v>
+        <v>277.2394497793631</v>
       </c>
       <c r="I103" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J103" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="K103" t="n">
-        <v>120.6701332364883</v>
+        <v>266.5058244881387</v>
       </c>
       <c r="L103" t="n">
-        <v>4.545563018201248</v>
+        <v>29.12431762047138</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9292,24 +9292,24 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.8122670523481365</v>
+        <v>0.9005071887343576</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="R103" t="n">
-        <v>0.5151855571125437</v>
+        <v>0.4682373684806513</v>
       </c>
       <c r="S103" t="n">
-        <v>0.9578102842145539</v>
+        <v>0.9835199397673757</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n60</t>
         </is>
       </c>
       <c r="U103" t="n">
-        <v>1473</v>
+        <v>1188</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -9329,40 +9329,40 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1704</v>
+        <v>460</v>
       </c>
       <c r="B104" t="n">
-        <v>1752</v>
+        <v>491</v>
       </c>
       <c r="C104" t="n">
-        <v>1827</v>
+        <v>567</v>
       </c>
       <c r="D104" t="n">
-        <v>2.164800013575773</v>
+        <v>1.174831365140675</v>
       </c>
       <c r="E104" t="n">
-        <v>1.576705157185297</v>
+        <v>0.520454302647946</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.5880948563904757</v>
+        <v>-0.6543770624927291</v>
       </c>
       <c r="G104" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H104" t="n">
-        <v>41.96154813415546</v>
+        <v>53.77380901897044</v>
       </c>
       <c r="I104" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J104" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K104" t="n">
-        <v>130.7484511249021</v>
+        <v>86.76919726774712</v>
       </c>
       <c r="L104" t="n">
-        <v>5.266393813758247</v>
+        <v>10.10620856094287</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9378,24 +9378,24 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.7946292946059261</v>
+        <v>0.7885044761061181</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.64</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="R104" t="n">
-        <v>0.2565155047261779</v>
+        <v>0.1289215299861892</v>
       </c>
       <c r="S104" t="n">
-        <v>0.9387043767754375</v>
+        <v>0.857638452601306</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n60</t>
         </is>
       </c>
       <c r="U104" t="n">
-        <v>1474</v>
+        <v>1189</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
@@ -9408,1296 +9408,6 @@
         </is>
       </c>
       <c r="X104" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1587</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.491885129186289</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.845579276524987</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.6463058526613021</v>
-      </c>
-      <c r="G105" t="n">
-        <v>99</v>
-      </c>
-      <c r="H105" t="n">
-        <v>44.19742699917697</v>
-      </c>
-      <c r="I105" t="n">
-        <v>30</v>
-      </c>
-      <c r="J105" t="n">
-        <v>69</v>
-      </c>
-      <c r="K105" t="n">
-        <v>174.4310471604217</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5.650824644463367</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0.8299190823754681</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.2477307524498405</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.9721920264478362</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>n53</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>1475</v>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1649</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1683</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.242272387517157</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.689476161669627</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.5527962258475301</v>
-      </c>
-      <c r="G106" t="n">
-        <v>78</v>
-      </c>
-      <c r="H106" t="n">
-        <v>36.30038756951853</v>
-      </c>
-      <c r="I106" t="n">
-        <v>34</v>
-      </c>
-      <c r="J106" t="n">
-        <v>44</v>
-      </c>
-      <c r="K106" t="n">
-        <v>133.986317081492</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.891071517787057</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.6579822145050376</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.07112735368235398</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.9775632866248254</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n54</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>1476</v>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1727</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1827</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.721981012055862</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.169184786208331</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.5527962258475301</v>
-      </c>
-      <c r="G107" t="n">
-        <v>100</v>
-      </c>
-      <c r="H107" t="n">
-        <v>30.24815410222004</v>
-      </c>
-      <c r="I107" t="n">
-        <v>28</v>
-      </c>
-      <c r="J107" t="n">
-        <v>72</v>
-      </c>
-      <c r="K107" t="n">
-        <v>164.5840617803698</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5.937460530727667</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>0.8712750610382082</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.2103919215893307</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.8794039948310135</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>n54</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>1477</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1514</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1535</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1594</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.342772265898678</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.8370421008392379</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.50573016505944</v>
-      </c>
-      <c r="G108" t="n">
-        <v>80</v>
-      </c>
-      <c r="H108" t="n">
-        <v>49.96393383976147</v>
-      </c>
-      <c r="I108" t="n">
-        <v>21</v>
-      </c>
-      <c r="J108" t="n">
-        <v>59</v>
-      </c>
-      <c r="K108" t="n">
-        <v>85.54221046960589</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4.15866088554529</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>0.7434374855791539</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.1045712576226952</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.7224038201273961</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>n55</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
-        <v>1478</v>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1594</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1685</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1827</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.558776187080953</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4.053046022021514</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.50573016505944</v>
-      </c>
-      <c r="G109" t="n">
-        <v>233</v>
-      </c>
-      <c r="H109" t="n">
-        <v>90.99038176818203</v>
-      </c>
-      <c r="I109" t="n">
-        <v>91</v>
-      </c>
-      <c r="J109" t="n">
-        <v>142</v>
-      </c>
-      <c r="K109" t="n">
-        <v>484.1222107693179</v>
-      </c>
-      <c r="L109" t="n">
-        <v>14.11885298545435</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>0.7246907402418628</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.6408450704225352</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.3759026206456825</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.8898843800428271</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>n55</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
-        <v>1479</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>462</v>
-      </c>
-      <c r="B110" t="n">
-        <v>482</v>
-      </c>
-      <c r="C110" t="n">
-        <v>575</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.661514067170652</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.007100949206243</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-0.6544131179644084</v>
-      </c>
-      <c r="G110" t="n">
-        <v>113</v>
-      </c>
-      <c r="H110" t="n">
-        <v>26.22485661526332</v>
-      </c>
-      <c r="I110" t="n">
-        <v>20</v>
-      </c>
-      <c r="J110" t="n">
-        <v>93</v>
-      </c>
-      <c r="K110" t="n">
-        <v>81.74088306764288</v>
-      </c>
-      <c r="L110" t="n">
-        <v>5.403093942012921</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(553), 'value': np.float64(0.20561827614689454), 'amplitude': np.float64(0.8600313941113029), 'start_idx': np.int64(530), 'end_idx': np.int64(574), 'duration': np.float64(44.0), 'fwhm': np.float64(22.495084950717228), 'rise_time': np.float64(23.0), 'decay_time': np.float64(21.0), 'auc': np.float64(25.654861612193034)}]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>0.7353463798072412</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.4905152044294191</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.2915258602729858</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>n56</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
-        <v>1480</v>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>617</v>
-      </c>
-      <c r="B111" t="n">
-        <v>645</v>
-      </c>
-      <c r="C111" t="n">
-        <v>680</v>
-      </c>
-      <c r="D111" t="n">
-        <v>3.410685295629781</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.756272177665372</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.6544131179644084</v>
-      </c>
-      <c r="G111" t="n">
-        <v>63</v>
-      </c>
-      <c r="H111" t="n">
-        <v>27.93162487271366</v>
-      </c>
-      <c r="I111" t="n">
-        <v>28</v>
-      </c>
-      <c r="J111" t="n">
-        <v>35</v>
-      </c>
-      <c r="K111" t="n">
-        <v>151.3820963144131</v>
-      </c>
-      <c r="L111" t="n">
-        <v>11.09124106924403</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>0.6820657720132464</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.09278620595362012</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.9968954635575263</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>n56</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
-        <v>1481</v>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>680</v>
-      </c>
-      <c r="B112" t="n">
-        <v>710</v>
-      </c>
-      <c r="C112" t="n">
-        <v>808</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3.761970939752032</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3.107557821787624</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.6544131179644084</v>
-      </c>
-      <c r="G112" t="n">
-        <v>128</v>
-      </c>
-      <c r="H112" t="n">
-        <v>133.0883757032849</v>
-      </c>
-      <c r="I112" t="n">
-        <v>30</v>
-      </c>
-      <c r="J112" t="n">
-        <v>98</v>
-      </c>
-      <c r="K112" t="n">
-        <v>260.2304664380949</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.23359031152589</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0.9093422256449917</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.3061224489795918</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.3146340800767214</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.9831295921168838</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>n56</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
-        <v>1482</v>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>864</v>
-      </c>
-      <c r="B113" t="n">
-        <v>910</v>
-      </c>
-      <c r="C113" t="n">
-        <v>990</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.873928179157977</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.358504863790021</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.5154233153679567</v>
-      </c>
-      <c r="G113" t="n">
-        <v>126</v>
-      </c>
-      <c r="H113" t="n">
-        <v>68.66736135793542</v>
-      </c>
-      <c r="I113" t="n">
-        <v>46</v>
-      </c>
-      <c r="J113" t="n">
-        <v>80</v>
-      </c>
-      <c r="K113" t="n">
-        <v>108.337631236113</v>
-      </c>
-      <c r="L113" t="n">
-        <v>11.94480540947636</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0.737875950718083</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.5619774943781056</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.9667406037917854</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>n58</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
-        <v>1483</v>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1616</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1634</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1788</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3.510788443053547</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.99536512768559</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.5154233153679567</v>
-      </c>
-      <c r="G114" t="n">
-        <v>172</v>
-      </c>
-      <c r="H114" t="n">
-        <v>17.3137151334613</v>
-      </c>
-      <c r="I114" t="n">
-        <v>18</v>
-      </c>
-      <c r="J114" t="n">
-        <v>154</v>
-      </c>
-      <c r="K114" t="n">
-        <v>299.2805646455806</v>
-      </c>
-      <c r="L114" t="n">
-        <v>22.37849094353034</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>0.7896999732632936</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.1168831168831169</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.5083710916180588</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.9741836436763363</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>n58</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
-        <v>1484</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1128</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1292</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.6768492109263411</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.22559787808556</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.4512513328407811</v>
-      </c>
-      <c r="G115" t="n">
-        <v>191</v>
-      </c>
-      <c r="H115" t="n">
-        <v>19.48156067387526</v>
-      </c>
-      <c r="I115" t="n">
-        <v>27</v>
-      </c>
-      <c r="J115" t="n">
-        <v>164</v>
-      </c>
-      <c r="K115" t="n">
-        <v>66.29948650806381</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.298866459694479</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>1</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(1247), 'value': np.float64(-0.12059422301953943), 'amplitude': np.float64(0.33065710982124163), 'start_idx': np.int64(1232), 'end_idx': np.int64(1253), 'duration': np.float64(21.0), 'fwhm': np.float64(34.048473368345185), 'rise_time': np.float64(15.0), 'decay_time': np.float64(6.0), 'auc': np.float64(5.672122577344949)}]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>0.6232797882916083</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.1646341463414634</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.3307854996491396</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.5825868603765996</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>n59</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>1485</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>15</v>
-      </c>
-      <c r="C116" t="n">
-        <v>75</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.5789995512951651</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-0.07533923665732423</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-0.6543387879524893</v>
-      </c>
-      <c r="G116" t="n">
-        <v>75</v>
-      </c>
-      <c r="H116" t="n">
-        <v>28.39662206185553</v>
-      </c>
-      <c r="I116" t="n">
-        <v>15</v>
-      </c>
-      <c r="J116" t="n">
-        <v>60</v>
-      </c>
-      <c r="K116" t="n">
-        <v>31.82134412076762</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4.951318783090362</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>0.8980019537966994</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.1823079681242233</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.7782789812585913</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>n60</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
-        <v>1486</v>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>319</v>
-      </c>
-      <c r="B117" t="n">
-        <v>348</v>
-      </c>
-      <c r="C117" t="n">
-        <v>461</v>
-      </c>
-      <c r="D117" t="n">
-        <v>3.385310803842184</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.730972015889694</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.6543387879524893</v>
-      </c>
-      <c r="G117" t="n">
-        <v>142</v>
-      </c>
-      <c r="H117" t="n">
-        <v>277.4438001011501</v>
-      </c>
-      <c r="I117" t="n">
-        <v>29</v>
-      </c>
-      <c r="J117" t="n">
-        <v>113</v>
-      </c>
-      <c r="K117" t="n">
-        <v>267.0994061519639</v>
-      </c>
-      <c r="L117" t="n">
-        <v>28.94950942909738</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>0.8991838235293942</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.2566371681415929</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0.4706670494818341</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0.9827481825853154</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>n60</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
-        <v>1487</v>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>461</v>
-      </c>
-      <c r="B118" t="n">
-        <v>491</v>
-      </c>
-      <c r="C118" t="n">
-        <v>567</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.182382559733199</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.5280437717807096</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-0.6543387879524893</v>
-      </c>
-      <c r="G118" t="n">
-        <v>106</v>
-      </c>
-      <c r="H118" t="n">
-        <v>53.88687760122394</v>
-      </c>
-      <c r="I118" t="n">
-        <v>30</v>
-      </c>
-      <c r="J118" t="n">
-        <v>76</v>
-      </c>
-      <c r="K118" t="n">
-        <v>86.15633233648703</v>
-      </c>
-      <c r="L118" t="n">
-        <v>10.11115287345187</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>0.7986780386304768</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0.1372546956738089</v>
-      </c>
-      <c r="S118" t="n">
-        <v>0.8480918026207653</v>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>n60</t>
-        </is>
-      </c>
-      <c r="U118" t="n">
-        <v>1488</v>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>682</v>
-      </c>
-      <c r="B119" t="n">
-        <v>729</v>
-      </c>
-      <c r="C119" t="n">
-        <v>805</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.305697576228104</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.651358788275615</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-0.6543387879524893</v>
-      </c>
-      <c r="G119" t="n">
-        <v>123</v>
-      </c>
-      <c r="H119" t="n">
-        <v>51.25624664110228</v>
-      </c>
-      <c r="I119" t="n">
-        <v>47</v>
-      </c>
-      <c r="J119" t="n">
-        <v>76</v>
-      </c>
-      <c r="K119" t="n">
-        <v>152.0594739119912</v>
-      </c>
-      <c r="L119" t="n">
-        <v>19.71718923057387</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>0.8459919167182214</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0.618421052631579</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0.305386216781098</v>
-      </c>
-      <c r="S119" t="n">
-        <v>0.9821765080176996</v>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>n60</t>
-        </is>
-      </c>
-      <c r="U119" t="n">
-        <v>1489</v>
-      </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755470307866536</v>
+        <v>2.667165559974642</v>
       </c>
       <c r="E2" t="n">
-        <v>2.137710457930383</v>
+        <v>2.059343006877218</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6177598499361524</v>
+        <v>-0.6078225530974245</v>
       </c>
       <c r="G2" t="n">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>98.87830834312626</v>
+        <v>32.54692504044436</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
-        <v>312.4000423133218</v>
+        <v>125.9424641585138</v>
       </c>
       <c r="L2" t="n">
-        <v>7.068034338909522</v>
+        <v>7.038366525196832</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8961905971886079</v>
+        <v>0.7646073360550346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2635658914728682</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2651427092723749</v>
+        <v>0.6007707163326935</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7930000661342392</v>
+        <v>0.8270079675839851</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>569</v>
+        <v>1087</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>650</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
-        <v>708</v>
+        <v>117</v>
       </c>
       <c r="C3" t="n">
-        <v>819</v>
+        <v>205</v>
       </c>
       <c r="D3" t="n">
-        <v>3.151023176609108</v>
+        <v>2.834318158524176</v>
       </c>
       <c r="E3" t="n">
-        <v>2.407105188146343</v>
+        <v>2.226495605426752</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7439179884627646</v>
+        <v>-0.6078225530974245</v>
       </c>
       <c r="G3" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>61.49880167117396</v>
+        <v>88.92994745465677</v>
       </c>
       <c r="I3" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
-        <v>293.3782442261816</v>
+        <v>196.6215337762932</v>
       </c>
       <c r="L3" t="n">
-        <v>16.02467818060866</v>
+        <v>7.479464472728028</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8713936091730845</v>
+        <v>0.9176607160140784</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5225225225225225</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2398927468579063</v>
+        <v>0.3339425652001733</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9467277654078529</v>
+        <v>0.932732717211802</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>570</v>
+        <v>1088</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>896</v>
+        <v>653</v>
       </c>
       <c r="B4" t="n">
-        <v>932</v>
+        <v>709</v>
       </c>
       <c r="C4" t="n">
-        <v>1403</v>
+        <v>821</v>
       </c>
       <c r="D4" t="n">
-        <v>3.950155157001609</v>
+        <v>3.326035743616695</v>
       </c>
       <c r="E4" t="n">
-        <v>3.206237168538844</v>
+        <v>2.585654260321547</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7439179884627646</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G4" t="n">
-        <v>507</v>
+        <v>168</v>
       </c>
       <c r="H4" t="n">
-        <v>174.47652740954</v>
+        <v>64.78899007731241</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>696.4829793361048</v>
+        <v>294.5453232519714</v>
       </c>
       <c r="L4" t="n">
-        <v>20.08870186176831</v>
+        <v>16.82327995625527</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.833593385213598</v>
+        <v>0.8799938083452206</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07643312101910828</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.62091337096674</v>
+        <v>0.2473335910918333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7530539657108395</v>
+        <v>0.9096166677566013</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>571</v>
+        <v>1089</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>657</v>
+        <v>899</v>
       </c>
       <c r="B5" t="n">
-        <v>682</v>
+        <v>928</v>
       </c>
       <c r="C5" t="n">
-        <v>720</v>
+        <v>1071</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14935656555837</v>
+        <v>4.178543119137087</v>
       </c>
       <c r="E5" t="n">
-        <v>1.383978356467038</v>
+        <v>3.438161635841939</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7653782090913315</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="H5" t="n">
-        <v>24.92733356299857</v>
+        <v>168.7999163658112</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.0385745245321</v>
+        <v>422.5776984588505</v>
       </c>
       <c r="L5" t="n">
-        <v>24.04875444261409</v>
+        <v>21.13531125979042</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7697240017464738</v>
+        <v>0.8681679568237318</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1453144660517233</v>
+        <v>0.2928339966902921</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9579935433632014</v>
+        <v>0.9057274565403768</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>572</v>
+        <v>1090</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>493</v>
+        <v>1071</v>
       </c>
       <c r="B6" t="n">
-        <v>538</v>
+        <v>1095</v>
       </c>
       <c r="C6" t="n">
-        <v>680</v>
+        <v>1230</v>
       </c>
       <c r="D6" t="n">
-        <v>2.532035513048192</v>
+        <v>1.291734444233581</v>
       </c>
       <c r="E6" t="n">
-        <v>1.823774004879158</v>
+        <v>0.5513529609384329</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7082615081690349</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G6" t="n">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>80.62931206578264</v>
+        <v>48.22162283580519</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>245.2163913759557</v>
+        <v>160.041836254926</v>
       </c>
       <c r="L6" t="n">
-        <v>5.294716038902139</v>
+        <v>6.533667061812472</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9258050516842471</v>
+        <v>0.7507141713820922</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3169014084507042</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3995020326419347</v>
+        <v>0.1645369913639801</v>
       </c>
       <c r="S6" t="n">
-        <v>0.830687154607519</v>
+        <v>0.5053307872103369</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>573</v>
+        <v>1091</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1489</v>
+        <v>1622</v>
       </c>
       <c r="B7" t="n">
-        <v>1524</v>
+        <v>1644</v>
       </c>
       <c r="C7" t="n">
-        <v>1671</v>
+        <v>1827</v>
       </c>
       <c r="D7" t="n">
-        <v>3.007394658458526</v>
+        <v>1.625330315072818</v>
       </c>
       <c r="E7" t="n">
-        <v>2.410972436460138</v>
+        <v>0.8849488317776698</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5964222219983875</v>
+        <v>-0.7403814832951485</v>
       </c>
       <c r="G7" t="n">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="H7" t="n">
-        <v>80.20823532001396</v>
+        <v>94.39458868112729</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="K7" t="n">
-        <v>271.8351008858515</v>
+        <v>169.34065335543</v>
       </c>
       <c r="L7" t="n">
-        <v>20.40177755038709</v>
+        <v>8.221014150054115</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9547096308493483</v>
+        <v>0.8444045660288645</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4380914579450083</v>
+        <v>0.4626072602664664</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9865617967438894</v>
+        <v>0.7547843900797918</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>574</v>
+        <v>1092</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
-        <v>2.958051083460759</v>
+        <v>0.3078933215613858</v>
       </c>
       <c r="E8" t="n">
-        <v>2.350628660531509</v>
+        <v>-0.4596654740008528</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.607422422929251</v>
+        <v>-0.7675587955622386</v>
       </c>
       <c r="G8" t="n">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7981867704806</v>
+        <v>24.27495747670247</v>
       </c>
       <c r="I8" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>579.9335325429297</v>
+        <v>9.844332927457813</v>
       </c>
       <c r="L8" t="n">
-        <v>13.30280209129926</v>
+        <v>3.460431214502479</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.573308205215039</v>
+        <v>0.730331081491233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4831460674157304</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1003977988731092</v>
+        <v>0.1625683296928384</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6762148065334548</v>
+        <v>0.9355761005838341</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>575</v>
+        <v>1093</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1228</v>
+        <v>658</v>
       </c>
       <c r="B9" t="n">
-        <v>1304</v>
+        <v>683</v>
       </c>
       <c r="C9" t="n">
-        <v>1440</v>
+        <v>721</v>
       </c>
       <c r="D9" t="n">
-        <v>4.12158017225225</v>
+        <v>2.271135273760719</v>
       </c>
       <c r="E9" t="n">
-        <v>3.519989405494274</v>
+        <v>1.50357647819848</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6015907667579757</v>
+        <v>-0.7675587955622386</v>
       </c>
       <c r="G9" t="n">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>94.88392942251062</v>
+        <v>23.14409894942742</v>
       </c>
       <c r="I9" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="K9" t="n">
-        <v>451.9287173401721</v>
+        <v>115.6418219717171</v>
       </c>
       <c r="L9" t="n">
-        <v>43.19506208031908</v>
+        <v>25.5254233960782</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8559725785283383</v>
+        <v>0.7843036479598298</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3083082006228177</v>
+        <v>0.1560544947773062</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9880940630612007</v>
+        <v>0.9937929345351491</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>576</v>
+        <v>1094</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1440</v>
+        <v>197</v>
       </c>
       <c r="B10" t="n">
-        <v>1466</v>
+        <v>226</v>
       </c>
       <c r="C10" t="n">
-        <v>1501</v>
+        <v>319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5452751311705342</v>
+        <v>1.782743662810265</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05631563558744162</v>
+        <v>1.041770047845244</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6015907667579757</v>
+        <v>-0.7409736149650213</v>
       </c>
       <c r="G10" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="H10" t="n">
-        <v>30.83096034594655</v>
+        <v>37.82054826708438</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="K10" t="n">
-        <v>25.86527222468037</v>
+        <v>121.566944838515</v>
       </c>
       <c r="L10" t="n">
-        <v>5.714602690573077</v>
+        <v>3.715297964332227</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.6657537468691359</v>
+        <v>0.9311676186593814</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09220846590896352</v>
+        <v>0.3641606983517019</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9350012238653953</v>
+        <v>0.9243723653905541</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>577</v>
+        <v>1095</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="B11" t="n">
-        <v>1776</v>
+        <v>1519</v>
       </c>
       <c r="C11" t="n">
-        <v>1827</v>
+        <v>1679</v>
       </c>
       <c r="D11" t="n">
-        <v>3.002754601170304</v>
+        <v>3.078410062651888</v>
       </c>
       <c r="E11" t="n">
-        <v>2.401163834412329</v>
+        <v>2.462377193151601</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6015907667579757</v>
+        <v>-0.6160328695002869</v>
       </c>
       <c r="G11" t="n">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>38.77481369305406</v>
+        <v>73.41157834990281</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>217.3274580577871</v>
+        <v>278.884298096009</v>
       </c>
       <c r="L11" t="n">
-        <v>31.46952527642761</v>
+        <v>20.05214611670062</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6268689853292966</v>
+        <v>0.94909670176786</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.1875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09852778316672482</v>
+        <v>0.4087200189716333</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6600693174551477</v>
+        <v>0.9870710467379433</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>578</v>
+        <v>1096</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1723</v>
+        <v>1679</v>
       </c>
       <c r="B12" t="n">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="C12" t="n">
         <v>1827</v>
       </c>
       <c r="D12" t="n">
-        <v>3.550547787324916</v>
+        <v>3.134665996324915</v>
       </c>
       <c r="E12" t="n">
-        <v>3.000914035692098</v>
+        <v>2.518633126824628</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5496337516328184</v>
+        <v>-0.6160328695002869</v>
       </c>
       <c r="G12" t="n">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="H12" t="n">
-        <v>33.69342271023584</v>
+        <v>74.21434853301844</v>
       </c>
       <c r="I12" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J12" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K12" t="n">
-        <v>184.2867127264658</v>
+        <v>301.6534310223357</v>
       </c>
       <c r="L12" t="n">
-        <v>8.182360854078397</v>
+        <v>20.41858599280056</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8458190867930531</v>
+        <v>0.6557011258870626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4246575342465753</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3545847257305153</v>
+        <v>0.2327635649642447</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7465448502531197</v>
+        <v>0.8958162895163088</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>579</v>
+        <v>1097</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1678</v>
+        <v>1764</v>
       </c>
       <c r="B13" t="n">
-        <v>1717</v>
+        <v>1791</v>
       </c>
       <c r="C13" t="n">
-        <v>1771</v>
+        <v>1827</v>
       </c>
       <c r="D13" t="n">
-        <v>3.51527014511657</v>
+        <v>3.574628331507498</v>
       </c>
       <c r="E13" t="n">
-        <v>2.939880243076512</v>
+        <v>3.074396255731792</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5753899020400578</v>
+        <v>-0.5002320757757055</v>
       </c>
       <c r="G13" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H13" t="n">
-        <v>51.86201116564689</v>
+        <v>27.20539819644432</v>
       </c>
       <c r="I13" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>264.0148644692507</v>
+        <v>145.5583379651528</v>
       </c>
       <c r="L13" t="n">
-        <v>27.36924161863388</v>
+        <v>18.48866760654267</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.6544321200658294</v>
+        <v>0.8110208805266919</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07466164478731641</v>
+        <v>0.2656949065209021</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9731227793992393</v>
+        <v>0.9948649475567211</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>580</v>
+        <v>1098</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1636</v>
+        <v>1433</v>
       </c>
       <c r="B14" t="n">
-        <v>1719</v>
+        <v>1454</v>
       </c>
       <c r="C14" t="n">
-        <v>1827</v>
+        <v>1489</v>
       </c>
       <c r="D14" t="n">
-        <v>3.022768325069634</v>
+        <v>0.9198877781613389</v>
       </c>
       <c r="E14" t="n">
-        <v>2.420994240329657</v>
+        <v>0.3302773214858781</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6017740847399776</v>
+        <v>-0.5896104566754609</v>
       </c>
       <c r="G14" t="n">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>60.81085643038773</v>
+        <v>25.25453933138988</v>
       </c>
       <c r="I14" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>369.6459951246935</v>
+        <v>24.18530628888641</v>
       </c>
       <c r="L14" t="n">
-        <v>7.841108972587917</v>
+        <v>3.372197348014725</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7327947505726708</v>
+        <v>0.8361962771621052</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7685185185185185</v>
+        <v>0.6</v>
       </c>
       <c r="R14" t="n">
-        <v>0.248327463116775</v>
+        <v>0.2919089680965709</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7190929881132158</v>
+        <v>0.9599460631056583</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>581</v>
+        <v>1099</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78</v>
+        <v>1746</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>1780</v>
       </c>
       <c r="C15" t="n">
-        <v>718</v>
+        <v>1827</v>
       </c>
       <c r="D15" t="n">
-        <v>2.63650633538656</v>
+        <v>3.390820431534987</v>
       </c>
       <c r="E15" t="n">
-        <v>1.785013269149789</v>
+        <v>2.801209974859526</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8514930662367712</v>
+        <v>-0.5896104566754609</v>
       </c>
       <c r="G15" t="n">
-        <v>640</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
-        <v>482.8419436297042</v>
+        <v>37.65253207375736</v>
       </c>
       <c r="I15" t="n">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>454</v>
+        <v>47</v>
       </c>
       <c r="K15" t="n">
-        <v>1012.627067922255</v>
+        <v>184.8367073222912</v>
       </c>
       <c r="L15" t="n">
-        <v>6.715926159781828</v>
+        <v>12.43033763278343</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6292303619978002</v>
+        <v>0.7650701356909311</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4096916299559472</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3213632257793183</v>
+        <v>0.1753161707161736</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4655610535480124</v>
+        <v>0.9839483538029122</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>582</v>
+        <v>1100</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>718</v>
+        <v>192</v>
       </c>
       <c r="B16" t="n">
-        <v>864</v>
+        <v>215</v>
       </c>
       <c r="C16" t="n">
-        <v>1052</v>
+        <v>321</v>
       </c>
       <c r="D16" t="n">
-        <v>2.262465944242387</v>
+        <v>3.109087587873615</v>
       </c>
       <c r="E16" t="n">
-        <v>1.410972878005615</v>
+        <v>2.48754075587062</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8514930662367712</v>
+        <v>-0.6215468320029959</v>
       </c>
       <c r="G16" t="n">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="H16" t="n">
-        <v>191.6294424453251</v>
+        <v>221.0160236440937</v>
       </c>
       <c r="I16" t="n">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="K16" t="n">
-        <v>411.5940488897672</v>
+        <v>349.7458657792914</v>
       </c>
       <c r="L16" t="n">
-        <v>5.763139658196626</v>
+        <v>13.10815475004878</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.6104328370904299</v>
+        <v>0.6273746903790283</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776595744680851</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="R16" t="n">
-        <v>0.423189436747084</v>
+        <v>0.07876880018439036</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9351391855784399</v>
+        <v>0.4158566450293903</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>583</v>
+        <v>1101</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1373</v>
+        <v>321</v>
       </c>
       <c r="B17" t="n">
-        <v>1417</v>
+        <v>349</v>
       </c>
       <c r="C17" t="n">
-        <v>1548</v>
+        <v>414</v>
       </c>
       <c r="D17" t="n">
-        <v>2.558156002244318</v>
+        <v>2.406351228824182</v>
       </c>
       <c r="E17" t="n">
-        <v>1.794729824914421</v>
+        <v>1.784804396821186</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7634261773298969</v>
+        <v>-0.6215468320029959</v>
       </c>
       <c r="G17" t="n">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="H17" t="n">
-        <v>46.10294492564753</v>
+        <v>25.50216315568986</v>
       </c>
       <c r="I17" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="K17" t="n">
-        <v>244.4268046608331</v>
+        <v>150.3174848252365</v>
       </c>
       <c r="L17" t="n">
-        <v>6.597185352647715</v>
+        <v>10.14536367950006</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8832888092044981</v>
+        <v>0.8692656179580409</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3358778625954199</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="R17" t="n">
-        <v>0.330582867946684</v>
+        <v>0.3695251429110825</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8700075329453879</v>
+        <v>0.9778550323260606</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>584</v>
+        <v>1102</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="B18" t="n">
-        <v>1210</v>
+        <v>1096</v>
       </c>
       <c r="C18" t="n">
-        <v>1352</v>
+        <v>1235</v>
       </c>
       <c r="D18" t="n">
-        <v>2.360500004365094</v>
+        <v>1.031666776773439</v>
       </c>
       <c r="E18" t="n">
-        <v>1.578914752056569</v>
+        <v>0.4331171124851557</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7815852523085245</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G18" t="n">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H18" t="n">
-        <v>80.62704558395399</v>
+        <v>41.9934696274081</v>
       </c>
       <c r="I18" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="J18" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K18" t="n">
-        <v>204.7592663687972</v>
+        <v>96.33050118611585</v>
       </c>
       <c r="L18" t="n">
-        <v>11.89696307329347</v>
+        <v>10.54633262676092</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.6048927144251044</v>
+        <v>0.7344541857180233</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="R18" t="n">
-        <v>1.084174210116045</v>
+        <v>0.3017219161663949</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9222305700965479</v>
+        <v>0.899044190120234</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>585</v>
+        <v>1103</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>757</v>
+        <v>1235</v>
       </c>
       <c r="B19" t="n">
-        <v>796</v>
+        <v>1313</v>
       </c>
       <c r="C19" t="n">
-        <v>861</v>
+        <v>1447</v>
       </c>
       <c r="D19" t="n">
-        <v>1.517443687542637</v>
+        <v>4.102593444738618</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8416194429581767</v>
+        <v>3.504043780450335</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6758242445844602</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G19" t="n">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="H19" t="n">
-        <v>45.6487201047413</v>
+        <v>93.8892060492567</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="J19" t="n">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="K19" t="n">
-        <v>85.87265816800002</v>
+        <v>450.6952276739422</v>
       </c>
       <c r="L19" t="n">
-        <v>5.690026619235312</v>
+        <v>41.93923471675794</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7669926829131271</v>
+        <v>0.727065507576352</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1408344712577642</v>
+        <v>0.4539224672376228</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9574394957291624</v>
+        <v>0.9842029302414128</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>586</v>
+        <v>1104</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1050</v>
+        <v>1447</v>
       </c>
       <c r="B20" t="n">
-        <v>1092</v>
+        <v>1467</v>
       </c>
       <c r="C20" t="n">
-        <v>1220</v>
+        <v>1493</v>
       </c>
       <c r="D20" t="n">
-        <v>2.334038080665305</v>
+        <v>0.6255291895579971</v>
       </c>
       <c r="E20" t="n">
-        <v>1.675716900999263</v>
+        <v>0.02697952526971393</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6583211796660421</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G20" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="H20" t="n">
-        <v>116.4349105332383</v>
+        <v>23.55984118777292</v>
       </c>
       <c r="I20" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="K20" t="n">
-        <v>274.7394435213083</v>
+        <v>21.21313465065673</v>
       </c>
       <c r="L20" t="n">
-        <v>6.913885405513787</v>
+        <v>6.394544294097762</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8468913637680822</v>
+        <v>0.6487053175057598</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.328125</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3305226668169023</v>
+        <v>0.07604022107989684</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6775687661731674</v>
+        <v>0.9558367115800412</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>587</v>
+        <v>1105</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="B21" t="n">
-        <v>129</v>
+        <v>1776</v>
       </c>
       <c r="C21" t="n">
-        <v>426</v>
+        <v>1827</v>
       </c>
       <c r="D21" t="n">
-        <v>2.972833347989091</v>
+        <v>3.197092425546336</v>
       </c>
       <c r="E21" t="n">
-        <v>2.287096275719215</v>
+        <v>2.598542761258053</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6857370722698762</v>
+        <v>-0.5985496642882832</v>
       </c>
       <c r="G21" t="n">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="H21" t="n">
-        <v>150.5720500356794</v>
+        <v>26.50033829739027</v>
       </c>
       <c r="I21" t="n">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>297</v>
+        <v>51</v>
       </c>
       <c r="K21" t="n">
-        <v>716.9971485245724</v>
+        <v>192.589320035022</v>
       </c>
       <c r="L21" t="n">
-        <v>12.97082946889484</v>
+        <v>32.68264609989875</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6870785339942715</v>
+        <v>0.7015119640270275</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R21" t="n">
-        <v>0.521137487560007</v>
+        <v>0.1262680818431661</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7523644440006847</v>
+        <v>0.623644999182661</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>588</v>
+        <v>1106</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>348</v>
+        <v>1725</v>
       </c>
       <c r="B22" t="n">
-        <v>380</v>
+        <v>1751</v>
       </c>
       <c r="C22" t="n">
-        <v>480</v>
+        <v>1827</v>
       </c>
       <c r="D22" t="n">
-        <v>2.29479613987814</v>
+        <v>3.781917489602646</v>
       </c>
       <c r="E22" t="n">
-        <v>1.610255674125332</v>
+        <v>3.222923222016164</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6845404657528087</v>
+        <v>-0.5589942675864822</v>
       </c>
       <c r="G22" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H22" t="n">
-        <v>103.7372848849946</v>
+        <v>30.50571763232756</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>152.2687072066168</v>
+        <v>184.9381950809472</v>
       </c>
       <c r="L22" t="n">
-        <v>8.443268590237128</v>
+        <v>8.899171946987037</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8615412064430109</v>
+        <v>0.8679483875490062</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.32</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3410796026414803</v>
+        <v>0.3668035114698781</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7551422116153175</v>
+        <v>0.7319168789384579</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>589</v>
+        <v>1107</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1488</v>
+        <v>1603</v>
       </c>
       <c r="B23" t="n">
-        <v>1522</v>
+        <v>1630</v>
       </c>
       <c r="C23" t="n">
-        <v>1591</v>
+        <v>1683</v>
       </c>
       <c r="D23" t="n">
-        <v>1.279149728145146</v>
+        <v>3.674835504495427</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6018630856862941</v>
+        <v>3.105295357545351</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6772866424588515</v>
+        <v>-0.5695401469500757</v>
       </c>
       <c r="G23" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
-        <v>60.72267977467209</v>
+        <v>57.67616082596874</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K23" t="n">
-        <v>76.06326779875712</v>
+        <v>243.1873583803521</v>
       </c>
       <c r="L23" t="n">
-        <v>6.853949761667028</v>
+        <v>27.58718299184369</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8158866805959912</v>
+        <v>0.6892185612499295</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4927536231884058</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2093814297683051</v>
+        <v>0.06350635402275666</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8629154987518357</v>
+        <v>0.971093897499097</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>590</v>
+        <v>1108</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1591</v>
+        <v>1683</v>
       </c>
       <c r="B24" t="n">
-        <v>1645</v>
+        <v>1714</v>
       </c>
       <c r="C24" t="n">
-        <v>1827</v>
+        <v>1765</v>
       </c>
       <c r="D24" t="n">
-        <v>1.626298128123759</v>
+        <v>3.665666244673155</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9490114856649078</v>
+        <v>3.096126097723079</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6772866424588515</v>
+        <v>-0.5695401469500757</v>
       </c>
       <c r="G24" t="n">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
-        <v>63.79002781699864</v>
+        <v>38.11463359392837</v>
       </c>
       <c r="I24" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="K24" t="n">
-        <v>333.3497036873467</v>
+        <v>237.7717134682097</v>
       </c>
       <c r="L24" t="n">
-        <v>8.714042947745183</v>
+        <v>27.51834887714459</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.805864630607794</v>
+        <v>0.6796015967273418</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8813133335641613</v>
+        <v>0.05008300142800589</v>
       </c>
       <c r="S24" t="n">
-        <v>0.409304106548611</v>
+        <v>0.9765798071518459</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>591</v>
+        <v>1109</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>144</v>
+        <v>1641</v>
       </c>
       <c r="B25" t="n">
-        <v>185</v>
+        <v>1717</v>
       </c>
       <c r="C25" t="n">
-        <v>284</v>
+        <v>1827</v>
       </c>
       <c r="D25" t="n">
-        <v>2.684486384012426</v>
+        <v>3.15956605951018</v>
       </c>
       <c r="E25" t="n">
-        <v>1.992126831526913</v>
+        <v>2.559453118702401</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6923595524855138</v>
+        <v>-0.6001129408077793</v>
       </c>
       <c r="G25" t="n">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="H25" t="n">
-        <v>83.89868842602331</v>
+        <v>43.88528269992162</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="J25" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>286.8808314951187</v>
+        <v>369.1271110795862</v>
       </c>
       <c r="L25" t="n">
-        <v>17.37478818888328</v>
+        <v>8.283648634870591</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7144549615748106</v>
+        <v>0.5599550128337103</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0987687600839597</v>
+        <v>0.2163675069833252</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7224905013266403</v>
+        <v>0.6684855084374612</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>592</v>
+        <v>1110</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>284</v>
+        <v>1554</v>
       </c>
       <c r="B26" t="n">
-        <v>326</v>
+        <v>1615</v>
       </c>
       <c r="C26" t="n">
-        <v>414</v>
+        <v>1827</v>
       </c>
       <c r="D26" t="n">
-        <v>2.469913815681743</v>
+        <v>3.213377952867274</v>
       </c>
       <c r="E26" t="n">
-        <v>1.777554263196229</v>
+        <v>2.549748822011809</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6923595524855138</v>
+        <v>-0.663629130855465</v>
       </c>
       <c r="G26" t="n">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="H26" t="n">
-        <v>37.60245820830579</v>
+        <v>61.39453644591094</v>
       </c>
       <c r="I26" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K26" t="n">
-        <v>181.0804129680196</v>
+        <v>426.5429983570693</v>
       </c>
       <c r="L26" t="n">
-        <v>15.98601119672066</v>
+        <v>6.286482543341098</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8526624275819152</v>
+        <v>0.7250277616278101</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.2877358490566038</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3042153369209725</v>
+        <v>0.3552101970941998</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9511930823142509</v>
+        <v>0.4298919764561068</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>593</v>
+        <v>1111</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>414</v>
+        <v>718</v>
       </c>
       <c r="B27" t="n">
-        <v>462</v>
+        <v>856</v>
       </c>
       <c r="C27" t="n">
-        <v>571</v>
+        <v>1058</v>
       </c>
       <c r="D27" t="n">
-        <v>3.022862872859391</v>
+        <v>2.246718345953649</v>
       </c>
       <c r="E27" t="n">
-        <v>2.330503320373877</v>
+        <v>1.399121964191875</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6923595524855138</v>
+        <v>-0.8475963817617745</v>
       </c>
       <c r="G27" t="n">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="H27" t="n">
-        <v>90.27563095385307</v>
+        <v>197.7090230599538</v>
       </c>
       <c r="I27" t="n">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="J27" t="n">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="K27" t="n">
-        <v>284.6843730631953</v>
+        <v>411.0718722498099</v>
       </c>
       <c r="L27" t="n">
-        <v>19.56486069468104</v>
+        <v>5.827257766553226</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8381052248412153</v>
+        <v>0.6009181685384017</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4403669724770642</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="R27" t="n">
-        <v>0.198643578195358</v>
+        <v>0.3997468026937629</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9082667586985249</v>
+        <v>0.8735846824663622</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>594</v>
+        <v>1112</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>219</v>
+        <v>515</v>
       </c>
       <c r="B28" t="n">
-        <v>272</v>
+        <v>576</v>
       </c>
       <c r="C28" t="n">
-        <v>371</v>
+        <v>663</v>
       </c>
       <c r="D28" t="n">
-        <v>2.252072079668152</v>
+        <v>2.782828818248966</v>
       </c>
       <c r="E28" t="n">
-        <v>1.539247404315019</v>
+        <v>2.26513844575304</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7128246753531333</v>
+        <v>-0.5176903724959263</v>
       </c>
       <c r="G28" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H28" t="n">
-        <v>46.51138219725235</v>
+        <v>117.0397862746429</v>
       </c>
       <c r="I28" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J28" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K28" t="n">
-        <v>286.1117250418476</v>
+        <v>284.6165505545271</v>
       </c>
       <c r="L28" t="n">
-        <v>6.650619900692569</v>
+        <v>6.53350443296594</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6037168539590282</v>
+        <v>0.6475269213871871</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1670319733124136</v>
+        <v>0.3273167198205142</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2693366603507803</v>
+        <v>0.714263259763279</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>595</v>
+        <v>1113</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>371</v>
+        <v>663</v>
       </c>
       <c r="B29" t="n">
-        <v>391</v>
+        <v>719</v>
       </c>
       <c r="C29" t="n">
-        <v>435</v>
+        <v>807</v>
       </c>
       <c r="D29" t="n">
-        <v>2.274784684809482</v>
+        <v>2.296743488524281</v>
       </c>
       <c r="E29" t="n">
-        <v>1.561960009456349</v>
+        <v>1.779053116028354</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7128246753531333</v>
+        <v>-0.5176903724959263</v>
       </c>
       <c r="G29" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="H29" t="n">
-        <v>25.7778672353291</v>
+        <v>51.50190099394763</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J29" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="K29" t="n">
-        <v>105.438381544493</v>
+        <v>196.0099846261374</v>
       </c>
       <c r="L29" t="n">
-        <v>6.717692755559524</v>
+        <v>5.39227697559245</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8824228358631429</v>
+        <v>0.7659711375735327</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1918989067988549</v>
+        <v>0.428212143652645</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9903605297512773</v>
+        <v>0.8608797403581941</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>596</v>
+        <v>1114</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>1308</v>
       </c>
       <c r="C30" t="n">
-        <v>133</v>
+        <v>1379</v>
       </c>
       <c r="D30" t="n">
-        <v>3.498427998837026</v>
+        <v>2.80953359199907</v>
       </c>
       <c r="E30" t="n">
-        <v>2.961743741332902</v>
+        <v>2.058328941680009</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5366842575041243</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G30" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H30" t="n">
-        <v>80.85426786725941</v>
+        <v>62.58507257098609</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J30" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K30" t="n">
-        <v>279.2398556113152</v>
+        <v>212.0185019822438</v>
       </c>
       <c r="L30" t="n">
-        <v>14.30286677253485</v>
+        <v>7.205751637677428</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.834500782157846</v>
+        <v>0.7464934774170779</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3055170959058059</v>
+        <v>0.1701116825044701</v>
       </c>
       <c r="S30" t="n">
-        <v>0.802162342048405</v>
+        <v>0.9609825218762933</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>597</v>
+        <v>1115</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>230</v>
+        <v>1379</v>
       </c>
       <c r="B31" t="n">
-        <v>260</v>
+        <v>1412</v>
       </c>
       <c r="C31" t="n">
-        <v>346</v>
+        <v>1554</v>
       </c>
       <c r="D31" t="n">
-        <v>2.818790001039303</v>
+        <v>2.676813063113266</v>
       </c>
       <c r="E31" t="n">
-        <v>2.102807195139782</v>
+        <v>1.925608412794205</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.7159828058995216</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G31" t="n">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="H31" t="n">
-        <v>167.8721167492291</v>
+        <v>43.9640387833258</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J31" t="n">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="K31" t="n">
-        <v>247.1678409909675</v>
+        <v>238.2752444340392</v>
       </c>
       <c r="L31" t="n">
-        <v>10.58134042618184</v>
+        <v>6.865356644324875</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8587073209943902</v>
+        <v>0.8832962173856553</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5479094383310883</v>
+        <v>0.3245070830211509</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8848618636125021</v>
+        <v>0.8797174636835869</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>598</v>
+        <v>1116</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>575</v>
+        <v>1554</v>
       </c>
       <c r="B32" t="n">
-        <v>611</v>
+        <v>1586</v>
       </c>
       <c r="C32" t="n">
-        <v>671</v>
+        <v>1667</v>
       </c>
       <c r="D32" t="n">
-        <v>3.247872189811117</v>
+        <v>2.030986722421707</v>
       </c>
       <c r="E32" t="n">
-        <v>2.66889945125271</v>
+        <v>1.279782072102645</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5789727385584069</v>
+        <v>-0.7512046503190614</v>
       </c>
       <c r="G32" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H32" t="n">
-        <v>33.26457528650008</v>
+        <v>33.88017911955558</v>
       </c>
       <c r="I32" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K32" t="n">
-        <v>242.9042415157095</v>
+        <v>130.3143655811594</v>
       </c>
       <c r="L32" t="n">
-        <v>20.75367636920342</v>
+        <v>5.208973454835336</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6911211721949517</v>
+        <v>0.874546378552992</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="R32" t="n">
-        <v>0.06274814539860339</v>
+        <v>0.2027472939715345</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9261583935079295</v>
+        <v>0.9444601614606908</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>599</v>
+        <v>1117</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1495</v>
+        <v>807</v>
       </c>
       <c r="B33" t="n">
-        <v>1533</v>
+        <v>837</v>
       </c>
       <c r="C33" t="n">
-        <v>1827</v>
+        <v>942</v>
       </c>
       <c r="D33" t="n">
-        <v>1.965723514887752</v>
+        <v>1.925341754490507</v>
       </c>
       <c r="E33" t="n">
-        <v>1.376962371132835</v>
+        <v>1.272726981876002</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5887611437549173</v>
+        <v>-0.652614772614505</v>
       </c>
       <c r="G33" t="n">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="H33" t="n">
-        <v>35.83061562523767</v>
+        <v>40.69287555173935</v>
       </c>
       <c r="I33" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>242.2756466705438</v>
+        <v>127.7856832691659</v>
       </c>
       <c r="L33" t="n">
-        <v>19.82522718570702</v>
+        <v>4.052140654862172</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7745887988679669</v>
+        <v>0.8878954253529308</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R33" t="n">
-        <v>0.6132992021463235</v>
+        <v>0.331138625028771</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8765014451660502</v>
+        <v>0.6830335873100619</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>600</v>
+        <v>1118</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1032</v>
+        <v>1373</v>
       </c>
       <c r="B34" t="n">
-        <v>1063</v>
+        <v>1400</v>
       </c>
       <c r="C34" t="n">
-        <v>1195</v>
+        <v>1437</v>
       </c>
       <c r="D34" t="n">
-        <v>1.988271800844204</v>
+        <v>1.289530981140873</v>
       </c>
       <c r="E34" t="n">
-        <v>1.244911873596974</v>
+        <v>0.6334916395648519</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7433599272472298</v>
+        <v>-0.6560393415760213</v>
       </c>
       <c r="G34" t="n">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="H34" t="n">
-        <v>31.95433538398788</v>
+        <v>35.92188087951081</v>
       </c>
       <c r="I34" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="K34" t="n">
-        <v>165.3915779539474</v>
+        <v>54.87022466467911</v>
       </c>
       <c r="L34" t="n">
-        <v>10.4569860404769</v>
+        <v>4.215773653361032</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8334814118901195</v>
+        <v>0.7676453123882017</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4594671037013552</v>
+        <v>0.2479061771032895</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7746897875638822</v>
+        <v>0.8972671866934235</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>601</v>
+        <v>1119</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1195</v>
+        <v>749</v>
       </c>
       <c r="B35" t="n">
-        <v>1236</v>
+        <v>776</v>
       </c>
       <c r="C35" t="n">
-        <v>1360</v>
+        <v>853</v>
       </c>
       <c r="D35" t="n">
-        <v>3.414045240900965</v>
+        <v>2.761429486024379</v>
       </c>
       <c r="E35" t="n">
-        <v>2.670685313653735</v>
+        <v>1.989686526327256</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7433599272472298</v>
+        <v>-0.7717429596971226</v>
       </c>
       <c r="G35" t="n">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="H35" t="n">
-        <v>48.10985021346983</v>
+        <v>68.30310620456692</v>
       </c>
       <c r="I35" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="K35" t="n">
-        <v>226.5259356568662</v>
+        <v>167.3221721736817</v>
       </c>
       <c r="L35" t="n">
-        <v>17.95560516952451</v>
+        <v>13.83637122836506</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8921523137249573</v>
+        <v>0.8977659257149465</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3933651890501543</v>
+        <v>0.2313064250148049</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8330241859302857</v>
+        <v>0.9491126584436398</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>602</v>
+        <v>1120</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1425</v>
+        <v>1227</v>
       </c>
       <c r="B36" t="n">
-        <v>1448</v>
+        <v>1244</v>
       </c>
       <c r="C36" t="n">
-        <v>1629</v>
+        <v>1357</v>
       </c>
       <c r="D36" t="n">
-        <v>2.371739341860051</v>
+        <v>2.226674936615248</v>
       </c>
       <c r="E36" t="n">
-        <v>1.628379414612821</v>
+        <v>1.454931976918125</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7433599272472298</v>
+        <v>-0.7717429596971226</v>
       </c>
       <c r="G36" t="n">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="H36" t="n">
-        <v>25.44665071415466</v>
+        <v>17.12079737076988</v>
       </c>
       <c r="I36" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J36" t="n">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="K36" t="n">
-        <v>261.7452822316632</v>
+        <v>110.3471246556218</v>
       </c>
       <c r="L36" t="n">
-        <v>12.47377002427436</v>
+        <v>11.1569392533215</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.769687641202655</v>
+        <v>0.7905153898932499</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1270718232044199</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4589496166706734</v>
+        <v>0.668935644526924</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8400273229471484</v>
+        <v>0.8805540851463259</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>603</v>
+        <v>1121</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1724</v>
+        <v>781</v>
       </c>
       <c r="B37" t="n">
-        <v>1769</v>
+        <v>805</v>
       </c>
       <c r="C37" t="n">
-        <v>1827</v>
+        <v>907</v>
       </c>
       <c r="D37" t="n">
-        <v>2.021305014978532</v>
+        <v>2.934945163419832</v>
       </c>
       <c r="E37" t="n">
-        <v>1.277945087731302</v>
+        <v>2.436025258013949</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7433599272472298</v>
+        <v>-0.4989199054058829</v>
       </c>
       <c r="G37" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H37" t="n">
-        <v>42.17840054578551</v>
+        <v>147.3291920793833</v>
       </c>
       <c r="I37" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J37" t="n">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="K37" t="n">
-        <v>136.4183987670604</v>
+        <v>219.6214940541433</v>
       </c>
       <c r="L37" t="n">
-        <v>10.6307187559578</v>
+        <v>5.945704785040516</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.712829975125005</v>
+        <v>0.8332052575190064</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1106410628452248</v>
+        <v>0.2278380484807745</v>
       </c>
       <c r="S37" t="n">
-        <v>0.992087553799748</v>
+        <v>0.694636613056818</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>604</v>
+        <v>1122</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>437</v>
+        <v>548</v>
       </c>
       <c r="B38" t="n">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="C38" t="n">
-        <v>495</v>
+        <v>643</v>
       </c>
       <c r="D38" t="n">
-        <v>1.389901048332181</v>
+        <v>1.586092168150499</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7685720875448303</v>
+        <v>0.8990257860374684</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6213289607873511</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G38" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H38" t="n">
-        <v>15.63863000968689</v>
+        <v>29.53472699855251</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27799454620963</v>
+        <v>75.02256097687915</v>
       </c>
       <c r="L38" t="n">
-        <v>8.034484398039741</v>
+        <v>6.030894832321025</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8426135817452596</v>
+        <v>0.8317201183002778</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2974532286730051</v>
+        <v>0.4129953739725323</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8365243904412027</v>
+        <v>0.6158926571408556</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>605</v>
+        <v>1123</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>902</v>
+        <v>643</v>
       </c>
       <c r="B39" t="n">
-        <v>930</v>
+        <v>675</v>
       </c>
       <c r="C39" t="n">
-        <v>996</v>
+        <v>762</v>
       </c>
       <c r="D39" t="n">
-        <v>2.199550798617661</v>
+        <v>3.10455977888026</v>
       </c>
       <c r="E39" t="n">
-        <v>1.57822183783031</v>
+        <v>2.417493396767229</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6213289607873511</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G39" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="H39" t="n">
-        <v>25.3657172625193</v>
+        <v>54.63417923347686</v>
       </c>
       <c r="I39" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J39" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K39" t="n">
-        <v>130.7228498593753</v>
+        <v>172.6921453214498</v>
       </c>
       <c r="L39" t="n">
-        <v>12.71475879192649</v>
+        <v>11.80465669212237</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.799587330337508</v>
+        <v>0.8964309916309912</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3642621790318503</v>
+        <v>0.1964345018468767</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8797299474058395</v>
+        <v>0.9439891511303734</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>606</v>
+        <v>1124</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1480</v>
+        <v>762</v>
       </c>
       <c r="B40" t="n">
-        <v>1519</v>
+        <v>793</v>
       </c>
       <c r="C40" t="n">
-        <v>1682</v>
+        <v>909</v>
       </c>
       <c r="D40" t="n">
-        <v>2.73327521161388</v>
+        <v>1.631196284465358</v>
       </c>
       <c r="E40" t="n">
-        <v>2.16322561788861</v>
+        <v>0.9441299023523275</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.57004959372527</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G40" t="n">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="H40" t="n">
-        <v>60.51412584546824</v>
+        <v>45.14249867283786</v>
       </c>
       <c r="I40" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J40" t="n">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="K40" t="n">
-        <v>218.034575430797</v>
+        <v>101.1669367097247</v>
       </c>
       <c r="L40" t="n">
-        <v>10.32298923039285</v>
+        <v>6.202396960294384</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8298167399359501</v>
+        <v>0.8602131338118235</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2392638036809816</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4578917435061542</v>
+        <v>0.3960945613192403</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5083727745659041</v>
+        <v>0.5619863669412091</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>607</v>
+        <v>1125</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>787</v>
+        <v>1568</v>
       </c>
       <c r="B41" t="n">
-        <v>819</v>
+        <v>1593</v>
       </c>
       <c r="C41" t="n">
-        <v>1003</v>
+        <v>1698</v>
       </c>
       <c r="D41" t="n">
-        <v>1.409444996212371</v>
+        <v>3.601035858203034</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7809511344231127</v>
+        <v>2.913969476090004</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6284938617892583</v>
+        <v>-0.6870663821130306</v>
       </c>
       <c r="G41" t="n">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="H41" t="n">
-        <v>32.95357264525001</v>
+        <v>127.6539719588668</v>
       </c>
       <c r="I41" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J41" t="n">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>155.162418888683</v>
+        <v>275.9493642862474</v>
       </c>
       <c r="L41" t="n">
-        <v>6.828785909812245</v>
+        <v>13.69243792027771</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7556066941349648</v>
+        <v>0.8705106577411035</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3270347240151548</v>
+        <v>0.2892153078120117</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6415414816800669</v>
+        <v>0.8366766833214666</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>608</v>
+        <v>1126</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1003</v>
+        <v>417</v>
       </c>
       <c r="B42" t="n">
-        <v>1052</v>
+        <v>445</v>
       </c>
       <c r="C42" t="n">
-        <v>1171</v>
+        <v>535</v>
       </c>
       <c r="D42" t="n">
-        <v>1.739542389353563</v>
+        <v>3.148031145131127</v>
       </c>
       <c r="E42" t="n">
-        <v>1.111048527564305</v>
+        <v>2.477777885557387</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6284938617892583</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G42" t="n">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="H42" t="n">
-        <v>52.63048369163994</v>
+        <v>119.9404296551186</v>
       </c>
       <c r="I42" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J42" t="n">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="K42" t="n">
-        <v>137.6687699369569</v>
+        <v>210.3521576469143</v>
       </c>
       <c r="L42" t="n">
-        <v>8.428113611997135</v>
+        <v>9.51223126105474</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.857068003293073</v>
+        <v>0.8967348169167052</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2801067108697119</v>
+        <v>0.458549574781396</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7965683742612298</v>
+        <v>0.9349269155435062</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>609</v>
+        <v>1127</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1626</v>
+        <v>596</v>
       </c>
       <c r="B43" t="n">
-        <v>1662</v>
+        <v>623</v>
       </c>
       <c r="C43" t="n">
-        <v>1827</v>
+        <v>675</v>
       </c>
       <c r="D43" t="n">
-        <v>1.661466608132959</v>
+        <v>1.647328339091442</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0329727463437</v>
+        <v>0.9770750795177027</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6284938617892583</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G43" t="n">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="H43" t="n">
-        <v>44.10943996221044</v>
+        <v>23.56533421344636</v>
       </c>
       <c r="I43" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7431406274863</v>
+        <v>81.22263910196288</v>
       </c>
       <c r="L43" t="n">
-        <v>8.049835072480075</v>
+        <v>4.977640754464105</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8122906536718278</v>
+        <v>0.8452998221986923</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2181818181818182</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4237701738810335</v>
+        <v>0.3752846826759067</v>
       </c>
       <c r="S43" t="n">
-        <v>0.663576968976837</v>
+        <v>0.9660566075921777</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>610</v>
+        <v>1128</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1570</v>
+        <v>1056</v>
       </c>
       <c r="B44" t="n">
-        <v>1593</v>
+        <v>1112</v>
       </c>
       <c r="C44" t="n">
-        <v>1827</v>
+        <v>1226</v>
       </c>
       <c r="D44" t="n">
-        <v>3.459579387606516</v>
+        <v>2.51355419535169</v>
       </c>
       <c r="E44" t="n">
-        <v>2.952566519848759</v>
+        <v>1.84330093577795</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5070128677577562</v>
+        <v>-0.6702532595737396</v>
       </c>
       <c r="G44" t="n">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="H44" t="n">
-        <v>206.6169446026256</v>
+        <v>116.9080969194772</v>
       </c>
       <c r="I44" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J44" t="n">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="K44" t="n">
-        <v>466.7799834803129</v>
+        <v>279.1876856819023</v>
       </c>
       <c r="L44" t="n">
-        <v>22.28825019306008</v>
+        <v>7.595067421857962</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8390563589933958</v>
+        <v>0.6317602145792586</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.09829059829059829</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4771105445658388</v>
+        <v>0.193134939508047</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9472121551259586</v>
+        <v>0.7405892887947783</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n58</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>611</v>
+        <v>1129</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>327</v>
+        <v>656</v>
       </c>
       <c r="B45" t="n">
-        <v>348</v>
+        <v>699</v>
       </c>
       <c r="C45" t="n">
-        <v>453</v>
+        <v>753</v>
       </c>
       <c r="D45" t="n">
-        <v>3.333947060938576</v>
+        <v>2.260339848224285</v>
       </c>
       <c r="E45" t="n">
-        <v>2.668965701592881</v>
+        <v>1.723273126645031</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6649813593456951</v>
+        <v>-0.5370667215792535</v>
       </c>
       <c r="G45" t="n">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H45" t="n">
-        <v>278.4077025135724</v>
+        <v>210.159956914275</v>
       </c>
       <c r="I45" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J45" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="K45" t="n">
-        <v>240.5999501563079</v>
+        <v>164.7026177961727</v>
       </c>
       <c r="L45" t="n">
-        <v>29.93034376574055</v>
+        <v>10.30854006436411</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8702723506701568</v>
+        <v>0.686112147687328</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4593359194181146</v>
+        <v>0.3084910331194924</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9874829512164571</v>
+        <v>0.9245962752378127</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n60</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>612</v>
+        <v>1130</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>453</v>
+        <v>753</v>
       </c>
       <c r="B46" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="C46" t="n">
-        <v>573</v>
+        <v>851</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12887290477976</v>
+        <v>1.442324773394798</v>
       </c>
       <c r="E46" t="n">
-        <v>0.463891545434065</v>
+        <v>0.9052580518155442</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6649813593456951</v>
+        <v>-0.5370667215792535</v>
       </c>
       <c r="G46" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H46" t="n">
-        <v>55.81745980687214</v>
+        <v>30.83371461333252</v>
       </c>
       <c r="I46" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
         <v>73</v>
       </c>
       <c r="K46" t="n">
-        <v>94.32713239241102</v>
+        <v>74.72848703935074</v>
       </c>
       <c r="L46" t="n">
-        <v>10.13440030399775</v>
+        <v>6.577888154316977</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,36 +4390,5024 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7940790781692724</v>
+        <v>0.9164905072040186</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6438356164383562</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1969095057519768</v>
+        <v>0.3355629838300266</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9364601064541649</v>
+        <v>0.9182698607419445</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1131</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>863</v>
+      </c>
+      <c r="B47" t="n">
+        <v>932</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1169</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.445110850993525</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.865225791371653</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5798850596218712</v>
+      </c>
+      <c r="G47" t="n">
+        <v>306</v>
+      </c>
+      <c r="H47" t="n">
+        <v>81.37450713085389</v>
+      </c>
+      <c r="I47" t="n">
+        <v>69</v>
+      </c>
+      <c r="J47" t="n">
+        <v>237</v>
+      </c>
+      <c r="K47" t="n">
+        <v>272.2392274811065</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.829148682149516</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.738493245903743</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2911392405063291</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3884437288193361</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8722259281944968</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1132</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>167</v>
+      </c>
+      <c r="B48" t="n">
+        <v>187</v>
+      </c>
+      <c r="C48" t="n">
+        <v>245</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.523463126600409</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.831716356672806</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6917467699276031</v>
+      </c>
+      <c r="G48" t="n">
+        <v>78</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15.54567561233642</v>
+      </c>
+      <c r="I48" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" t="n">
+        <v>58</v>
+      </c>
+      <c r="K48" t="n">
+        <v>140.9131277543582</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10.36850894257416</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8690093357157138</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2710545037112675</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9738325071915486</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1133</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>365</v>
+      </c>
+      <c r="B49" t="n">
+        <v>387</v>
+      </c>
+      <c r="C49" t="n">
+        <v>430</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9081924984020048</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2164457284744017</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.6917467699276031</v>
+      </c>
+      <c r="G49" t="n">
+        <v>65</v>
+      </c>
+      <c r="H49" t="n">
+        <v>40.98448269699117</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>43</v>
+      </c>
+      <c r="K49" t="n">
+        <v>35.46658853788417</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.731618640271528</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.6383468600100851</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.07669387559941117</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.6551938695331079</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1134</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.957282276091412</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.265535506163809</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.6917467699276031</v>
+      </c>
+      <c r="G50" t="n">
+        <v>120</v>
+      </c>
+      <c r="H50" t="n">
+        <v>31.51491699724738</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="n">
+        <v>135.5058725285816</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8.042161808853443</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6650088513989125</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3453451332190577</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6439782685014229</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1135</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>110</v>
+      </c>
+      <c r="B51" t="n">
+        <v>136</v>
+      </c>
+      <c r="C51" t="n">
+        <v>187</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.399648409590084</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.681989081094357</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.717659328495727</v>
+      </c>
+      <c r="G51" t="n">
+        <v>77</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.81969845175874</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26</v>
+      </c>
+      <c r="J51" t="n">
+        <v>51</v>
+      </c>
+      <c r="K51" t="n">
+        <v>98.87842178638122</v>
+      </c>
+      <c r="L51" t="n">
+        <v>9.083688000175982</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.823704693082514</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4368021328853365</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9173327699276718</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1136</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>351</v>
+      </c>
+      <c r="B52" t="n">
+        <v>376</v>
+      </c>
+      <c r="C52" t="n">
+        <v>485</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.583430731338139</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.865771402842412</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.717659328495727</v>
+      </c>
+      <c r="G52" t="n">
+        <v>134</v>
+      </c>
+      <c r="H52" t="n">
+        <v>52.12826901815578</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>109</v>
+      </c>
+      <c r="K52" t="n">
+        <v>159.3017452324908</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9.779382112711605</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8827661178394601</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3715995669198263</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5983409305145182</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1137</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>569</v>
+      </c>
+      <c r="B53" t="n">
+        <v>590</v>
+      </c>
+      <c r="C53" t="n">
+        <v>661</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.817981612727207</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.10032228423148</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.717659328495727</v>
+      </c>
+      <c r="G53" t="n">
+        <v>92</v>
+      </c>
+      <c r="H53" t="n">
+        <v>18.94363188186071</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>71</v>
+      </c>
+      <c r="K53" t="n">
+        <v>91.00241481968457</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.88183222761858</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8577901865862406</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2957746478873239</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.4899315224612196</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.7928113411716287</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1138</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>860</v>
+      </c>
+      <c r="B54" t="n">
+        <v>883</v>
+      </c>
+      <c r="C54" t="n">
+        <v>949</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5775690280875749</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1539351474230672</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.4236338806645078</v>
+      </c>
+      <c r="G54" t="n">
+        <v>89</v>
+      </c>
+      <c r="H54" t="n">
+        <v>29.50615790885968</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>66</v>
+      </c>
+      <c r="K54" t="n">
+        <v>28.72859335922037</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.949018863110998</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8710101704006883</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2737247700578903</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.6876411853333017</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1139</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>72</v>
+      </c>
+      <c r="B55" t="n">
+        <v>103</v>
+      </c>
+      <c r="C55" t="n">
+        <v>290</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.473268500971542</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.897653082735661</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5756154182358814</v>
+      </c>
+      <c r="G55" t="n">
+        <v>218</v>
+      </c>
+      <c r="H55" t="n">
+        <v>19.2294648611086</v>
+      </c>
+      <c r="I55" t="n">
+        <v>31</v>
+      </c>
+      <c r="J55" t="n">
+        <v>187</v>
+      </c>
+      <c r="K55" t="n">
+        <v>384.7483962371271</v>
+      </c>
+      <c r="L55" t="n">
+        <v>14.07409407332108</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.7844038322032163</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1657754010695187</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.5370345560936581</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8633719517792118</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1140</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>867</v>
+      </c>
+      <c r="B56" t="n">
+        <v>884</v>
+      </c>
+      <c r="C56" t="n">
+        <v>906</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8581912684757287</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1798537442384386</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.6783375242372901</v>
+      </c>
+      <c r="G56" t="n">
+        <v>39</v>
+      </c>
+      <c r="H56" t="n">
+        <v>19.21526868437127</v>
+      </c>
+      <c r="I56" t="n">
+        <v>17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>22</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18.60407263140627</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.433711799758686</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7709811410345616</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2023109467634563</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9763753341386558</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1141</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.442636942231095</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7642994179938044</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.6783375242372901</v>
+      </c>
+      <c r="G57" t="n">
+        <v>95</v>
+      </c>
+      <c r="H57" t="n">
+        <v>41.57404220571902</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>71</v>
+      </c>
+      <c r="K57" t="n">
+        <v>76.22111497075102</v>
+      </c>
+      <c r="L57" t="n">
+        <v>7.453159532720988</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8722459868748887</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2551452146179253</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.6448479968428097</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1142</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.605352301181379</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.927014776944089</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.6783375242372901</v>
+      </c>
+      <c r="G58" t="n">
+        <v>239</v>
+      </c>
+      <c r="H58" t="n">
+        <v>71.0383160527233</v>
+      </c>
+      <c r="I58" t="n">
+        <v>67</v>
+      </c>
+      <c r="J58" t="n">
+        <v>172</v>
+      </c>
+      <c r="K58" t="n">
+        <v>333.461670772017</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.293803143860513</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7103804193690904</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.3895348837209303</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8944209818567586</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.4445607936049305</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1143</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>85</v>
+      </c>
+      <c r="C59" t="n">
+        <v>150</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.161776362380907</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.462238574496461</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6995377878844458</v>
+      </c>
+      <c r="G59" t="n">
+        <v>92</v>
+      </c>
+      <c r="H59" t="n">
+        <v>103.8345018916654</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>65</v>
+      </c>
+      <c r="K59" t="n">
+        <v>203.7270981873546</v>
+      </c>
+      <c r="L59" t="n">
+        <v>19.71687496115405</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8423306699442317</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2282471555451339</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9253259893849767</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1144</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>208</v>
+      </c>
+      <c r="B60" t="n">
+        <v>232</v>
+      </c>
+      <c r="C60" t="n">
+        <v>290</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.628172825611173</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.928635037726728</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6995377878844458</v>
+      </c>
+      <c r="G60" t="n">
+        <v>82</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22.36970613121736</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>58</v>
+      </c>
+      <c r="K60" t="n">
+        <v>155.5998071915535</v>
+      </c>
+      <c r="L60" t="n">
+        <v>16.38931696606682</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8762046146144311</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2654696148181999</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9801810815161313</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1145</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>290</v>
+      </c>
+      <c r="B61" t="n">
+        <v>322</v>
+      </c>
+      <c r="C61" t="n">
+        <v>421</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.622215028169637</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.922677240285191</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.6995377878844458</v>
+      </c>
+      <c r="G61" t="n">
+        <v>131</v>
+      </c>
+      <c r="H61" t="n">
+        <v>36.94381732706307</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32</v>
+      </c>
+      <c r="J61" t="n">
+        <v>99</v>
+      </c>
+      <c r="K61" t="n">
+        <v>178.8765670464038</v>
+      </c>
+      <c r="L61" t="n">
+        <v>16.35216407043627</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9166560960648591</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3127390498849945</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.9492686839937862</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1146</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>421</v>
+      </c>
+      <c r="B62" t="n">
+        <v>458</v>
+      </c>
+      <c r="C62" t="n">
+        <v>578</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.015978511032693</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.316440723148248</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.6995377878844458</v>
+      </c>
+      <c r="G62" t="n">
+        <v>157</v>
+      </c>
+      <c r="H62" t="n">
+        <v>86.92745793862451</v>
+      </c>
+      <c r="I62" t="n">
+        <v>37</v>
+      </c>
+      <c r="J62" t="n">
+        <v>120</v>
+      </c>
+      <c r="K62" t="n">
+        <v>286.4617386837059</v>
+      </c>
+      <c r="L62" t="n">
+        <v>18.80767782790932</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8417247895058177</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.1302911661280071</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9149809318744577</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1147</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>323</v>
+      </c>
+      <c r="B63" t="n">
+        <v>340</v>
+      </c>
+      <c r="C63" t="n">
+        <v>365</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.511785423080926</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.766092636451216</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.7456927866297106</v>
+      </c>
+      <c r="G63" t="n">
+        <v>42</v>
+      </c>
+      <c r="H63" t="n">
+        <v>23.00980449606345</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>25</v>
+      </c>
+      <c r="K63" t="n">
+        <v>83.28673923133547</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.251003920694739</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6556934381612405</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.06055965974988279</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9844352365603009</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1148</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>365</v>
+      </c>
+      <c r="B64" t="n">
+        <v>385</v>
+      </c>
+      <c r="C64" t="n">
+        <v>438</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.254109134212815</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.508416347583104</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.7456927866297106</v>
+      </c>
+      <c r="G64" t="n">
+        <v>73</v>
+      </c>
+      <c r="H64" t="n">
+        <v>33.19897107136171</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>53</v>
+      </c>
+      <c r="K64" t="n">
+        <v>120.442446418139</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.507145881037445</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.810790660686362</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1061512635159044</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9429821298490684</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1149</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>46</v>
+      </c>
+      <c r="C65" t="n">
+        <v>142</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.854882541802313</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.315656919799286</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5392256220030265</v>
+      </c>
+      <c r="G65" t="n">
+        <v>142</v>
+      </c>
+      <c r="H65" t="n">
+        <v>73.13838499052561</v>
+      </c>
+      <c r="I65" t="n">
+        <v>46</v>
+      </c>
+      <c r="J65" t="n">
+        <v>96</v>
+      </c>
+      <c r="K65" t="n">
+        <v>283.3532114983804</v>
+      </c>
+      <c r="L65" t="n">
+        <v>15.29601295503003</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7207748193253717</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.1387705407434528</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.8519706575703025</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1150</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1165</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.220074966706611</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.680849344703585</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5392256220030265</v>
+      </c>
+      <c r="G66" t="n">
+        <v>109</v>
+      </c>
+      <c r="H66" t="n">
+        <v>49.79787928635642</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>81</v>
+      </c>
+      <c r="K66" t="n">
+        <v>170.4728132427513</v>
+      </c>
+      <c r="L66" t="n">
+        <v>12.77712300512374</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.9041838670085013</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.345679012345679</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3232235633777437</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.8309437848342629</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1151</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>231</v>
+      </c>
+      <c r="B67" t="n">
+        <v>266</v>
+      </c>
+      <c r="C67" t="n">
+        <v>349</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.005341113220715</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.271368256336781</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7339728568839338</v>
+      </c>
+      <c r="G67" t="n">
+        <v>118</v>
+      </c>
+      <c r="H67" t="n">
+        <v>167.4728621201172</v>
+      </c>
+      <c r="I67" t="n">
+        <v>35</v>
+      </c>
+      <c r="J67" t="n">
+        <v>83</v>
+      </c>
+      <c r="K67" t="n">
+        <v>256.3838973482287</v>
+      </c>
+      <c r="L67" t="n">
+        <v>11.19385831968806</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.7883496594168661</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.4216867469879518</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3551848461792081</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.7138682347628872</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1152</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1442</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.025716410363299</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.291743553479365</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.7339728568839338</v>
+      </c>
+      <c r="G68" t="n">
+        <v>149</v>
+      </c>
+      <c r="H68" t="n">
+        <v>141.3439870973641</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>121</v>
+      </c>
+      <c r="K68" t="n">
+        <v>260.3145779538008</v>
+      </c>
+      <c r="L68" t="n">
+        <v>11.26974926878276</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8583526383650825</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.231404958677686</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4591886471691982</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.7921312951099071</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1153</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1673</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.730905149093552</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.143579682790868</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5873254663026838</v>
+      </c>
+      <c r="G69" t="n">
+        <v>74</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31.33043163295497</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>48</v>
+      </c>
+      <c r="K69" t="n">
+        <v>87.89041066828361</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.451019555201453</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8612108409284541</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2288927914785877</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9540391017744523</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1154</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>581</v>
+      </c>
+      <c r="B70" t="n">
+        <v>608</v>
+      </c>
+      <c r="C70" t="n">
+        <v>676</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.424496143445197</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.839924156987161</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5845719864580358</v>
+      </c>
+      <c r="G70" t="n">
+        <v>95</v>
+      </c>
+      <c r="H70" t="n">
+        <v>29.22440959977041</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>68</v>
+      </c>
+      <c r="K70" t="n">
+        <v>241.5069898052384</v>
+      </c>
+      <c r="L70" t="n">
+        <v>21.87559279086325</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7717167757093254</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.3970588235294117</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.101484147049315</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8818539636054292</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1155</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>749</v>
+      </c>
+      <c r="B71" t="n">
+        <v>767</v>
+      </c>
+      <c r="C71" t="n">
+        <v>840</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.684365275445911</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.023849486887661</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.6605157885582494</v>
+      </c>
+      <c r="G71" t="n">
+        <v>91</v>
+      </c>
+      <c r="H71" t="n">
+        <v>23.83918930248024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73</v>
+      </c>
+      <c r="K71" t="n">
+        <v>168.5362566393098</v>
+      </c>
+      <c r="L71" t="n">
+        <v>11.80042900361807</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.9129137579594584</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2706149450348637</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9558482802514489</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1156</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.249234278585897</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5887184900276473</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.6605157885582494</v>
+      </c>
+      <c r="G72" t="n">
+        <v>156</v>
+      </c>
+      <c r="H72" t="n">
+        <v>59.36624226678805</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" t="n">
+        <v>136</v>
+      </c>
+      <c r="K72" t="n">
+        <v>120.0611328847621</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.491614925949352</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.9054677766214143</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2350175893313328</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.8755965979765703</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1157</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1499</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.06635527718623</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.466099924820668</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6002553523655616</v>
+      </c>
+      <c r="G73" t="n">
+        <v>328</v>
+      </c>
+      <c r="H73" t="n">
+        <v>35.57082068835643</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32</v>
+      </c>
+      <c r="J73" t="n">
+        <v>296</v>
+      </c>
+      <c r="K73" t="n">
+        <v>240.7278540681673</v>
+      </c>
+      <c r="L73" t="n">
+        <v>20.07304067692385</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.7616348893052157</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.6079428689994498</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8561237898877694</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1158</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.121726250576497</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.377803208985343</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.7439230415911534</v>
+      </c>
+      <c r="G74" t="n">
+        <v>172</v>
+      </c>
+      <c r="H74" t="n">
+        <v>28.2900028610361</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="n">
+        <v>172.7265233752783</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10.91454070114419</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.7658954017549572</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.402727599025658</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7925980668799767</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1159</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.617019016161787</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.873095974570633</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.7439230415911534</v>
+      </c>
+      <c r="G75" t="n">
+        <v>97</v>
+      </c>
+      <c r="H75" t="n">
+        <v>41.96648574422738</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33</v>
+      </c>
+      <c r="J75" t="n">
+        <v>64</v>
+      </c>
+      <c r="K75" t="n">
+        <v>182.9697784756571</v>
+      </c>
+      <c r="L75" t="n">
+        <v>18.6065951052751</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8535775443007226</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.196656924694562</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9885756738022055</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1160</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1577</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.509759970263492</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.765836928672338</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.7439230415911534</v>
+      </c>
+      <c r="G76" t="n">
+        <v>154</v>
+      </c>
+      <c r="H76" t="n">
+        <v>23.90377544846137</v>
+      </c>
+      <c r="I76" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" t="n">
+        <v>126</v>
+      </c>
+      <c r="K76" t="n">
+        <v>224.9414773778506</v>
+      </c>
+      <c r="L76" t="n">
+        <v>12.91065581061664</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8166642122715431</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4056573103451422</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.8099326586347383</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1161</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.137171750584672</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.393248708993518</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.7439230415911534</v>
+      </c>
+      <c r="G77" t="n">
+        <v>95</v>
+      </c>
+      <c r="H77" t="n">
+        <v>43.45436264746627</v>
+      </c>
+      <c r="I77" t="n">
+        <v>32</v>
+      </c>
+      <c r="J77" t="n">
+        <v>63</v>
+      </c>
+      <c r="K77" t="n">
+        <v>130.9507272087682</v>
+      </c>
+      <c r="L77" t="n">
+        <v>10.99399512578683</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7696588822246245</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1224850975447976</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9323416809589606</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1162</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>435</v>
+      </c>
+      <c r="B78" t="n">
+        <v>452</v>
+      </c>
+      <c r="C78" t="n">
+        <v>500</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.450029442484205</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8230439978764744</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6269854446077301</v>
+      </c>
+      <c r="G78" t="n">
+        <v>65</v>
+      </c>
+      <c r="H78" t="n">
+        <v>24.43565477799723</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>48</v>
+      </c>
+      <c r="K78" t="n">
+        <v>58.31922189734295</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.10536103486662</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.9214441265574829</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3236456855426219</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.8358589326400343</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1163</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1086</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.259811399263143</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6328259546554126</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6269854446077301</v>
+      </c>
+      <c r="G79" t="n">
+        <v>30</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9.016034024404007</v>
+      </c>
+      <c r="I79" t="n">
+        <v>13</v>
+      </c>
+      <c r="J79" t="n">
+        <v>17</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30.93009914552202</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.042081993434766</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.652084261828784</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1156517567964979</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.8198994418302878</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1164</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1148</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.653384937890002</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.026399493282272</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6269854446077301</v>
+      </c>
+      <c r="G80" t="n">
+        <v>45</v>
+      </c>
+      <c r="H80" t="n">
+        <v>22.87149988488613</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>27</v>
+      </c>
+      <c r="K80" t="n">
+        <v>55.64470949342169</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.242075683821827</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.6732845653176218</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.06736917131573017</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9912405587694173</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1165</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>841</v>
+      </c>
+      <c r="B81" t="n">
+        <v>864</v>
+      </c>
+      <c r="C81" t="n">
+        <v>975</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.307849122897719</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.720625973928382</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5872231489693367</v>
+      </c>
+      <c r="G81" t="n">
+        <v>134</v>
+      </c>
+      <c r="H81" t="n">
+        <v>26.48664855452307</v>
+      </c>
+      <c r="I81" t="n">
+        <v>23</v>
+      </c>
+      <c r="J81" t="n">
+        <v>111</v>
+      </c>
+      <c r="K81" t="n">
+        <v>153.6720549776526</v>
+      </c>
+      <c r="L81" t="n">
+        <v>8.308259655091137</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.8211150323871278</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.2072072072072072</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.3512977065194965</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.7774383874011402</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1166</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.06901331338173</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.481790164412393</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5872231489693367</v>
+      </c>
+      <c r="G82" t="n">
+        <v>71</v>
+      </c>
+      <c r="H82" t="n">
+        <v>40.86238333830102</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40</v>
+      </c>
+      <c r="K82" t="n">
+        <v>122.2523027153654</v>
+      </c>
+      <c r="L82" t="n">
+        <v>11.04845166849195</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.6851564458997709</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1222586701805437</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9795841970117054</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1167</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.810498069891074</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.223274920921737</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5872231489693367</v>
+      </c>
+      <c r="G83" t="n">
+        <v>191</v>
+      </c>
+      <c r="H83" t="n">
+        <v>48.62340669188734</v>
+      </c>
+      <c r="I83" t="n">
+        <v>34</v>
+      </c>
+      <c r="J83" t="n">
+        <v>157</v>
+      </c>
+      <c r="K83" t="n">
+        <v>216.2823436969513</v>
+      </c>
+      <c r="L83" t="n">
+        <v>10.1177964768637</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7833939294780884</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.2165605095541401</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4399683432007258</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.4538236485907178</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n49</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1168</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>846</v>
+      </c>
+      <c r="B84" t="n">
+        <v>871</v>
+      </c>
+      <c r="C84" t="n">
+        <v>943</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.037126753584357</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4087674323400273</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.6283593212443298</v>
+      </c>
+      <c r="G84" t="n">
+        <v>97</v>
+      </c>
+      <c r="H84" t="n">
+        <v>29.64314501804802</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+      <c r="J84" t="n">
+        <v>72</v>
+      </c>
+      <c r="K84" t="n">
+        <v>73.12141677682121</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.156405126162258</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7891933312873699</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1664003203683915</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.5920675418073962</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1169</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>943</v>
+      </c>
+      <c r="B85" t="n">
+        <v>962</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.6875327355256663</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.05917341428133653</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.6283593212443298</v>
+      </c>
+      <c r="G85" t="n">
+        <v>67</v>
+      </c>
+      <c r="H85" t="n">
+        <v>24.88721825472442</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="n">
+        <v>31.46652147220926</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3.418287407606199</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.816623133668045</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.126642801119814</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.842036021322765</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1170</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.648962277250011</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.020602956005682</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.6283593212443298</v>
+      </c>
+      <c r="G86" t="n">
+        <v>162</v>
+      </c>
+      <c r="H86" t="n">
+        <v>52.65700577353186</v>
+      </c>
+      <c r="I86" t="n">
+        <v>47</v>
+      </c>
+      <c r="J86" t="n">
+        <v>115</v>
+      </c>
+      <c r="K86" t="n">
+        <v>135.2415992527926</v>
+      </c>
+      <c r="L86" t="n">
+        <v>8.198339797786886</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8191955193251136</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.4086956521739131</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.3826295438661891</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.7237876043245668</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1171</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1408</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.19702158808366</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.568662266839331</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.6283593212443298</v>
+      </c>
+      <c r="G87" t="n">
+        <v>75</v>
+      </c>
+      <c r="H87" t="n">
+        <v>142.529852987175</v>
+      </c>
+      <c r="I87" t="n">
+        <v>32</v>
+      </c>
+      <c r="J87" t="n">
+        <v>43</v>
+      </c>
+      <c r="K87" t="n">
+        <v>251.4933617688558</v>
+      </c>
+      <c r="L87" t="n">
+        <v>20.86682611996469</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.6774111464767247</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1474395480239108</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.9846739336921347</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1172</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1632</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.801897168969806</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.173537847725477</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.6283593212443298</v>
+      </c>
+      <c r="G88" t="n">
+        <v>148</v>
+      </c>
+      <c r="H88" t="n">
+        <v>33.82271041040576</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>120</v>
+      </c>
+      <c r="K88" t="n">
+        <v>125.9483577960727</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.958704195781252</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8694245633081469</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3622073691950705</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.8676219048988352</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1173</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>495</v>
+      </c>
+      <c r="B89" t="n">
+        <v>533</v>
+      </c>
+      <c r="C89" t="n">
+        <v>587</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.858836758827956</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.274297059389591</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.584539699438365</v>
+      </c>
+      <c r="G89" t="n">
+        <v>92</v>
+      </c>
+      <c r="H89" t="n">
+        <v>39.20807719493212</v>
+      </c>
+      <c r="I89" t="n">
+        <v>38</v>
+      </c>
+      <c r="J89" t="n">
+        <v>54</v>
+      </c>
+      <c r="K89" t="n">
+        <v>121.3953343539769</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.538039887519113</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.818170292150362</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.4395182710029182</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9711908753611825</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1174</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.130340250928385</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.54580055149002</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.584539699438365</v>
+      </c>
+      <c r="G90" t="n">
+        <v>124</v>
+      </c>
+      <c r="H90" t="n">
+        <v>43.54821211096828</v>
+      </c>
+      <c r="I90" t="n">
+        <v>50</v>
+      </c>
+      <c r="J90" t="n">
+        <v>74</v>
+      </c>
+      <c r="K90" t="n">
+        <v>130.3895960488938</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5.200870375942068</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8168595612905656</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.276461273323562</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9321903364131334</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1175</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.501253692462081</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.849608391067334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.6516453013947461</v>
+      </c>
+      <c r="G91" t="n">
+        <v>100</v>
+      </c>
+      <c r="H91" t="n">
+        <v>43.69663455581826</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32</v>
+      </c>
+      <c r="J91" t="n">
+        <v>68</v>
+      </c>
+      <c r="K91" t="n">
+        <v>176.5320653657151</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5.6692225740726</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.8872271836317447</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.251415879071597</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9760013823826847</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n53</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1176</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.230873046526296</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.681339409605052</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.5495336369212447</v>
+      </c>
+      <c r="G92" t="n">
+        <v>73</v>
+      </c>
+      <c r="H92" t="n">
+        <v>35.62223865585815</v>
+      </c>
+      <c r="I92" t="n">
+        <v>30</v>
+      </c>
+      <c r="J92" t="n">
+        <v>43</v>
+      </c>
+      <c r="K92" t="n">
+        <v>127.0621732857495</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4.867020836737036</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.6932694748028601</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0957183488885205</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9822790653512907</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n54</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1177</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1726</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.688988341583759</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.139454704662514</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5495336369212447</v>
+      </c>
+      <c r="G93" t="n">
+        <v>101</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30.78131626928689</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>72</v>
+      </c>
+      <c r="K93" t="n">
+        <v>165.6189858224087</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5.86647559734944</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.8568210872846465</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.2004546349974344</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.8776360374156078</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n54</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1178</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1606</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.643813330139032</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.140025917429547</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.5037874127094844</v>
+      </c>
+      <c r="G94" t="n">
+        <v>154</v>
+      </c>
+      <c r="H94" t="n">
+        <v>33.88316694575224</v>
+      </c>
+      <c r="I94" t="n">
+        <v>33</v>
+      </c>
+      <c r="J94" t="n">
+        <v>121</v>
+      </c>
+      <c r="K94" t="n">
+        <v>155.7830334338561</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5.10666663881506</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.8038421485351487</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.3828540423252952</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.4942199188143552</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n55</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>1179</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.557014363033384</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.0532269503239</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.5037874127094844</v>
+      </c>
+      <c r="G95" t="n">
+        <v>221</v>
+      </c>
+      <c r="H95" t="n">
+        <v>90.97495052038926</v>
+      </c>
+      <c r="I95" t="n">
+        <v>78</v>
+      </c>
+      <c r="J95" t="n">
+        <v>143</v>
+      </c>
+      <c r="K95" t="n">
+        <v>477.6831583161558</v>
+      </c>
+      <c r="L95" t="n">
+        <v>14.15681013995391</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.7811045408607518</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.4038150759754409</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.894669360455508</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n55</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1180</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>461</v>
+      </c>
+      <c r="B96" t="n">
+        <v>483</v>
+      </c>
+      <c r="C96" t="n">
+        <v>574</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.643605246300013</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.993883844988686</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.6497214013113266</v>
+      </c>
+      <c r="G96" t="n">
+        <v>113</v>
+      </c>
+      <c r="H96" t="n">
+        <v>26.03953242664272</v>
+      </c>
+      <c r="I96" t="n">
+        <v>22</v>
+      </c>
+      <c r="J96" t="n">
+        <v>91</v>
+      </c>
+      <c r="K96" t="n">
+        <v>80.7099539061485</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.341450658193995</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(553), 'value': np.float64(0.19348622774314203), 'amplitude': np.float64(0.8432076290544687), 'start_idx': np.int64(530), 'end_idx': np.int64(573), 'duration': np.float64(43.0), 'fwhm': np.float64(22.589371874442804), 'rise_time': np.float64(23.0), 'decay_time': np.float64(20.0), 'auc': np.float64(25.144324612405942)}]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.741421020972297</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.2417582417582418</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.5320411417033133</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2616460280610549</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n56</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1181</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>617</v>
+      </c>
+      <c r="B97" t="n">
+        <v>645</v>
+      </c>
+      <c r="C97" t="n">
+        <v>680</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.373962676041188</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.724241274729861</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.6497214013113266</v>
+      </c>
+      <c r="G97" t="n">
+        <v>63</v>
+      </c>
+      <c r="H97" t="n">
+        <v>28.1860794023961</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>35</v>
+      </c>
+      <c r="K97" t="n">
+        <v>151.0595472731739</v>
+      </c>
+      <c r="L97" t="n">
+        <v>10.9648318519498</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.6700358871430036</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.08127232116514255</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.994830645447513</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n56</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1182</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>680</v>
+      </c>
+      <c r="B98" t="n">
+        <v>711</v>
+      </c>
+      <c r="C98" t="n">
+        <v>807</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.734302186135384</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.084580784824057</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.6497214013113266</v>
+      </c>
+      <c r="G98" t="n">
+        <v>127</v>
+      </c>
+      <c r="H98" t="n">
+        <v>134.1468379645174</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
+        <v>96</v>
+      </c>
+      <c r="K98" t="n">
+        <v>258.9777308813708</v>
+      </c>
+      <c r="L98" t="n">
+        <v>12.13587685664226</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.9001064040169624</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.3263811841265123</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.9829995162414118</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n56</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>1183</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>863</v>
+      </c>
+      <c r="B99" t="n">
+        <v>911</v>
+      </c>
+      <c r="C99" t="n">
+        <v>990</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.862593135365342</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.348582644404407</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.514010490960935</v>
+      </c>
+      <c r="G99" t="n">
+        <v>127</v>
+      </c>
+      <c r="H99" t="n">
+        <v>69.21428127348383</v>
+      </c>
+      <c r="I99" t="n">
+        <v>48</v>
+      </c>
+      <c r="J99" t="n">
+        <v>79</v>
+      </c>
+      <c r="K99" t="n">
+        <v>108.1001224705752</v>
+      </c>
+      <c r="L99" t="n">
+        <v>11.89818817748905</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.7178178403587309</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.6075949367088608</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.5543209250887001</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.9676981536966265</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n58</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>1184</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.490767449572385</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.97675695861145</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.514010490960935</v>
+      </c>
+      <c r="G100" t="n">
+        <v>210</v>
+      </c>
+      <c r="H100" t="n">
+        <v>17.40065396256045</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>193</v>
+      </c>
+      <c r="K100" t="n">
+        <v>314.704717265983</v>
+      </c>
+      <c r="L100" t="n">
+        <v>22.29891607042729</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.7672542790355055</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.08808290155440414</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.5745209246574293</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.9334694873853362</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n58</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>1185</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1654</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1676</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9883016907578799</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5361137285622077</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.4521879621956722</v>
+      </c>
+      <c r="G101" t="n">
+        <v>57</v>
+      </c>
+      <c r="H101" t="n">
+        <v>21.86528984629695</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="n">
+        <v>45.94159263142621</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.313277551985387</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.7413084610431429</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.1071792658088379</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9312587354165881</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n59</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>1186</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>16</v>
+      </c>
+      <c r="C102" t="n">
+        <v>76</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5737423745572952</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.08063468793543394</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.6543770624927291</v>
+      </c>
+      <c r="G102" t="n">
+        <v>76</v>
+      </c>
+      <c r="H102" t="n">
+        <v>28.09648960374211</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16</v>
+      </c>
+      <c r="J102" t="n">
+        <v>60</v>
+      </c>
+      <c r="K102" t="n">
+        <v>31.87745857501064</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.935482886799099</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.9213555224426726</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.1998490890763765</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.7894966184266504</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
           <t>n60</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>613</v>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
+      <c r="U102" t="n">
+        <v>1187</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>319</v>
+      </c>
+      <c r="B103" t="n">
+        <v>348</v>
+      </c>
+      <c r="C103" t="n">
+        <v>460</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.385657600723093</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.731280538230364</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.6543770624927291</v>
+      </c>
+      <c r="G103" t="n">
+        <v>141</v>
+      </c>
+      <c r="H103" t="n">
+        <v>277.2394497793631</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29</v>
+      </c>
+      <c r="J103" t="n">
+        <v>112</v>
+      </c>
+      <c r="K103" t="n">
+        <v>266.5058244881387</v>
+      </c>
+      <c r="L103" t="n">
+        <v>29.12431762047138</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.9005071887343576</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.2589285714285715</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.4682373684806513</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.9835199397673757</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>n60</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>1188</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>460</v>
+      </c>
+      <c r="B104" t="n">
+        <v>491</v>
+      </c>
+      <c r="C104" t="n">
+        <v>567</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.174831365140675</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.520454302647946</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.6543770624927291</v>
+      </c>
+      <c r="G104" t="n">
+        <v>107</v>
+      </c>
+      <c r="H104" t="n">
+        <v>53.77380901897044</v>
+      </c>
+      <c r="I104" t="n">
+        <v>31</v>
+      </c>
+      <c r="J104" t="n">
+        <v>76</v>
+      </c>
+      <c r="K104" t="n">
+        <v>86.76919726774712</v>
+      </c>
+      <c r="L104" t="n">
+        <v>10.10620856094287</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.7885044761061181</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.1289215299861892</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.857638452601306</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n60</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>1189</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace/processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1087</v>
+        <v>1145</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1088</v>
+        <v>1146</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1089</v>
+        <v>1147</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1090</v>
+        <v>1148</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1091</v>
+        <v>1149</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1092</v>
+        <v>1150</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1093</v>
+        <v>1151</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1094</v>
+        <v>1152</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1095</v>
+        <v>1153</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1096</v>
+        <v>1154</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1097</v>
+        <v>1155</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1098</v>
+        <v>1156</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1099</v>
+        <v>1157</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1100</v>
+        <v>1158</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1101</v>
+        <v>1159</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1102</v>
+        <v>1160</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1103</v>
+        <v>1161</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1104</v>
+        <v>1162</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1105</v>
+        <v>1163</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1106</v>
+        <v>1164</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1107</v>
+        <v>1165</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1108</v>
+        <v>1166</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1109</v>
+        <v>1167</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1110</v>
+        <v>1168</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1111</v>
+        <v>1169</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1112</v>
+        <v>1170</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1113</v>
+        <v>1171</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1114</v>
+        <v>1172</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1115</v>
+        <v>1173</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1116</v>
+        <v>1174</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1117</v>
+        <v>1175</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1118</v>
+        <v>1176</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1119</v>
+        <v>1177</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1120</v>
+        <v>1178</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1121</v>
+        <v>1179</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1122</v>
+        <v>1180</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1123</v>
+        <v>1181</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1124</v>
+        <v>1182</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1125</v>
+        <v>1183</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1126</v>
+        <v>1184</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1127</v>
+        <v>1185</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1128</v>
+        <v>1186</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1129</v>
+        <v>1187</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1130</v>
+        <v>1188</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1131</v>
+        <v>1189</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1132</v>
+        <v>1190</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1133</v>
+        <v>1191</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1134</v>
+        <v>1192</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1135</v>
+        <v>1193</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1136</v>
+        <v>1194</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1137</v>
+        <v>1195</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1138</v>
+        <v>1196</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1139</v>
+        <v>1197</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>867</v>
+        <v>189</v>
       </c>
       <c r="B56" t="n">
-        <v>884</v>
+        <v>212</v>
       </c>
       <c r="C56" t="n">
-        <v>906</v>
+        <v>256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8581912684757287</v>
+        <v>2.927239744758753</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1798537442384386</v>
+        <v>2.178273014816421</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6783375242372901</v>
+        <v>-0.7489667299423317</v>
       </c>
       <c r="G56" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H56" t="n">
-        <v>19.21526868437127</v>
+        <v>76.78890443052239</v>
       </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J56" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K56" t="n">
-        <v>18.60407263140627</v>
+        <v>167.9770029900481</v>
       </c>
       <c r="L56" t="n">
-        <v>4.433711799758686</v>
+        <v>20.22348163259226</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7709811410345616</v>
+        <v>0.7552303561191367</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2023109467634563</v>
+        <v>0.1610561679241465</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9763753341386558</v>
+        <v>0.9622410055920231</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1141</v>
+        <v>1199</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1493</v>
+        <v>867</v>
       </c>
       <c r="B57" t="n">
-        <v>1517</v>
+        <v>884</v>
       </c>
       <c r="C57" t="n">
-        <v>1588</v>
+        <v>906</v>
       </c>
       <c r="D57" t="n">
-        <v>1.442636942231095</v>
+        <v>0.8581912684757287</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7642994179938044</v>
+        <v>0.1798537442384386</v>
       </c>
       <c r="F57" t="n">
         <v>-0.6783375242372901</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="H57" t="n">
-        <v>41.57404220571902</v>
+        <v>19.21526868437127</v>
       </c>
       <c r="I57" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J57" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K57" t="n">
-        <v>76.22111497075102</v>
+        <v>18.60407263140627</v>
       </c>
       <c r="L57" t="n">
-        <v>7.453159532720988</v>
+        <v>4.433711799758686</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8722459868748887</v>
+        <v>0.7709811410345616</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2551452146179253</v>
+        <v>0.2023109467634563</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6448479968428097</v>
+        <v>0.9763753341386558</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1142</v>
+        <v>1200</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C58" t="n">
         <v>1588</v>
       </c>
-      <c r="B58" t="n">
-        <v>1655</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1827</v>
-      </c>
       <c r="D58" t="n">
-        <v>1.605352301181379</v>
+        <v>1.442636942231095</v>
       </c>
       <c r="E58" t="n">
-        <v>0.927014776944089</v>
+        <v>0.7642994179938044</v>
       </c>
       <c r="F58" t="n">
         <v>-0.6783375242372901</v>
       </c>
       <c r="G58" t="n">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="H58" t="n">
-        <v>71.0383160527233</v>
+        <v>41.57404220571902</v>
       </c>
       <c r="I58" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J58" t="n">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="K58" t="n">
-        <v>333.461670772017</v>
+        <v>76.22111497075102</v>
       </c>
       <c r="L58" t="n">
-        <v>8.293803143860513</v>
+        <v>7.453159532720988</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7103804193690904</v>
+        <v>0.8722459868748887</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.3895348837209303</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="R58" t="n">
-        <v>0.8944209818567586</v>
+        <v>0.2551452146179253</v>
       </c>
       <c r="S58" t="n">
-        <v>0.4445607936049305</v>
+        <v>0.6448479968428097</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1143</v>
+        <v>1201</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>1588</v>
       </c>
       <c r="B59" t="n">
-        <v>85</v>
+        <v>1655</v>
       </c>
       <c r="C59" t="n">
-        <v>150</v>
+        <v>1827</v>
       </c>
       <c r="D59" t="n">
-        <v>3.161776362380907</v>
+        <v>1.605352301181379</v>
       </c>
       <c r="E59" t="n">
-        <v>2.462238574496461</v>
+        <v>0.927014776944089</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6995377878844458</v>
+        <v>-0.6783375242372901</v>
       </c>
       <c r="G59" t="n">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="H59" t="n">
-        <v>103.8345018916654</v>
+        <v>71.0383160527233</v>
       </c>
       <c r="I59" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J59" t="n">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="K59" t="n">
-        <v>203.7270981873546</v>
+        <v>333.461670772017</v>
       </c>
       <c r="L59" t="n">
-        <v>19.71687496115405</v>
+        <v>8.293803143860513</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8423306699442317</v>
+        <v>0.7103804193690904</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2282471555451339</v>
+        <v>0.8944209818567586</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9253259893849767</v>
+        <v>0.4445607936049305</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1144</v>
+        <v>1202</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="C60" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="D60" t="n">
-        <v>2.628172825611173</v>
+        <v>3.161776362380907</v>
       </c>
       <c r="E60" t="n">
-        <v>1.928635037726728</v>
+        <v>2.462238574496461</v>
       </c>
       <c r="F60" t="n">
         <v>-0.6995377878844458</v>
       </c>
       <c r="G60" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H60" t="n">
-        <v>22.36970613121736</v>
+        <v>103.8345018916654</v>
       </c>
       <c r="I60" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J60" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K60" t="n">
-        <v>155.5998071915535</v>
+        <v>203.7270981873546</v>
       </c>
       <c r="L60" t="n">
-        <v>16.38931696606682</v>
+        <v>19.71687496115405</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,16 +5594,16 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8762046146144311</v>
+        <v>0.8423306699442317</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2654696148181999</v>
+        <v>0.2282471555451339</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9801810815161313</v>
+        <v>0.9253259893849767</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1145</v>
+        <v>1203</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>208</v>
+      </c>
+      <c r="B61" t="n">
+        <v>232</v>
+      </c>
+      <c r="C61" t="n">
         <v>290</v>
       </c>
-      <c r="B61" t="n">
-        <v>322</v>
-      </c>
-      <c r="C61" t="n">
-        <v>421</v>
-      </c>
       <c r="D61" t="n">
-        <v>2.622215028169637</v>
+        <v>2.628172825611173</v>
       </c>
       <c r="E61" t="n">
-        <v>1.922677240285191</v>
+        <v>1.928635037726728</v>
       </c>
       <c r="F61" t="n">
         <v>-0.6995377878844458</v>
       </c>
       <c r="G61" t="n">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H61" t="n">
-        <v>36.94381732706307</v>
+        <v>22.36970613121736</v>
       </c>
       <c r="I61" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J61" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K61" t="n">
-        <v>178.8765670464038</v>
+        <v>155.5998071915535</v>
       </c>
       <c r="L61" t="n">
-        <v>16.35216407043627</v>
+        <v>16.38931696606682</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,16 +5680,16 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.9166560960648591</v>
+        <v>0.8762046146144311</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3127390498849945</v>
+        <v>0.2654696148181999</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9492686839937862</v>
+        <v>0.9801810815161313</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1146</v>
+        <v>1204</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>290</v>
+      </c>
+      <c r="B62" t="n">
+        <v>322</v>
+      </c>
+      <c r="C62" t="n">
         <v>421</v>
       </c>
-      <c r="B62" t="n">
-        <v>458</v>
-      </c>
-      <c r="C62" t="n">
-        <v>578</v>
-      </c>
       <c r="D62" t="n">
-        <v>3.015978511032693</v>
+        <v>2.622215028169637</v>
       </c>
       <c r="E62" t="n">
-        <v>2.316440723148248</v>
+        <v>1.922677240285191</v>
       </c>
       <c r="F62" t="n">
         <v>-0.6995377878844458</v>
       </c>
       <c r="G62" t="n">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="H62" t="n">
-        <v>86.92745793862451</v>
+        <v>36.94381732706307</v>
       </c>
       <c r="I62" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J62" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="K62" t="n">
-        <v>286.4617386837059</v>
+        <v>178.8765670464038</v>
       </c>
       <c r="L62" t="n">
-        <v>18.80767782790932</v>
+        <v>16.35216407043627</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,16 +5766,16 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.8417247895058177</v>
+        <v>0.9166560960648591</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1302911661280071</v>
+        <v>0.3127390498849945</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9149809318744577</v>
+        <v>0.9492686839937862</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1147</v>
+        <v>1205</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="B63" t="n">
-        <v>340</v>
+        <v>458</v>
       </c>
       <c r="C63" t="n">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="D63" t="n">
-        <v>2.511785423080926</v>
+        <v>3.015978511032693</v>
       </c>
       <c r="E63" t="n">
-        <v>1.766092636451216</v>
+        <v>2.316440723148248</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7456927866297106</v>
+        <v>-0.6995377878844458</v>
       </c>
       <c r="G63" t="n">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="H63" t="n">
-        <v>23.00980449606345</v>
+        <v>86.92745793862451</v>
       </c>
       <c r="I63" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J63" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K63" t="n">
-        <v>83.28673923133547</v>
+        <v>286.4617386837059</v>
       </c>
       <c r="L63" t="n">
-        <v>7.251003920694739</v>
+        <v>18.80767782790932</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.6556934381612405</v>
+        <v>0.8417247895058177</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.68</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="R63" t="n">
-        <v>0.06055965974988279</v>
+        <v>0.1302911661280071</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9844352365603009</v>
+        <v>0.9149809318744577</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1148</v>
+        <v>1206</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>323</v>
+      </c>
+      <c r="B64" t="n">
+        <v>340</v>
+      </c>
+      <c r="C64" t="n">
         <v>365</v>
       </c>
-      <c r="B64" t="n">
-        <v>385</v>
-      </c>
-      <c r="C64" t="n">
-        <v>438</v>
-      </c>
       <c r="D64" t="n">
-        <v>2.254109134212815</v>
+        <v>2.511785423080926</v>
       </c>
       <c r="E64" t="n">
-        <v>1.508416347583104</v>
+        <v>1.766092636451216</v>
       </c>
       <c r="F64" t="n">
         <v>-0.7456927866297106</v>
       </c>
       <c r="G64" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H64" t="n">
-        <v>33.19897107136171</v>
+        <v>23.00980449606345</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J64" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K64" t="n">
-        <v>120.442446418139</v>
+        <v>83.28673923133547</v>
       </c>
       <c r="L64" t="n">
-        <v>6.507145881037445</v>
+        <v>7.251003920694739</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,16 +5938,16 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.810790660686362</v>
+        <v>0.6556934381612405</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.68</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1061512635159044</v>
+        <v>0.06055965974988279</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9429821298490684</v>
+        <v>0.9844352365603009</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1149</v>
+        <v>1207</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="B65" t="n">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="C65" t="n">
-        <v>142</v>
+        <v>438</v>
       </c>
       <c r="D65" t="n">
-        <v>3.854882541802313</v>
+        <v>2.254109134212815</v>
       </c>
       <c r="E65" t="n">
-        <v>3.315656919799286</v>
+        <v>1.508416347583104</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5392256220030265</v>
+        <v>-0.7456927866297106</v>
       </c>
       <c r="G65" t="n">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="H65" t="n">
-        <v>73.13838499052561</v>
+        <v>33.19897107136171</v>
       </c>
       <c r="I65" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K65" t="n">
-        <v>283.3532114983804</v>
+        <v>120.442446418139</v>
       </c>
       <c r="L65" t="n">
-        <v>15.29601295503003</v>
+        <v>6.507145881037445</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7207748193253717</v>
+        <v>0.810790660686362</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1387705407434528</v>
+        <v>0.1061512635159044</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8519706575703025</v>
+        <v>0.9429821298490684</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1150</v>
+        <v>1208</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1056</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1084</v>
+        <v>46</v>
       </c>
       <c r="C66" t="n">
-        <v>1165</v>
+        <v>142</v>
       </c>
       <c r="D66" t="n">
-        <v>3.220074966706611</v>
+        <v>3.854882541802313</v>
       </c>
       <c r="E66" t="n">
-        <v>2.680849344703585</v>
+        <v>3.315656919799286</v>
       </c>
       <c r="F66" t="n">
         <v>-0.5392256220030265</v>
       </c>
       <c r="G66" t="n">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="H66" t="n">
-        <v>49.79787928635642</v>
+        <v>73.13838499052561</v>
       </c>
       <c r="I66" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J66" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K66" t="n">
-        <v>170.4728132427513</v>
+        <v>283.3532114983804</v>
       </c>
       <c r="L66" t="n">
-        <v>12.77712300512374</v>
+        <v>15.29601295503003</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.9041838670085013</v>
+        <v>0.7207748193253717</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.345679012345679</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3232235633777437</v>
+        <v>0.1387705407434528</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8309437848342629</v>
+        <v>0.8519706575703025</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1151</v>
+        <v>1209</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>231</v>
+        <v>1056</v>
       </c>
       <c r="B67" t="n">
-        <v>266</v>
+        <v>1084</v>
       </c>
       <c r="C67" t="n">
-        <v>349</v>
+        <v>1165</v>
       </c>
       <c r="D67" t="n">
-        <v>3.005341113220715</v>
+        <v>3.220074966706611</v>
       </c>
       <c r="E67" t="n">
-        <v>2.271368256336781</v>
+        <v>2.680849344703585</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.7339728568839338</v>
+        <v>-0.5392256220030265</v>
       </c>
       <c r="G67" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H67" t="n">
-        <v>167.4728621201172</v>
+        <v>49.79787928635642</v>
       </c>
       <c r="I67" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J67" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K67" t="n">
-        <v>256.3838973482287</v>
+        <v>170.4728132427513</v>
       </c>
       <c r="L67" t="n">
-        <v>11.19385831968806</v>
+        <v>12.77712300512374</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.7883496594168661</v>
+        <v>0.9041838670085013</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4216867469879518</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3551848461792081</v>
+        <v>0.3232235633777437</v>
       </c>
       <c r="S67" t="n">
-        <v>0.7138682347628872</v>
+        <v>0.8309437848342629</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1152</v>
+        <v>1210</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1293</v>
+        <v>231</v>
       </c>
       <c r="B68" t="n">
-        <v>1321</v>
+        <v>266</v>
       </c>
       <c r="C68" t="n">
-        <v>1442</v>
+        <v>349</v>
       </c>
       <c r="D68" t="n">
-        <v>3.025716410363299</v>
+        <v>3.005341113220715</v>
       </c>
       <c r="E68" t="n">
-        <v>2.291743553479365</v>
+        <v>2.271368256336781</v>
       </c>
       <c r="F68" t="n">
         <v>-0.7339728568839338</v>
       </c>
       <c r="G68" t="n">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="H68" t="n">
-        <v>141.3439870973641</v>
+        <v>167.4728621201172</v>
       </c>
       <c r="I68" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J68" t="n">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K68" t="n">
-        <v>260.3145779538008</v>
+        <v>256.3838973482287</v>
       </c>
       <c r="L68" t="n">
-        <v>11.26974926878276</v>
+        <v>11.19385831968806</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8583526383650825</v>
+        <v>0.7883496594168661</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.231404958677686</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4591886471691982</v>
+        <v>0.3551848461792081</v>
       </c>
       <c r="S68" t="n">
-        <v>0.7921312951099071</v>
+        <v>0.7138682347628872</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1153</v>
+        <v>1211</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1599</v>
+        <v>1293</v>
       </c>
       <c r="B69" t="n">
-        <v>1625</v>
+        <v>1321</v>
       </c>
       <c r="C69" t="n">
-        <v>1673</v>
+        <v>1442</v>
       </c>
       <c r="D69" t="n">
-        <v>2.730905149093552</v>
+        <v>3.025716410363299</v>
       </c>
       <c r="E69" t="n">
-        <v>2.143579682790868</v>
+        <v>2.291743553479365</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5873254663026838</v>
+        <v>-0.7339728568839338</v>
       </c>
       <c r="G69" t="n">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="H69" t="n">
-        <v>31.33043163295497</v>
+        <v>141.3439870973641</v>
       </c>
       <c r="I69" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J69" t="n">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="K69" t="n">
-        <v>87.89041066828361</v>
+        <v>260.3145779538008</v>
       </c>
       <c r="L69" t="n">
-        <v>8.451019555201453</v>
+        <v>11.26974926878276</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8612108409284541</v>
+        <v>0.8583526383650825</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2288927914785877</v>
+        <v>0.4591886471691982</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9540391017744523</v>
+        <v>0.7921312951099071</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1154</v>
+        <v>1212</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>581</v>
+        <v>1599</v>
       </c>
       <c r="B70" t="n">
-        <v>608</v>
+        <v>1625</v>
       </c>
       <c r="C70" t="n">
-        <v>676</v>
+        <v>1673</v>
       </c>
       <c r="D70" t="n">
-        <v>3.424496143445197</v>
+        <v>2.730905149093552</v>
       </c>
       <c r="E70" t="n">
-        <v>2.839924156987161</v>
+        <v>2.143579682790868</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5845719864580358</v>
+        <v>-0.5873254663026838</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H70" t="n">
-        <v>29.22440959977041</v>
+        <v>31.33043163295497</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K70" t="n">
-        <v>241.5069898052384</v>
+        <v>87.89041066828361</v>
       </c>
       <c r="L70" t="n">
-        <v>21.87559279086325</v>
+        <v>8.451019555201453</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7717167757093254</v>
+        <v>0.8612108409284541</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3970588235294117</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="R70" t="n">
-        <v>0.101484147049315</v>
+        <v>0.2288927914785877</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8818539636054292</v>
+        <v>0.9540391017744523</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1155</v>
+        <v>1213</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>749</v>
+        <v>581</v>
       </c>
       <c r="B71" t="n">
-        <v>767</v>
+        <v>608</v>
       </c>
       <c r="C71" t="n">
-        <v>840</v>
+        <v>676</v>
       </c>
       <c r="D71" t="n">
-        <v>2.684365275445911</v>
+        <v>3.424496143445197</v>
       </c>
       <c r="E71" t="n">
-        <v>2.023849486887661</v>
+        <v>2.839924156987161</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6605157885582494</v>
+        <v>-0.5845719864580358</v>
       </c>
       <c r="G71" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H71" t="n">
-        <v>23.83918930248024</v>
+        <v>29.22440959977041</v>
       </c>
       <c r="I71" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K71" t="n">
-        <v>168.5362566393098</v>
+        <v>241.5069898052384</v>
       </c>
       <c r="L71" t="n">
-        <v>11.80042900361807</v>
+        <v>21.87559279086325</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.9129137579594584</v>
+        <v>0.7717167757093254</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2706149450348637</v>
+        <v>0.101484147049315</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9558482802514489</v>
+        <v>0.8818539636054292</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1156</v>
+        <v>1214</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1671</v>
+        <v>749</v>
       </c>
       <c r="B72" t="n">
-        <v>1691</v>
+        <v>767</v>
       </c>
       <c r="C72" t="n">
-        <v>1827</v>
+        <v>840</v>
       </c>
       <c r="D72" t="n">
-        <v>1.249234278585897</v>
+        <v>2.684365275445911</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5887184900276473</v>
+        <v>2.023849486887661</v>
       </c>
       <c r="F72" t="n">
         <v>-0.6605157885582494</v>
       </c>
       <c r="G72" t="n">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="H72" t="n">
-        <v>59.36624226678805</v>
+        <v>23.83918930248024</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J72" t="n">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="K72" t="n">
-        <v>120.0611328847621</v>
+        <v>168.5362566393098</v>
       </c>
       <c r="L72" t="n">
-        <v>5.491614925949352</v>
+        <v>11.80042900361807</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,16 +6626,16 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.9054677766214143</v>
+        <v>0.9129137579594584</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2350175893313328</v>
+        <v>0.2706149450348637</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8755965979765703</v>
+        <v>0.9558482802514489</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1157</v>
+        <v>1215</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1499</v>
+        <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1531</v>
+        <v>1691</v>
       </c>
       <c r="C73" t="n">
         <v>1827</v>
       </c>
       <c r="D73" t="n">
-        <v>2.06635527718623</v>
+        <v>1.249234278585897</v>
       </c>
       <c r="E73" t="n">
-        <v>1.466099924820668</v>
+        <v>0.5887184900276473</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6002553523655616</v>
+        <v>-0.6605157885582494</v>
       </c>
       <c r="G73" t="n">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="H73" t="n">
-        <v>35.57082068835643</v>
+        <v>59.36624226678805</v>
       </c>
       <c r="I73" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="K73" t="n">
-        <v>240.7278540681673</v>
+        <v>120.0611328847621</v>
       </c>
       <c r="L73" t="n">
-        <v>20.07304067692385</v>
+        <v>5.491614925949352</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.7616348893052157</v>
+        <v>0.9054677766214143</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R73" t="n">
-        <v>0.6079428689994498</v>
+        <v>0.2350175893313328</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8561237898877694</v>
+        <v>0.8755965979765703</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1028</v>
+        <v>1499</v>
       </c>
       <c r="B74" t="n">
-        <v>1058</v>
+        <v>1531</v>
       </c>
       <c r="C74" t="n">
-        <v>1200</v>
+        <v>1827</v>
       </c>
       <c r="D74" t="n">
-        <v>2.121726250576497</v>
+        <v>2.06635527718623</v>
       </c>
       <c r="E74" t="n">
-        <v>1.377803208985343</v>
+        <v>1.466099924820668</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7439230415911534</v>
+        <v>-0.6002553523655616</v>
       </c>
       <c r="G74" t="n">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="H74" t="n">
-        <v>28.2900028610361</v>
+        <v>35.57082068835643</v>
       </c>
       <c r="I74" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J74" t="n">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="K74" t="n">
-        <v>172.7265233752783</v>
+        <v>240.7278540681673</v>
       </c>
       <c r="L74" t="n">
-        <v>10.91454070114419</v>
+        <v>20.07304067692385</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.7658954017549572</v>
+        <v>0.7616348893052157</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="R74" t="n">
-        <v>0.402727599025658</v>
+        <v>0.6079428689994498</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7925980668799767</v>
+        <v>0.8561237898877694</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1159</v>
+        <v>1217</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C75" t="n">
         <v>1200</v>
       </c>
-      <c r="B75" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1297</v>
-      </c>
       <c r="D75" t="n">
-        <v>3.617019016161787</v>
+        <v>2.121726250576497</v>
       </c>
       <c r="E75" t="n">
-        <v>2.873095974570633</v>
+        <v>1.377803208985343</v>
       </c>
       <c r="F75" t="n">
         <v>-0.7439230415911534</v>
       </c>
       <c r="G75" t="n">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="H75" t="n">
-        <v>41.96648574422738</v>
+        <v>28.2900028610361</v>
       </c>
       <c r="I75" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J75" t="n">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="K75" t="n">
-        <v>182.9697784756571</v>
+        <v>172.7265233752783</v>
       </c>
       <c r="L75" t="n">
-        <v>18.6065951052751</v>
+        <v>10.91454070114419</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8535775443007226</v>
+        <v>0.7658954017549572</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.515625</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="R75" t="n">
-        <v>0.196656924694562</v>
+        <v>0.402727599025658</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9885756738022055</v>
+        <v>0.7925980668799767</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1160</v>
+        <v>1218</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1423</v>
+        <v>1200</v>
       </c>
       <c r="B76" t="n">
-        <v>1451</v>
+        <v>1233</v>
       </c>
       <c r="C76" t="n">
-        <v>1577</v>
+        <v>1297</v>
       </c>
       <c r="D76" t="n">
-        <v>2.509759970263492</v>
+        <v>3.617019016161787</v>
       </c>
       <c r="E76" t="n">
-        <v>1.765836928672338</v>
+        <v>2.873095974570633</v>
       </c>
       <c r="F76" t="n">
         <v>-0.7439230415911534</v>
       </c>
       <c r="G76" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="H76" t="n">
-        <v>23.90377544846137</v>
+        <v>41.96648574422738</v>
       </c>
       <c r="I76" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J76" t="n">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="K76" t="n">
-        <v>224.9414773778506</v>
+        <v>182.9697784756571</v>
       </c>
       <c r="L76" t="n">
-        <v>12.91065581061664</v>
+        <v>18.6065951052751</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8166642122715431</v>
+        <v>0.8535775443007226</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.515625</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4056573103451422</v>
+        <v>0.196656924694562</v>
       </c>
       <c r="S76" t="n">
-        <v>0.8099326586347383</v>
+        <v>0.9885756738022055</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1161</v>
+        <v>1219</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1732</v>
+        <v>1423</v>
       </c>
       <c r="B77" t="n">
-        <v>1764</v>
+        <v>1451</v>
       </c>
       <c r="C77" t="n">
-        <v>1827</v>
+        <v>1577</v>
       </c>
       <c r="D77" t="n">
-        <v>2.137171750584672</v>
+        <v>2.509759970263492</v>
       </c>
       <c r="E77" t="n">
-        <v>1.393248708993518</v>
+        <v>1.765836928672338</v>
       </c>
       <c r="F77" t="n">
         <v>-0.7439230415911534</v>
       </c>
       <c r="G77" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H77" t="n">
-        <v>43.45436264746627</v>
+        <v>23.90377544846137</v>
       </c>
       <c r="I77" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J77" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="K77" t="n">
-        <v>130.9507272087682</v>
+        <v>224.9414773778506</v>
       </c>
       <c r="L77" t="n">
-        <v>10.99399512578683</v>
+        <v>12.91065581061664</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,16 +7056,16 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.7696588822246245</v>
+        <v>0.8166642122715431</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1224850975447976</v>
+        <v>0.4056573103451422</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9323416809589606</v>
+        <v>0.8099326586347383</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1162</v>
+        <v>1220</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>435</v>
+        <v>1732</v>
       </c>
       <c r="B78" t="n">
-        <v>452</v>
+        <v>1764</v>
       </c>
       <c r="C78" t="n">
-        <v>500</v>
+        <v>1827</v>
       </c>
       <c r="D78" t="n">
-        <v>1.450029442484205</v>
+        <v>2.137171750584672</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8230439978764744</v>
+        <v>1.393248708993518</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6269854446077301</v>
+        <v>-0.7439230415911534</v>
       </c>
       <c r="G78" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H78" t="n">
-        <v>24.43565477799723</v>
+        <v>43.45436264746627</v>
       </c>
       <c r="I78" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J78" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K78" t="n">
-        <v>58.31922189734295</v>
+        <v>130.9507272087682</v>
       </c>
       <c r="L78" t="n">
-        <v>8.10536103486662</v>
+        <v>10.99399512578683</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.9214441265574829</v>
+        <v>0.7696588822246245</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3236456855426219</v>
+        <v>0.1224850975447976</v>
       </c>
       <c r="S78" t="n">
-        <v>0.8358589326400343</v>
+        <v>0.9323416809589606</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1163</v>
+        <v>1221</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1073</v>
+        <v>435</v>
       </c>
       <c r="B79" t="n">
-        <v>1086</v>
+        <v>452</v>
       </c>
       <c r="C79" t="n">
-        <v>1103</v>
+        <v>500</v>
       </c>
       <c r="D79" t="n">
-        <v>1.259811399263143</v>
+        <v>1.450029442484205</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6328259546554126</v>
+        <v>0.8230439978764744</v>
       </c>
       <c r="F79" t="n">
         <v>-0.6269854446077301</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H79" t="n">
-        <v>9.016034024404007</v>
+        <v>24.43565477799723</v>
       </c>
       <c r="I79" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J79" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K79" t="n">
-        <v>30.93009914552202</v>
+        <v>58.31922189734295</v>
       </c>
       <c r="L79" t="n">
-        <v>7.042081993434766</v>
+        <v>8.10536103486662</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.652084261828784</v>
+        <v>0.9214441265574829</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1156517567964979</v>
+        <v>0.3236456855426219</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8198994418302878</v>
+        <v>0.8358589326400343</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1164</v>
+        <v>1222</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1086</v>
+      </c>
+      <c r="C80" t="n">
         <v>1103</v>
       </c>
-      <c r="B80" t="n">
-        <v>1121</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1148</v>
-      </c>
       <c r="D80" t="n">
-        <v>1.653384937890002</v>
+        <v>1.259811399263143</v>
       </c>
       <c r="E80" t="n">
-        <v>1.026399493282272</v>
+        <v>0.6328259546554126</v>
       </c>
       <c r="F80" t="n">
         <v>-0.6269854446077301</v>
       </c>
       <c r="G80" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H80" t="n">
-        <v>22.87149988488613</v>
+        <v>9.016034024404007</v>
       </c>
       <c r="I80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J80" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K80" t="n">
-        <v>55.64470949342169</v>
+        <v>30.93009914552202</v>
       </c>
       <c r="L80" t="n">
-        <v>9.242075683821827</v>
+        <v>7.042081993434766</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,16 +7314,16 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.6732845653176218</v>
+        <v>0.652084261828784</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="R80" t="n">
-        <v>0.06736917131573017</v>
+        <v>0.1156517567964979</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9912405587694173</v>
+        <v>0.8198994418302878</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1165</v>
+        <v>1223</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>841</v>
+        <v>1103</v>
       </c>
       <c r="B81" t="n">
-        <v>864</v>
+        <v>1121</v>
       </c>
       <c r="C81" t="n">
-        <v>975</v>
+        <v>1148</v>
       </c>
       <c r="D81" t="n">
-        <v>2.307849122897719</v>
+        <v>1.653384937890002</v>
       </c>
       <c r="E81" t="n">
-        <v>1.720625973928382</v>
+        <v>1.026399493282272</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5872231489693367</v>
+        <v>-0.6269854446077301</v>
       </c>
       <c r="G81" t="n">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="H81" t="n">
-        <v>26.48664855452307</v>
+        <v>22.87149988488613</v>
       </c>
       <c r="I81" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J81" t="n">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="K81" t="n">
-        <v>153.6720549776526</v>
+        <v>55.64470949342169</v>
       </c>
       <c r="L81" t="n">
-        <v>8.308259655091137</v>
+        <v>9.242075683821827</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.8211150323871278</v>
+        <v>0.6732845653176218</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.2072072072072072</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R81" t="n">
-        <v>0.3512977065194965</v>
+        <v>0.06736917131573017</v>
       </c>
       <c r="S81" t="n">
-        <v>0.7774383874011402</v>
+        <v>0.9912405587694173</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n49</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1166</v>
+        <v>1224</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1412</v>
+        <v>880</v>
       </c>
       <c r="B82" t="n">
-        <v>1443</v>
+        <v>895</v>
       </c>
       <c r="C82" t="n">
-        <v>1483</v>
+        <v>975</v>
       </c>
       <c r="D82" t="n">
-        <v>3.06901331338173</v>
+        <v>1.710328110491275</v>
       </c>
       <c r="E82" t="n">
-        <v>2.481790164412393</v>
+        <v>1.123104961521938</v>
       </c>
       <c r="F82" t="n">
         <v>-0.5872231489693367</v>
       </c>
       <c r="G82" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H82" t="n">
-        <v>40.86238333830102</v>
+        <v>15.5658421585</v>
       </c>
       <c r="I82" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J82" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K82" t="n">
-        <v>122.2523027153654</v>
+        <v>91.30418272415834</v>
       </c>
       <c r="L82" t="n">
-        <v>11.04845166849195</v>
+        <v>6.15718328220743</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.6851564458997709</v>
+        <v>0.7653830025067826</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.775</v>
+        <v>0.1875</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1222586701805437</v>
+        <v>0.397597059623153</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9795841970117054</v>
+        <v>0.6369011703548706</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1167</v>
+        <v>1225</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C83" t="n">
         <v>1483</v>
       </c>
-      <c r="B83" t="n">
-        <v>1517</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1674</v>
-      </c>
       <c r="D83" t="n">
-        <v>2.810498069891074</v>
+        <v>3.06901331338173</v>
       </c>
       <c r="E83" t="n">
-        <v>2.223274920921737</v>
+        <v>2.481790164412393</v>
       </c>
       <c r="F83" t="n">
         <v>-0.5872231489693367</v>
       </c>
       <c r="G83" t="n">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="H83" t="n">
-        <v>48.62340669188734</v>
+        <v>40.86238333830102</v>
       </c>
       <c r="I83" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J83" t="n">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="K83" t="n">
-        <v>216.2823436969513</v>
+        <v>122.2523027153654</v>
       </c>
       <c r="L83" t="n">
-        <v>10.1177964768637</v>
+        <v>11.04845166849195</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,16 +7572,16 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7833939294780884</v>
+        <v>0.6851564458997709</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2165605095541401</v>
+        <v>0.775</v>
       </c>
       <c r="R83" t="n">
-        <v>0.4399683432007258</v>
+        <v>0.1222586701805437</v>
       </c>
       <c r="S83" t="n">
-        <v>0.4538236485907178</v>
+        <v>0.9795841970117054</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1168</v>
+        <v>1226</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>846</v>
+        <v>1483</v>
       </c>
       <c r="B84" t="n">
-        <v>871</v>
+        <v>1517</v>
       </c>
       <c r="C84" t="n">
-        <v>943</v>
+        <v>1674</v>
       </c>
       <c r="D84" t="n">
-        <v>1.037126753584357</v>
+        <v>2.810498069891074</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4087674323400273</v>
+        <v>2.223274920921737</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6283593212443298</v>
+        <v>-0.5872231489693367</v>
       </c>
       <c r="G84" t="n">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="H84" t="n">
-        <v>29.64314501804802</v>
+        <v>48.62340669188734</v>
       </c>
       <c r="I84" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J84" t="n">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="K84" t="n">
-        <v>73.12141677682121</v>
+        <v>216.2823436969513</v>
       </c>
       <c r="L84" t="n">
-        <v>5.156405126162258</v>
+        <v>10.1177964768637</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.7891933312873699</v>
+        <v>0.7833939294780884</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1664003203683915</v>
+        <v>0.4399683432007258</v>
       </c>
       <c r="S84" t="n">
-        <v>0.5920675418073962</v>
+        <v>0.4538236485907178</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n49</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1169</v>
+        <v>1227</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>846</v>
+      </c>
+      <c r="B85" t="n">
+        <v>871</v>
+      </c>
+      <c r="C85" t="n">
         <v>943</v>
       </c>
-      <c r="B85" t="n">
-        <v>962</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1010</v>
-      </c>
       <c r="D85" t="n">
-        <v>0.6875327355256663</v>
+        <v>1.037126753584357</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05917341428133653</v>
+        <v>0.4087674323400273</v>
       </c>
       <c r="F85" t="n">
         <v>-0.6283593212443298</v>
       </c>
       <c r="G85" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H85" t="n">
-        <v>24.88721825472442</v>
+        <v>29.64314501804802</v>
       </c>
       <c r="I85" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J85" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K85" t="n">
-        <v>31.46652147220926</v>
+        <v>73.12141677682121</v>
       </c>
       <c r="L85" t="n">
-        <v>3.418287407606199</v>
+        <v>5.156405126162258</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.816623133668045</v>
+        <v>0.7891933312873699</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R85" t="n">
-        <v>0.126642801119814</v>
+        <v>0.1664003203683915</v>
       </c>
       <c r="S85" t="n">
-        <v>0.842036021322765</v>
+        <v>0.5920675418073962</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1170</v>
+        <v>1228</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>943</v>
+      </c>
+      <c r="B86" t="n">
+        <v>962</v>
+      </c>
+      <c r="C86" t="n">
         <v>1010</v>
       </c>
-      <c r="B86" t="n">
-        <v>1057</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1172</v>
-      </c>
       <c r="D86" t="n">
-        <v>1.648962277250011</v>
+        <v>0.6875327355256663</v>
       </c>
       <c r="E86" t="n">
-        <v>1.020602956005682</v>
+        <v>0.05917341428133653</v>
       </c>
       <c r="F86" t="n">
         <v>-0.6283593212443298</v>
       </c>
       <c r="G86" t="n">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="H86" t="n">
-        <v>52.65700577353186</v>
+        <v>24.88721825472442</v>
       </c>
       <c r="I86" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J86" t="n">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="K86" t="n">
-        <v>135.2415992527926</v>
+        <v>31.46652147220926</v>
       </c>
       <c r="L86" t="n">
-        <v>8.198339797786886</v>
+        <v>3.418287407606199</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,16 +7830,16 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.8191955193251136</v>
+        <v>0.816623133668045</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.4086956521739131</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="R86" t="n">
-        <v>0.3826295438661891</v>
+        <v>0.126642801119814</v>
       </c>
       <c r="S86" t="n">
-        <v>0.7237876043245668</v>
+        <v>0.842036021322765</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1171</v>
+        <v>1229</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1333</v>
+        <v>1010</v>
       </c>
       <c r="B87" t="n">
-        <v>1365</v>
+        <v>1057</v>
       </c>
       <c r="C87" t="n">
-        <v>1408</v>
+        <v>1172</v>
       </c>
       <c r="D87" t="n">
-        <v>4.19702158808366</v>
+        <v>1.648962277250011</v>
       </c>
       <c r="E87" t="n">
-        <v>3.568662266839331</v>
+        <v>1.020602956005682</v>
       </c>
       <c r="F87" t="n">
         <v>-0.6283593212443298</v>
       </c>
       <c r="G87" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H87" t="n">
-        <v>142.529852987175</v>
+        <v>52.65700577353186</v>
       </c>
       <c r="I87" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J87" t="n">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="K87" t="n">
-        <v>251.4933617688558</v>
+        <v>135.2415992527926</v>
       </c>
       <c r="L87" t="n">
-        <v>20.86682611996469</v>
+        <v>8.198339797786886</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,16 +7916,16 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.6774111464767247</v>
+        <v>0.8191955193251136</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1474395480239108</v>
+        <v>0.3826295438661891</v>
       </c>
       <c r="S87" t="n">
-        <v>0.9846739336921347</v>
+        <v>0.7237876043245668</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="U87" t="n">
-        <v>1172</v>
+        <v>1230</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1632</v>
+        <v>1333</v>
       </c>
       <c r="B88" t="n">
-        <v>1660</v>
+        <v>1365</v>
       </c>
       <c r="C88" t="n">
-        <v>1780</v>
+        <v>1408</v>
       </c>
       <c r="D88" t="n">
-        <v>1.801897168969806</v>
+        <v>4.19702158808366</v>
       </c>
       <c r="E88" t="n">
-        <v>1.173537847725477</v>
+        <v>3.568662266839331</v>
       </c>
       <c r="F88" t="n">
         <v>-0.6283593212443298</v>
       </c>
       <c r="G88" t="n">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="H88" t="n">
-        <v>33.82271041040576</v>
+        <v>142.529852987175</v>
       </c>
       <c r="I88" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J88" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="K88" t="n">
-        <v>125.9483577960727</v>
+        <v>251.4933617688558</v>
       </c>
       <c r="L88" t="n">
-        <v>8.958704195781252</v>
+        <v>20.86682611996469</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,16 +8002,16 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.8694245633081469</v>
+        <v>0.6774111464767247</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="R88" t="n">
-        <v>0.3622073691950705</v>
+        <v>0.1474395480239108</v>
       </c>
       <c r="S88" t="n">
-        <v>0.8676219048988352</v>
+        <v>0.9846739336921347</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>1173</v>
+        <v>1231</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>495</v>
+        <v>1632</v>
       </c>
       <c r="B89" t="n">
-        <v>533</v>
+        <v>1660</v>
       </c>
       <c r="C89" t="n">
-        <v>587</v>
+        <v>1780</v>
       </c>
       <c r="D89" t="n">
-        <v>1.858836758827956</v>
+        <v>1.801897168969806</v>
       </c>
       <c r="E89" t="n">
-        <v>1.274297059389591</v>
+        <v>1.173537847725477</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.584539699438365</v>
+        <v>-0.6283593212443298</v>
       </c>
       <c r="G89" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="H89" t="n">
-        <v>39.20807719493212</v>
+        <v>33.82271041040576</v>
       </c>
       <c r="I89" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J89" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="K89" t="n">
-        <v>121.3953343539769</v>
+        <v>125.9483577960727</v>
       </c>
       <c r="L89" t="n">
-        <v>4.538039887519113</v>
+        <v>8.958704195781252</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.818170292150362</v>
+        <v>0.8694245633081469</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4395182710029182</v>
+        <v>0.3622073691950705</v>
       </c>
       <c r="S89" t="n">
-        <v>0.9711908753611825</v>
+        <v>0.8676219048988352</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1174</v>
+        <v>1232</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1703</v>
+        <v>495</v>
       </c>
       <c r="B90" t="n">
-        <v>1753</v>
+        <v>533</v>
       </c>
       <c r="C90" t="n">
-        <v>1827</v>
+        <v>587</v>
       </c>
       <c r="D90" t="n">
-        <v>2.130340250928385</v>
+        <v>1.858836758827956</v>
       </c>
       <c r="E90" t="n">
-        <v>1.54580055149002</v>
+        <v>1.274297059389591</v>
       </c>
       <c r="F90" t="n">
         <v>-0.584539699438365</v>
       </c>
       <c r="G90" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H90" t="n">
-        <v>43.54821211096828</v>
+        <v>39.20807719493212</v>
       </c>
       <c r="I90" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J90" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="K90" t="n">
-        <v>130.3895960488938</v>
+        <v>121.3953343539769</v>
       </c>
       <c r="L90" t="n">
-        <v>5.200870375942068</v>
+        <v>4.538039887519113</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,16 +8174,16 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.8168595612905656</v>
+        <v>0.818170292150362</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="R90" t="n">
-        <v>0.276461273323562</v>
+        <v>0.4395182710029182</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9321903364131334</v>
+        <v>0.9711908753611825</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         </is>
       </c>
       <c r="U90" t="n">
-        <v>1175</v>
+        <v>1233</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1556</v>
+        <v>1703</v>
       </c>
       <c r="B91" t="n">
-        <v>1588</v>
+        <v>1753</v>
       </c>
       <c r="C91" t="n">
-        <v>1656</v>
+        <v>1827</v>
       </c>
       <c r="D91" t="n">
-        <v>2.501253692462081</v>
+        <v>2.130340250928385</v>
       </c>
       <c r="E91" t="n">
-        <v>1.849608391067334</v>
+        <v>1.54580055149002</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6516453013947461</v>
+        <v>-0.584539699438365</v>
       </c>
       <c r="G91" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H91" t="n">
-        <v>43.69663455581826</v>
+        <v>43.54821211096828</v>
       </c>
       <c r="I91" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J91" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K91" t="n">
-        <v>176.5320653657151</v>
+        <v>130.3895960488938</v>
       </c>
       <c r="L91" t="n">
-        <v>5.6692225740726</v>
+        <v>5.200870375942068</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.8872271836317447</v>
+        <v>0.8168595612905656</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="R91" t="n">
-        <v>0.251415879071597</v>
+        <v>0.276461273323562</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9760013823826847</v>
+        <v>0.9321903364131334</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n53</t>
+          <t>n52</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>1176</v>
+        <v>1234</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1653</v>
+        <v>1556</v>
       </c>
       <c r="B92" t="n">
-        <v>1683</v>
+        <v>1588</v>
       </c>
       <c r="C92" t="n">
-        <v>1726</v>
+        <v>1656</v>
       </c>
       <c r="D92" t="n">
-        <v>2.230873046526296</v>
+        <v>2.501253692462081</v>
       </c>
       <c r="E92" t="n">
-        <v>1.681339409605052</v>
+        <v>1.849608391067334</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5495336369212447</v>
+        <v>-0.6516453013947461</v>
       </c>
       <c r="G92" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H92" t="n">
-        <v>35.62223865585815</v>
+        <v>43.69663455581826</v>
       </c>
       <c r="I92" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J92" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K92" t="n">
-        <v>127.0621732857495</v>
+        <v>176.5320653657151</v>
       </c>
       <c r="L92" t="n">
-        <v>4.867020836737036</v>
+        <v>5.6692225740726</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.6932694748028601</v>
+        <v>0.8872271836317447</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R92" t="n">
-        <v>0.0957183488885205</v>
+        <v>0.251415879071597</v>
       </c>
       <c r="S92" t="n">
-        <v>0.9822790653512907</v>
+        <v>0.9760013823826847</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n54</t>
+          <t>n53</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1177</v>
+        <v>1235</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C93" t="n">
         <v>1726</v>
       </c>
-      <c r="B93" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1827</v>
-      </c>
       <c r="D93" t="n">
-        <v>2.688988341583759</v>
+        <v>2.230873046526296</v>
       </c>
       <c r="E93" t="n">
-        <v>2.139454704662514</v>
+        <v>1.681339409605052</v>
       </c>
       <c r="F93" t="n">
         <v>-0.5495336369212447</v>
       </c>
       <c r="G93" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H93" t="n">
-        <v>30.78131626928689</v>
+        <v>35.62223865585815</v>
       </c>
       <c r="I93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J93" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="K93" t="n">
-        <v>165.6189858224087</v>
+        <v>127.0621732857495</v>
       </c>
       <c r="L93" t="n">
-        <v>5.86647559734944</v>
+        <v>4.867020836737036</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,16 +8432,16 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.8568210872846465</v>
+        <v>0.6932694748028601</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2004546349974344</v>
+        <v>0.0957183488885205</v>
       </c>
       <c r="S93" t="n">
-        <v>0.8776360374156078</v>
+        <v>0.9822790653512907</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="U93" t="n">
-        <v>1178</v>
+        <v>1236</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1452</v>
+        <v>1726</v>
       </c>
       <c r="B94" t="n">
-        <v>1485</v>
+        <v>1755</v>
       </c>
       <c r="C94" t="n">
-        <v>1606</v>
+        <v>1827</v>
       </c>
       <c r="D94" t="n">
-        <v>1.643813330139032</v>
+        <v>2.688988341583759</v>
       </c>
       <c r="E94" t="n">
-        <v>1.140025917429547</v>
+        <v>2.139454704662514</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5037874127094844</v>
+        <v>-0.5495336369212447</v>
       </c>
       <c r="G94" t="n">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="H94" t="n">
-        <v>33.88316694575224</v>
+        <v>30.78131626928689</v>
       </c>
       <c r="I94" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J94" t="n">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K94" t="n">
-        <v>155.7830334338561</v>
+        <v>165.6189858224087</v>
       </c>
       <c r="L94" t="n">
-        <v>5.10666663881506</v>
+        <v>5.86647559734944</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,24 +8518,24 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.8038421485351487</v>
+        <v>0.8568210872846465</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R94" t="n">
-        <v>0.3828540423252952</v>
+        <v>0.2004546349974344</v>
       </c>
       <c r="S94" t="n">
-        <v>0.4942199188143552</v>
+        <v>0.8776360374156078</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>n55</t>
+          <t>n54</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1179</v>
+        <v>1237</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,40 +8555,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C95" t="n">
         <v>1606</v>
       </c>
-      <c r="B95" t="n">
-        <v>1684</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1827</v>
-      </c>
       <c r="D95" t="n">
-        <v>4.557014363033384</v>
+        <v>1.643813330139032</v>
       </c>
       <c r="E95" t="n">
-        <v>4.0532269503239</v>
+        <v>1.140025917429547</v>
       </c>
       <c r="F95" t="n">
         <v>-0.5037874127094844</v>
       </c>
       <c r="G95" t="n">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="H95" t="n">
-        <v>90.97495052038926</v>
+        <v>33.88316694575224</v>
       </c>
       <c r="I95" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="J95" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K95" t="n">
-        <v>477.6831583161558</v>
+        <v>155.7830334338561</v>
       </c>
       <c r="L95" t="n">
-        <v>14.15681013995391</v>
+        <v>5.10666663881506</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.7811045408607518</v>
+        <v>0.8038421485351487</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R95" t="n">
-        <v>0.4038150759754409</v>
+        <v>0.3828540423252952</v>
       </c>
       <c r="S95" t="n">
-        <v>0.894669360455508</v>
+        <v>0.4942199188143552</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="U95" t="n">
-        <v>1180</v>
+        <v>1238</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -8641,73 +8641,73 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>461</v>
+        <v>1606</v>
       </c>
       <c r="B96" t="n">
-        <v>483</v>
+        <v>1684</v>
       </c>
       <c r="C96" t="n">
-        <v>574</v>
+        <v>1827</v>
       </c>
       <c r="D96" t="n">
-        <v>1.643605246300013</v>
+        <v>4.557014363033384</v>
       </c>
       <c r="E96" t="n">
-        <v>0.993883844988686</v>
+        <v>4.0532269503239</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.6497214013113266</v>
+        <v>-0.5037874127094844</v>
       </c>
       <c r="G96" t="n">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="H96" t="n">
-        <v>26.03953242664272</v>
+        <v>90.97495052038926</v>
       </c>
       <c r="I96" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J96" t="n">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="K96" t="n">
-        <v>80.7099539061485</v>
+        <v>477.6831583161558</v>
       </c>
       <c r="L96" t="n">
-        <v>5.341450658193995</v>
+        <v>14.15681013995391</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(553), 'value': np.float64(0.19348622774314203), 'amplitude': np.float64(0.8432076290544687), 'start_idx': np.int64(530), 'end_idx': np.int64(573), 'duration': np.float64(43.0), 'fwhm': np.float64(22.589371874442804), 'rise_time': np.float64(23.0), 'decay_time': np.float64(20.0), 'auc': np.float64(25.144324612405942)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.741421020972297</v>
+        <v>0.7811045408607518</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="R96" t="n">
-        <v>0.5320411417033133</v>
+        <v>0.4038150759754409</v>
       </c>
       <c r="S96" t="n">
-        <v>0.2616460280610549</v>
+        <v>0.894669360455508</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>n56</t>
+          <t>n55</t>
         </is>
       </c>
       <c r="U96" t="n">
-        <v>1181</v>
+        <v>1239</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -8727,65 +8727,65 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>617</v>
+        <v>461</v>
       </c>
       <c r="B97" t="n">
-        <v>645</v>
+        <v>483</v>
       </c>
       <c r="C97" t="n">
-        <v>680</v>
+        <v>574</v>
       </c>
       <c r="D97" t="n">
-        <v>3.373962676041188</v>
+        <v>1.643605246300013</v>
       </c>
       <c r="E97" t="n">
-        <v>2.724241274729861</v>
+        <v>0.993883844988686</v>
       </c>
       <c r="F97" t="n">
         <v>-0.6497214013113266</v>
       </c>
       <c r="G97" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="H97" t="n">
-        <v>28.1860794023961</v>
+        <v>26.03953242664272</v>
       </c>
       <c r="I97" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J97" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="K97" t="n">
-        <v>151.0595472731739</v>
+        <v>80.7099539061485</v>
       </c>
       <c r="L97" t="n">
-        <v>10.9648318519498</v>
+        <v>5.341450658193995</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(553), 'value': np.float64(0.19348622774314203), 'amplitude': np.float64(0.8432076290544687), 'start_idx': np.int64(530), 'end_idx': np.int64(573), 'duration': np.float64(43.0), 'fwhm': np.float64(22.589371874442804), 'rise_time': np.float64(23.0), 'decay_time': np.float64(20.0), 'auc': np.float64(25.144324612405942)}]</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.6700358871430036</v>
+        <v>0.741421020972297</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.8</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="R97" t="n">
-        <v>0.08127232116514255</v>
+        <v>0.5320411417033133</v>
       </c>
       <c r="S97" t="n">
-        <v>0.994830645447513</v>
+        <v>0.2616460280610549</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         </is>
       </c>
       <c r="U97" t="n">
-        <v>1182</v>
+        <v>1240</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -8813,40 +8813,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>617</v>
+      </c>
+      <c r="B98" t="n">
+        <v>645</v>
+      </c>
+      <c r="C98" t="n">
         <v>680</v>
       </c>
-      <c r="B98" t="n">
-        <v>711</v>
-      </c>
-      <c r="C98" t="n">
-        <v>807</v>
-      </c>
       <c r="D98" t="n">
-        <v>3.734302186135384</v>
+        <v>3.373962676041188</v>
       </c>
       <c r="E98" t="n">
-        <v>3.084580784824057</v>
+        <v>2.724241274729861</v>
       </c>
       <c r="F98" t="n">
         <v>-0.6497214013113266</v>
       </c>
       <c r="G98" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="H98" t="n">
-        <v>134.1468379645174</v>
+        <v>28.1860794023961</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J98" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="K98" t="n">
-        <v>258.9777308813708</v>
+        <v>151.0595472731739</v>
       </c>
       <c r="L98" t="n">
-        <v>12.13587685664226</v>
+        <v>10.9648318519498</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -8862,16 +8862,16 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.9001064040169624</v>
+        <v>0.6700358871430036</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.8</v>
       </c>
       <c r="R98" t="n">
-        <v>0.3263811841265123</v>
+        <v>0.08127232116514255</v>
       </c>
       <c r="S98" t="n">
-        <v>0.9829995162414118</v>
+        <v>0.994830645447513</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>1183</v>
+        <v>1241</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -8899,40 +8899,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>863</v>
+        <v>680</v>
       </c>
       <c r="B99" t="n">
-        <v>911</v>
+        <v>711</v>
       </c>
       <c r="C99" t="n">
-        <v>990</v>
+        <v>807</v>
       </c>
       <c r="D99" t="n">
-        <v>1.862593135365342</v>
+        <v>3.734302186135384</v>
       </c>
       <c r="E99" t="n">
-        <v>1.348582644404407</v>
+        <v>3.084580784824057</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.514010490960935</v>
+        <v>-0.6497214013113266</v>
       </c>
       <c r="G99" t="n">
         <v>127</v>
       </c>
       <c r="H99" t="n">
-        <v>69.21428127348383</v>
+        <v>134.1468379645174</v>
       </c>
       <c r="I99" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J99" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K99" t="n">
-        <v>108.1001224705752</v>
+        <v>258.9777308813708</v>
       </c>
       <c r="L99" t="n">
-        <v>11.89818817748905</v>
+        <v>12.13587685664226</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8948,24 +8948,24 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.7178178403587309</v>
+        <v>0.9001064040169624</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="R99" t="n">
-        <v>0.5543209250887001</v>
+        <v>0.3263811841265123</v>
       </c>
       <c r="S99" t="n">
-        <v>0.9676981536966265</v>
+        <v>0.9829995162414118</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>n58</t>
+          <t>n56</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>1184</v>
+        <v>1242</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -8985,40 +8985,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1617</v>
+        <v>863</v>
       </c>
       <c r="B100" t="n">
-        <v>1634</v>
+        <v>911</v>
       </c>
       <c r="C100" t="n">
-        <v>1827</v>
+        <v>990</v>
       </c>
       <c r="D100" t="n">
-        <v>3.490767449572385</v>
+        <v>1.862593135365342</v>
       </c>
       <c r="E100" t="n">
-        <v>2.97675695861145</v>
+        <v>1.348582644404407</v>
       </c>
       <c r="F100" t="n">
         <v>-0.514010490960935</v>
       </c>
       <c r="G100" t="n">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="H100" t="n">
-        <v>17.40065396256045</v>
+        <v>69.21428127348383</v>
       </c>
       <c r="I100" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J100" t="n">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K100" t="n">
-        <v>314.704717265983</v>
+        <v>108.1001224705752</v>
       </c>
       <c r="L100" t="n">
-        <v>22.29891607042729</v>
+        <v>11.89818817748905</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9034,16 +9034,16 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.7672542790355055</v>
+        <v>0.7178178403587309</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.08808290155440414</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="R100" t="n">
-        <v>0.5745209246574293</v>
+        <v>0.5543209250887001</v>
       </c>
       <c r="S100" t="n">
-        <v>0.9334694873853362</v>
+        <v>0.9676981536966265</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="U100" t="n">
-        <v>1185</v>
+        <v>1243</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -9071,40 +9071,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1654</v>
+        <v>1617</v>
       </c>
       <c r="B101" t="n">
-        <v>1676</v>
+        <v>1634</v>
       </c>
       <c r="C101" t="n">
-        <v>1711</v>
+        <v>1787</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9883016907578799</v>
+        <v>3.490767449572385</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5361137285622077</v>
+        <v>2.97675695861145</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4521879621956722</v>
+        <v>-0.514010490960935</v>
       </c>
       <c r="G101" t="n">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="H101" t="n">
-        <v>21.86528984629695</v>
+        <v>17.40065396256045</v>
       </c>
       <c r="I101" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J101" t="n">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="K101" t="n">
-        <v>45.94159263142621</v>
+        <v>295.6106872690734</v>
       </c>
       <c r="L101" t="n">
-        <v>6.313277551985387</v>
+        <v>22.29891607042729</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9120,24 +9120,24 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.7413084610431429</v>
+        <v>0.7877508243602691</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1071792658088379</v>
+        <v>0.5079396953056675</v>
       </c>
       <c r="S101" t="n">
-        <v>0.9312587354165881</v>
+        <v>0.9745706392475429</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>n59</t>
+          <t>n58</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>1186</v>
+        <v>1244</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -9157,40 +9157,40 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>1676</v>
       </c>
       <c r="C102" t="n">
-        <v>76</v>
+        <v>1711</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5737423745572952</v>
+        <v>0.9883016907578799</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.08063468793543394</v>
+        <v>0.5361137285622077</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6543770624927291</v>
+        <v>-0.4521879621956722</v>
       </c>
       <c r="G102" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H102" t="n">
-        <v>28.09648960374211</v>
+        <v>21.86528984629695</v>
       </c>
       <c r="I102" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J102" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K102" t="n">
-        <v>31.87745857501064</v>
+        <v>45.94159263142621</v>
       </c>
       <c r="L102" t="n">
-        <v>4.935482886799099</v>
+        <v>6.313277551985387</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9206,24 +9206,24 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.9213555224426726</v>
+        <v>0.7413084610431429</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="R102" t="n">
-        <v>0.1998490890763765</v>
+        <v>0.1071792658088379</v>
       </c>
       <c r="S102" t="n">
-        <v>0.7894966184266504</v>
+        <v>0.9312587354165881</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>n60</t>
+          <t>n59</t>
         </is>
       </c>
       <c r="U102" t="n">
-        <v>1187</v>
+        <v>1245</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -9243,40 +9243,40 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="D103" t="n">
-        <v>3.385657600723093</v>
+        <v>0.5737423745572952</v>
       </c>
       <c r="E103" t="n">
-        <v>2.731280538230364</v>
+        <v>-0.08063468793543394</v>
       </c>
       <c r="F103" t="n">
         <v>-0.6543770624927291</v>
       </c>
       <c r="G103" t="n">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="H103" t="n">
-        <v>277.2394497793631</v>
+        <v>28.09648960374211</v>
       </c>
       <c r="I103" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J103" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="K103" t="n">
-        <v>266.5058244881387</v>
+        <v>31.87745857501064</v>
       </c>
       <c r="L103" t="n">
-        <v>29.12431762047138</v>
+        <v>4.935482886799099</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9292,16 +9292,16 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.9005071887343576</v>
+        <v>0.9213555224426726</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.2589285714285715</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R103" t="n">
-        <v>0.4682373684806513</v>
+        <v>0.1998490890763765</v>
       </c>
       <c r="S103" t="n">
-        <v>0.9835199397673757</v>
+        <v>0.7894966184266504</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="U103" t="n">
-        <v>1188</v>
+        <v>1246</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -9329,85 +9329,171 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
+        <v>319</v>
+      </c>
+      <c r="B104" t="n">
+        <v>348</v>
+      </c>
+      <c r="C104" t="n">
         <v>460</v>
       </c>
-      <c r="B104" t="n">
-        <v>491</v>
-      </c>
-      <c r="C104" t="n">
-        <v>567</v>
-      </c>
       <c r="D104" t="n">
-        <v>1.174831365140675</v>
+        <v>3.385657600723093</v>
       </c>
       <c r="E104" t="n">
-        <v>0.520454302647946</v>
+        <v>2.731280538230364</v>
       </c>
       <c r="F104" t="n">
         <v>-0.6543770624927291</v>
       </c>
       <c r="G104" t="n">
+        <v>141</v>
+      </c>
+      <c r="H104" t="n">
+        <v>277.2394497793631</v>
+      </c>
+      <c r="I104" t="n">
+        <v>29</v>
+      </c>
+      <c r="J104" t="n">
+        <v>112</v>
+      </c>
+      <c r="K104" t="n">
+        <v>266.5058244881387</v>
+      </c>
+      <c r="L104" t="n">
+        <v>29.12431762047138</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.9005071887343576</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.2589285714285715</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.4682373684806513</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.9835199397673757</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n60</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>1247</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>460</v>
+      </c>
+      <c r="B105" t="n">
+        <v>491</v>
+      </c>
+      <c r="C105" t="n">
+        <v>567</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.174831365140675</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.520454302647946</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.6543770624927291</v>
+      </c>
+      <c r="G105" t="n">
         <v>107</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H105" t="n">
         <v>53.77380901897044</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I105" t="n">
         <v>31</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J105" t="n">
         <v>76</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K105" t="n">
         <v>86.76919726774712</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L105" t="n">
         <v>10.10620856094287</v>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
         <v>0.7885044761061181</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q105" t="n">
         <v>0.4078947368421053</v>
       </c>
-      <c r="R104" t="n">
+      <c r="R105" t="n">
         <v>0.1289215299861892</v>
       </c>
-      <c r="S104" t="n">
+      <c r="S105" t="n">
         <v>0.857638452601306</v>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>n60</t>
         </is>
       </c>
-      <c r="U104" t="n">
-        <v>1189</v>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
+      <c r="U105" t="n">
+        <v>1248</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORhabitituteCellVedio22024-12-04202145trace.xlsx</t>
         </is>
